--- a/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96376BC0-9270-CB44-8850-6A4E09C999F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5563838-2CB5-6D44-9201-1A432CE2E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="429">
   <si>
     <t>CourseCode</t>
   </si>
@@ -1320,6 +1320,15 @@
   </si>
   <si>
     <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar,&amp;nbsp;dæmatímar, verklegar æfingar og heimaverkefni.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SemesterType</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>3V</t>
   </si>
 </sst>
 </file>
@@ -1375,13 +1384,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA1D17C-0035-42EB-B7C7-C03A633A6D37}" name="Table1" displayName="Table1" ref="A1:L59" totalsRowShown="0">
-  <autoFilter ref="A1:L59" xr:uid="{71E19537-3BF6-48C1-AD92-F737D92D02D2}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA1D17C-0035-42EB-B7C7-C03A633A6D37}" name="Table1" displayName="Table1" ref="A1:M59" totalsRowShown="0">
+  <autoFilter ref="A1:M59" xr:uid="{71E19537-3BF6-48C1-AD92-F737D92D02D2}"/>
+  <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{506EE57C-22FE-4740-A8BF-0E7E7069198F}" name="CourseCode"/>
     <tableColumn id="3" xr3:uid="{F4634A52-1A16-4A1F-8869-44104DB0550F}" name="Name"/>
     <tableColumn id="5" xr3:uid="{918E7949-CC43-4153-86F5-7E12EE500D4D}" name="DepartmentName"/>
     <tableColumn id="6" xr3:uid="{98D397CE-D3F9-4FA3-96F0-2FB8FE3BFC49}" name="SemesterName"/>
+    <tableColumn id="1" xr3:uid="{C816B266-1F20-8E49-BB76-B4E2FFB9FFAF}" name="SemesterType"/>
     <tableColumn id="8" xr3:uid="{E012DFB0-B4BF-4B21-9E6A-0E6E3D89DC4E}" name="ECTS"/>
     <tableColumn id="11" xr3:uid="{BC93E450-83EC-439C-9575-856DDE971B68}" name="Description"/>
     <tableColumn id="12" xr3:uid="{51233093-8FF5-4803-9B14-B2E3974E2EEA}" name="Outcome"/>
@@ -1713,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1724,16 +1734,16 @@
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="7" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="112.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="4" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="8" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="112.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1747,31 +1757,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1784,32 +1797,35 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1822,32 +1838,35 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1860,32 +1879,35 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1898,32 +1920,35 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1936,32 +1961,35 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6">
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1974,32 +2002,35 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>56</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2012,32 +2043,32 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>62</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8">
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2050,32 +2081,35 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>68</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>69</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>70</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9">
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2088,32 +2122,32 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>76</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>77</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -2126,32 +2160,32 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>82</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>83</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>84</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>85</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2164,32 +2198,32 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
         <v>88</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>89</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>90</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>91</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>92</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>85</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -2202,32 +2236,32 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>96</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>85</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2240,32 +2274,32 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>104</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>105</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>106</v>
       </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -2278,32 +2312,32 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
         <v>109</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>112</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>113</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>85</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -2316,32 +2350,32 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
         <v>116</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>117</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>118</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>119</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>120</v>
       </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -2354,32 +2388,32 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
         <v>123</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>124</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>26</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>125</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>126</v>
       </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -2392,32 +2426,32 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>130</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>131</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>132</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>133</v>
       </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -2430,32 +2464,32 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
         <v>136</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>137</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>138</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>140</v>
       </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -2468,32 +2502,32 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
         <v>143</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>144</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>145</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>146</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>147</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>85</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -2506,32 +2540,32 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
         <v>150</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>151</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>152</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>153</v>
       </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -2544,32 +2578,32 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
         <v>156</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>157</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>158</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>159</v>
       </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22">
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -2582,32 +2616,32 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
         <v>162</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>163</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>164</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>165</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>166</v>
       </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -2620,32 +2654,32 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
         <v>169</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>170</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>171</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>172</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>126</v>
       </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -2658,32 +2692,32 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
         <v>175</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>176</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>26</v>
-      </c>
-      <c r="I25" t="s">
-        <v>177</v>
       </c>
       <c r="J25" t="s">
         <v>177</v>
       </c>
       <c r="K25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
         <v>85</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -2696,32 +2730,32 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
         <v>180</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>181</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>90</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>182</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>183</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>184</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -2734,32 +2768,32 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
         <v>187</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>189</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>158</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>190</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -2772,32 +2806,32 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
         <v>193</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>194</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>195</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>196</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>197</v>
       </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28">
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -2810,32 +2844,32 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
         <v>200</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>201</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>26</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>202</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>203</v>
       </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -2848,32 +2882,32 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
         <v>206</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>207</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>97</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>208</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>209</v>
       </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -2886,32 +2920,32 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
         <v>212</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>214</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>215</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>216</v>
       </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>217</v>
       </c>
@@ -2924,32 +2958,32 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
         <v>219</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>220</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>221</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>222</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>223</v>
       </c>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>224</v>
       </c>
@@ -2962,32 +2996,32 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
         <v>226</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>227</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>228</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>229</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>230</v>
       </c>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33">
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -3000,32 +3034,32 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
         <v>233</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>234</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>26</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>235</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>236</v>
       </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34">
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -3038,32 +3072,32 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
         <v>239</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>234</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>26</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>240</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>241</v>
       </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -3076,32 +3110,32 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>8</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>244</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>245</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>26</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>246</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>247</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>85</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>248</v>
       </c>
@@ -3114,32 +3148,32 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
         <v>249</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>250</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>26</v>
-      </c>
-      <c r="I37" t="s">
-        <v>177</v>
       </c>
       <c r="J37" t="s">
         <v>177</v>
       </c>
       <c r="K37" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" t="s">
         <v>85</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -3152,32 +3186,32 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
         <v>253</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>254</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>26</v>
-      </c>
-      <c r="I38" t="s">
-        <v>255</v>
       </c>
       <c r="J38" t="s">
         <v>255</v>
       </c>
       <c r="K38" t="s">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s">
         <v>85</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -3190,32 +3224,32 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
         <v>258</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>259</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>26</v>
-      </c>
-      <c r="I39" t="s">
-        <v>177</v>
       </c>
       <c r="J39" t="s">
         <v>177</v>
       </c>
       <c r="K39" t="s">
+        <v>177</v>
+      </c>
+      <c r="L39" t="s">
         <v>85</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>260</v>
       </c>
@@ -3228,32 +3262,32 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>8</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>262</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>26</v>
-      </c>
-      <c r="I40" t="s">
-        <v>177</v>
       </c>
       <c r="J40" t="s">
         <v>177</v>
       </c>
       <c r="K40" t="s">
+        <v>177</v>
+      </c>
+      <c r="L40" t="s">
         <v>85</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>264</v>
       </c>
@@ -3266,32 +3300,32 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>8</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>266</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>267</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>26</v>
-      </c>
-      <c r="I41" t="s">
-        <v>255</v>
       </c>
       <c r="J41" t="s">
         <v>255</v>
       </c>
       <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
         <v>85</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -3304,32 +3338,32 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>8</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>270</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>271</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>26</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>272</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>273</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>85</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>274</v>
       </c>
@@ -3342,32 +3376,32 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>8</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>276</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>277</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>26</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>278</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>279</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>85</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>280</v>
       </c>
@@ -3380,32 +3414,32 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>8</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>282</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>283</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>26</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>284</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>279</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>85</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>285</v>
       </c>
@@ -3418,32 +3452,32 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>8</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>287</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>288</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>26</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>289</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>177</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>85</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>290</v>
       </c>
@@ -3456,32 +3490,32 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>8</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>292</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>293</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>26</v>
-      </c>
-      <c r="I46" t="s">
-        <v>177</v>
       </c>
       <c r="J46" t="s">
         <v>177</v>
       </c>
       <c r="K46" t="s">
+        <v>177</v>
+      </c>
+      <c r="L46" t="s">
         <v>85</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -3494,32 +3528,32 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>177</v>
       </c>
       <c r="G47" t="s">
         <v>177</v>
       </c>
       <c r="H47" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" t="s">
         <v>26</v>
-      </c>
-      <c r="I47" t="s">
-        <v>177</v>
       </c>
       <c r="J47" t="s">
         <v>177</v>
       </c>
       <c r="K47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L47" t="s">
         <v>85</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -3532,32 +3566,32 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>8</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>298</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>299</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>26</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>300</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>301</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>85</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>302</v>
       </c>
@@ -3570,32 +3604,32 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>8</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>304</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>305</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>26</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>306</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>177</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>85</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>307</v>
       </c>
@@ -3608,32 +3642,32 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>8</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>309</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>310</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>26</v>
-      </c>
-      <c r="I50" t="s">
-        <v>177</v>
       </c>
       <c r="J50" t="s">
         <v>177</v>
       </c>
       <c r="K50" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" t="s">
         <v>85</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>311</v>
       </c>
@@ -3646,32 +3680,32 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>8</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>313</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>314</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>26</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>315</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>316</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>85</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>317</v>
       </c>
@@ -3684,32 +3718,32 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>8</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>319</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>320</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>321</v>
-      </c>
-      <c r="I52" t="s">
-        <v>177</v>
       </c>
       <c r="J52" t="s">
         <v>177</v>
       </c>
       <c r="K52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L52" t="s">
         <v>85</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>322</v>
       </c>
@@ -3722,32 +3756,32 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>325</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>26</v>
-      </c>
-      <c r="I53" t="s">
-        <v>177</v>
       </c>
       <c r="J53" t="s">
         <v>177</v>
       </c>
       <c r="K53" t="s">
+        <v>177</v>
+      </c>
+      <c r="L53" t="s">
         <v>85</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>326</v>
       </c>
@@ -3760,32 +3794,32 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>30</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>328</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>329</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>26</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>330</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>177</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>85</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>331</v>
       </c>
@@ -3798,32 +3832,32 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>30</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>332</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>333</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>26</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>330</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>177</v>
       </c>
-      <c r="K55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55">
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>334</v>
       </c>
@@ -3836,32 +3870,32 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>30</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>336</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
       </c>
       <c r="H56" t="s">
         <v>26</v>
       </c>
       <c r="I56" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s">
         <v>337</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>26</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>85</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>338</v>
       </c>
@@ -3874,11 +3908,8 @@
       <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>60</v>
-      </c>
-      <c r="F57" t="s">
-        <v>26</v>
       </c>
       <c r="G57" t="s">
         <v>26</v>
@@ -3893,13 +3924,16 @@
         <v>26</v>
       </c>
       <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
         <v>85</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -3912,11 +3946,8 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>60</v>
-      </c>
-      <c r="F58" t="s">
-        <v>26</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
@@ -3931,13 +3962,16 @@
         <v>26</v>
       </c>
       <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
         <v>85</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>342</v>
       </c>
@@ -3950,11 +3984,8 @@
       <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>60</v>
-      </c>
-      <c r="F59" t="s">
-        <v>26</v>
       </c>
       <c r="G59" t="s">
         <v>26</v>
@@ -3969,9 +4000,12 @@
         <v>26</v>
       </c>
       <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
         <v>85</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>0</v>
       </c>
     </row>
@@ -3987,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB368C67-0469-40F7-B089-2478E9FFC0A5}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5563838-2CB5-6D44-9201-1A432CE2E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3D3A2-46C9-5948-872B-75FE19CF83C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="429">
   <si>
     <t>CourseCode</t>
   </si>
@@ -1725,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2122,6 +2122,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>427</v>
+      </c>
       <c r="F10">
         <v>6</v>
       </c>
@@ -2160,6 +2163,9 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>427</v>
+      </c>
       <c r="F11">
         <v>6</v>
       </c>
@@ -2198,6 +2204,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>427</v>
+      </c>
       <c r="F12">
         <v>6</v>
       </c>
@@ -2274,6 +2283,9 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" t="s">
+        <v>427</v>
+      </c>
       <c r="F14">
         <v>6</v>
       </c>
@@ -2350,6 +2362,9 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>427</v>
+      </c>
       <c r="F16">
         <v>6</v>
       </c>
@@ -2426,6 +2441,9 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
+      <c r="E18" t="s">
+        <v>428</v>
+      </c>
       <c r="F18">
         <v>6</v>
       </c>
@@ -2464,6 +2482,9 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>427</v>
+      </c>
       <c r="F19">
         <v>6</v>
       </c>
@@ -2540,6 +2561,9 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>427</v>
+      </c>
       <c r="F21">
         <v>6</v>
       </c>
@@ -2578,6 +2602,9 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>427</v>
+      </c>
       <c r="F22">
         <v>6</v>
       </c>
@@ -2616,6 +2643,9 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>428</v>
+      </c>
       <c r="F23">
         <v>6</v>
       </c>
@@ -2806,6 +2836,9 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>427</v>
+      </c>
       <c r="F28">
         <v>6</v>
       </c>
@@ -2843,6 +2876,9 @@
       </c>
       <c r="D29" t="s">
         <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>427</v>
       </c>
       <c r="F29">
         <v>6</v>

--- a/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslaugsol/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96376BC0-9270-CB44-8850-6A4E09C999F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52127BED-97FD-E34E-9DE2-BA9C10531864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="492">
   <si>
     <t>CourseCode</t>
   </si>
@@ -1321,6 +1321,220 @@
   <si>
     <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar,&amp;nbsp;dæmatímar, verklegar æfingar og heimaverkefni.&lt;/p&gt;</t>
   </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&amp;nbsp;&lt;/strong&gt;&amp;nbsp;1. Grunnnám, grunnnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;&amp;nbsp; &amp;nbsp;Skyldunámskeið fyrir allar námsbrautir í verkfræði.&lt;br&gt;&lt;strong&gt;???????Nauðsynlegir undanfarar: &lt;/strong&gt;Engir undanfarar.&lt;/p&gt;&lt;p&gt;Eðlisfræði er grunnur að hefðbundum greinum verkfræðinnar en aðferðafræði eðlisfræðinnar, sérstaklega líkanagerð, nær langt út fyrir þessi hefðbundnu svið. Til dæmis nýtast aðferðir eðlisfræðinnar til að lýsa kerfum í líffræði, hagfræði og fjármálum. Í áfanganum er nemandinn þjálfaður í að lýsa einfaldri hreyfingu hluta og grunnatriðum varmafræði. Eðlisfræðin eykur skilning á umhverfi okkar, náttúrunni og tækninni, og gefur innsýn sem hvetur og styður við skapandi hugsun við lausn verkefna.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;strong&gt;Lesefni:&lt;/strong&gt; H.D Young and R.A Freedman, University Physics with Modern Physics.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Stefnt er að því að nemendur þekki: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;almenna lausn á diffurjöfnu og sérlausn á upphafsgildisverkefni (U.G.V.),&lt;/li&gt;&lt;li&gt;nokkrar algengar tegundir af fyrsta stigs diffurjöfnum,&lt;/li&gt;&lt;li&gt;hliðraðar og óhliðraðar annars stigs diffurjöfnur,&lt;/li&gt;&lt;li&gt;grunnlausnir á annars stigs diffurjöfnum og Wronski ákveður,&lt;/li&gt;&lt;li&gt;Laplace-ummyndun,&lt;/li&gt;&lt;li&gt;Fourierraðir og Fourier-ummyndun,&lt;/li&gt;&lt;li&gt;fyrsta stigs línuleg diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;nokkrar hlutafleiðujöfnur, t.d. bylgjujöfnuna og varmaleiðnijöfnuna.&lt;/li&gt;&lt;li&gt;einfaldar ítranir til að leysa diffurjöfnu tölulega.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;leyst nokkrar tegundir af fyrsta stigs diffurjöfnum, t.d. með því að aðskilja breytistærðir, finna mætti eða nota breytuskipti,&lt;/li&gt;&lt;li&gt;leyst hliðraðar annars stigs diffurjöfnur, t.d. með aðferð breytilegra stuðla eða aðferð óákvarðaðra fasta,&lt;/li&gt;&lt;li&gt;leyst upphafsgildisverkefni með Heaviside falli eða Deltafalli Diracs með Laplace-ummyndun,&lt;/li&gt;&lt;li&gt;fundið veldaraðalausnir,&lt;/li&gt;&lt;li&gt;fundið Fourierröð falls og kósínus og sínusröð falls,&lt;/li&gt;&lt;li&gt;breytt n-ta stigs diffurjöfnu í 1. stigs diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;leyst diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;geti leyst jaðargildisverkefni fyrir annars stigs diffurjöfnur með fastastuðlum,&lt;/li&gt;&lt;li&gt;geti leyst einfaldar hlutafleiðujöfnur með aðskilnaði breytistærða.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Stefnt er að því að nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;átti sig á hlutverki diffurjafna við framsetningu verkefna í verkfræði,&lt;/li&gt;&lt;li&gt;geti leyst verkefni í verkfræði sem innihalda diffurjöfnur.&lt;/li&gt;&lt;li&gt;notað hugbúnað (t.d. Matlab) við lausn verkefna í námsefninu.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat er byggt á skriflegu lokaprófi skiladæmum, hlutaprófum og kynningu á hagnýtri diffurjöfnu. Standast þarf skriflega lokaprófið.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt;                  2. First cycle, intermediate.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Mandatory course for mechatronics engineering, biomedical engineering, electric power engineering, energy engineering, mechanical engineering.&lt;br&gt;&lt;strong&gt;Mandatory prerequisites: &lt;/strong&gt;Calculus I (T-101-STA1), Physics I (T-102-EDL1), Physcis II (T-202-EDL2).&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Basic concepts of charge, current, power and energy.&lt;/li&gt;&lt;li&gt;Circuit elements, including different types of sources.&lt;/li&gt;&lt;li&gt;Basic laws, including Ohm’s and Kirchhoff’s laws.&lt;/li&gt;&lt;li&gt;Series and parallel connections, and Delta and Wye transformations.&lt;/li&gt;&lt;li&gt;Circuit analysis methods; node voltage and mesh current methods.&lt;/li&gt;&lt;li&gt;Circuit theorems; superposition, source transformation, Thevenin’s and Norton’s theorems and maximum power transfer.&lt;/li&gt;&lt;li&gt;Operational amplifiers (Op-Amp) and its basic circuits.&lt;/li&gt;&lt;li&gt;Inductors and capacitors and series and parallel combinations.&lt;/li&gt;&lt;li&gt;First order RL and RC circuits, and the natural, forced and steady-state responses.&lt;/li&gt;&lt;li&gt;Second order series and parallel RLC circuits.&lt;/li&gt;&lt;li&gt;Concepts of phasors and impedances for AC sinusoidal analysis&lt;/li&gt;&lt;li&gt;Circuits methods and theorems for AC sinusoidal steady-state and AC power analysis&lt;/li&gt;&lt;li&gt;Frequency response; resonance conditions, transfer functions and frequency filters&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Textbook&lt;/strong&gt;: Fundamentals of Electric Circuits, C. K. Alexander and M. N. O. Sadiku, Mc Graw Hill 6th edition, 2016 (Chapters: 01-11 and 14).&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Lecture Slides&lt;/strong&gt;: Mainly from the textbook.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Homework Assignments and Experiments&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;The course supervisor is Mohamed Abdelfattah.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Assessment methods:&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;_x000D_
+&lt;ul&gt;_x000D_
+    &lt;li&gt;Quizzes (short tests)&lt;/li&gt;_x000D_
+    &lt;li&gt;Midterm exam&lt;/li&gt;_x000D_
+    &lt;li&gt;Assignments; homework problems and lab exercises.&lt;/li&gt;_x000D_
+    &lt;li&gt;Final exam; in order to pass this course, you need 50% or higher on the Final-Exam grade and 50% or higher on the total grade.&lt;/li&gt;_x000D_
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>T-401-VELH</t>
+  </si>
+  <si>
+    <t>T-403-RAVE</t>
+  </si>
+  <si>
+    <t>T-738-CONT</t>
+  </si>
+  <si>
+    <t>T-501-REGL</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt;                  3. First cycle, advanced / 4. Second cycle, introductory.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Core mechatronics engineering, electric power engineering.  Recommended elective for biomedical engineering and mechanical engineering.&lt;br&gt;&lt;strong&gt;Prerequisites (mandatory):&lt;/strong&gt; Calculus I (T-101-STA1), Calculus II (T-201-STA2), Mathematics III (T-301-MATH), Linear Algebra (T-211-LINA), Linear Dynamic Systems. T-401-LISY. Programming in Matlab and/or Python.&lt;/p&gt;&lt;p&gt;This is an introductory course to feedback control systems. The course topics are:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Models of dynamical systems based on ordinary differential equations&lt;/li&gt;&lt;li&gt;Stability analysis&lt;/li&gt;&lt;li&gt;Linear systems&lt;/li&gt;&lt;li&gt;Design of control systems in state-space&lt;/li&gt;&lt;li&gt;PID control&lt;/li&gt;&lt;li&gt;Frequency domain analysis&lt;/li&gt;&lt;li&gt;Frequency domain design methods&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;K. J. Åström &amp; R. M. Murray, &lt;em&gt;Feedback Systems: An Introduction for Scientists and Engineers&lt;/em&gt;, Princeton University Press, 2008 (www.cds.caltech.edu/~murray/amwiki/Main_Page)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This course is designed to give you a solid foundation in the theory and concepts of dynamic systems and how models are used for determining system behaviour. The design of feed-back control systems is particularly well suited to achieving this objective, as it calls for an in-depth understanding of system stability and how this is affected by the design of control signals.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Having completed this course, you should be able to&lt;/p&gt;&lt;ul&gt;&lt;li&gt;explain structure and characteristics of automatic control systems&lt;/li&gt;&lt;li&gt;develop mathematical models of common control systems using differential equations&lt;/li&gt;&lt;li&gt;calibrate these models using system response measurements&lt;/li&gt;&lt;li&gt;determine system stability&lt;/li&gt;&lt;li&gt;apply control to satisfy operational requirements and achieve satisfactory performance&lt;/li&gt;&lt;li&gt;use common methods and software (MATLAB) for the design of control systems&lt;/li&gt;&lt;li&gt;actively participate in the design of a control system&lt;/li&gt;&lt;li&gt;undertake further studies in the analysis and design of complex control systems&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í 12 vikur - 6 kennslustundir á viku auk verklegra æfinga.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught for 12 weeks. To be decided.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>T-864-NUFF</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fyrir allar námsbrautir í verkfræði&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Engir undanfarar.&lt;/p&gt;&lt;p&gt;Farið er í undirstöðuatriði línulegrar algebru og notkun á þeim. Tekinn er fyrir fylkjareikningur og aðferðir við lausn á línulegum jöfnuhneppum. Fjallað er um línulegar varpanir, ákveður, eigingildi og eiginvigra. Myndræn beiting fylkjareiknings er skoðuð. Fjallað er um vigrarúmfræði, þar á meðal jöfnur fyrir plön. Teknar eru fyrir aðferðir til að leiða út grunn fyrir ýmis hlutrúm Rn.  Nemendur fá að kynnast almennum vektorrúmum og eiginleika þeirra.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                 &lt;/strong&gt;Lay, Lay and McDonald, &lt;em&gt;Linear Algebra and its Applications.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Stefnt er að því að nemendur þekki:&lt;br&gt;•    undirstöðuatriði fylkjareiknings,&lt;br&gt;•    lausnir á línulegum jöfnuhneppum,&lt;br&gt;•    aðferðir til að meta hvort vigrar eru línulega óháðir,&lt;br&gt;•    grunnatriði varðandi línulegar varpanir,&lt;br&gt;•    vigraaðgerðir, meðal annars innfeldi og krossfeldi,&lt;br&gt;•    fylkjaaðgerðir og andhverfur fylkja,&lt;br&gt;•    þverlægni, ofanvörp og hornrétta grunni,&lt;br&gt;•    hlutrúm Rn og víddir og grunnir þeirra,&lt;br&gt;•    grunnatriði varðandi almenn vektorrúm.&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;br&gt;•    rökstutt niðurstöður í línulegri algebru með því að beita stærðfræðilegri röksemdarfærslu,&lt;br&gt;•    notað fylkjareikning til að leysa ýmis verkefni í rúmfræði,&lt;br&gt;•    reiknað ákveðu og andhverfu fylkis,&lt;br&gt;•    reiknað eigingildi og eiginvigra fylkis, og hornalínugert það þegar hægt er,&lt;br&gt;•    reiknað grunn fyrir ýmis hlutrúm Rn.&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;br&gt;• beitt fylkjareikningi til að leysa verkefni sem upp koma í tölvunarfræði og verkfræði, &lt;br&gt;&lt;/p&gt;&lt;p&gt;• beitt stærðfræðilegri röksemdarfærslu til að sanna einfaldar reglur og setningar. &lt;br&gt;&lt;/p&gt;&lt;p&gt;• notað hugbúnað (t.d. Matlab) við lausn verkefna í námsefninu. &lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>T-606-HEAT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið.&lt;strong&gt; &lt;/strong&gt;  &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið vélaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Eðlisfræði I (T-102-EDL1), Stærðfræði II (T-201-STA2), Varmafræði (T-507-VARM).&lt;/p&gt;&lt;p&gt;Efnistök námskeiðsins eru meðal annars eðliseiginleikar vökva, vökvastöðufræði, varðveislulögmál með tegur- og diffurframsetningu, Bernoulli jafna, mættisstreymi, einföld flæði seigra vökva með Navier-Stokes jöfnum, víddargreining, pípustreymi, jaðarlög og þjappanleg flæði.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                              &lt;/strong&gt;F.M White, &lt;em&gt;Fluid Mechanics.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, dæmatímar og verklegar æfingar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>T-606-NUFF</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                  3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fjármálaverkfræði og rekstrarverkfræði á 3. ári. Skyldunámskeið heilbrigðisverkfræði og vélaverkfræði á 4. ári (þ.e. á fyrsta ári meistaranáms).&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Stærðfræði I (T-101-STA1), Stærðfræði II (T-201-STA2),  Línuleg Algebra (T-211-LINA), Forritun fyrir verkfræðinema (T-201-FOR1), Stærðfræði III (T-301-MATH).&lt;/p&gt;&lt;p&gt;Undirstöðuatriði tölulegrar greiningar og notkun á þeim. Nálganir og skekkjumat. Tölulegar aðferðir til að leysa jöfnur og finna lægsta gildi falls. Tölulegar lausnir á línulegum og ólínulegum jöfnuhneppum. Margliðubrúun. Línuleg aðhvarfsgreining fyrir gagnasöfn. Töluleg diffrun og heildun. Tölulegar lausnir á upphafs- og jaðargildisverkefni fyrir venjulegar diffurjöfnur og diffurjöfnuhneppi. Undirstöðuatriði bútaaðferðar við lausn á diffurjöfnum. Áhersla er lögð á hagnýta forritun til að leysa stærðfræðileg verkefni sem koma upp í verkfræðinni. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                                 &lt;/strong&gt;Timothy Sauer, &lt;em&gt;Numerical Analysis&lt;/em&gt;. Fyrirlestrarnótur frá kennara&lt;em&gt;.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Varmaflutningsfræði</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &lt;/strong&gt;                  3. Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið vélaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Stærðfræði III (T-301-MATH), Varmafræði (T-507-VARM), Straumfræði (T-536-RENN).&lt;/p&gt;&lt;p&gt;Í þessu námskeiði eru grunnhugtök og grunnaðferðir í varmaflutningsfræði kynntar:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Varmaleiðni: Æstæð varmaleiðni í einni vídd, lausn á jöfnu Fourier fyrir æstæð og tímaháð vandamál. Greining á hnikkluðum kerfum með varmaviðnámi. Tölulegar aðferðir.&lt;/li&gt;&lt;li&gt;Varmaburður: Frjáls varmaburður. Þvingaður varmaburður, lagstreymi og iðustreymi í innra og ytra streymi, t.d. streymi í samsíða plötum, yfir flata plötu og í hringlaga pípu. Varmaburður við þéttingu og suðu. Tölulegar aðferðir.&lt;/li&gt;&lt;li&gt;Varmageislun: Grunnlögmál, geislunareiginleikar, formstuðlar, geislun frá svörtum hlut og frávik frá því, geislun frá gösum.&lt;/li&gt;&lt;li&gt;Varmaskiptar: Flokkun varmaskipta, hitastigsdreifing, heildarvarmaburðarstuðull. Greining varmaskipta með LMTD og NTU aðferðum.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Incropera Dewitt, Bergmenn and Lavine, &lt;em&gt;Introduction to Heat Transfer.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa þekkingu á:&lt;br&gt;•    varmaleiðni, varmaburði og varmageislun&lt;br&gt;•    varmaskiptum&lt;br&gt;•    einföldum tölulegum aðferðum við lausn æstæðra vandamála&lt;br&gt;•    tengslum milli streymis og varmaflutnings&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa leikni í að:&lt;br&gt;•    leysa verkfræðileg vandamál m.t.t. varmaflutnings&lt;br&gt;•    setja upp net og jaðarskilyrði fyrir tölulega lausn vandamála&lt;br&gt;•    greina varmaskipta með LMTD og NTU aðferðum&lt;br&gt;•    greina og leysa æstæð og tímaháð vandamál&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Í lok þessa námskeiðs hafa nemendur: &lt;br&gt;•    öðlast hæfni til að forhanna varmaskipta og aðra hluti sem verða fyrir varmaálagi. &lt;br&gt;•    öðlast hæfni til að setja upp og framkvæma einfaldar tilraunir í varmaflutningsfræði&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat er byggt á skiladæmum, verklegum æfingum, verkefni, lokaprófi. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar. Dæmaæfingar, skiladæmi, verklegar æfingar, og forritunarverkefni.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>T-306-MERK</t>
+  </si>
+  <si>
+    <t>T-423-ENOP</t>
+  </si>
+  <si>
+    <t>T-863-WIND</t>
+  </si>
+  <si>
+    <t>T-609-LAEK</t>
+  </si>
+  <si>
+    <t>T-406-LIFE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið.    &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:            &lt;/strong&gt;Skyldunámskeið heilbrigðisverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Engir. Efnafræði (T-204-EFNA) er ráðlagður undanfari.&lt;/p&gt;&lt;p&gt;Fyrsti hluti: Inngangur að frumulíffræði, lífefnafræði frumna og prótein.&lt;/p&gt;&lt;p&gt;Annar hluti: Sameindaerfðafræði. Genamengið og litningar, DNA eftirmyndun, DNA viðgerðir og DNA       endurröðun. Umritun á DNA yfir í RNA. Þýðing á RNA yfir í prótein. Grunnatriði genastjórnunar.&lt;/p&gt;&lt;p&gt;Þriðji hluti: Frumuhimnan, flutningur sameinda yfir frumuhimnu, Innra skipulag frumunar, Flutningur í     blöðrum, Orkubúskapur frumunar, Boðskipti frumunar og Frumugrindin.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Alberts et al, &lt;em&gt;Essential Cell Biology.4th edition&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Markmið með þessu námskeiði er að gefa 1. árs verkfræðinemum grunnþekkingu í samsetningu og starfsemi heilkjörnunga og helstu þáttum í sameindalíffræði heilkjörnunga. Einnig að kynna þeim fyrir almennum þáttum í stofnfrumulíffræði, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Farið verður í grunnþætti lífefnafræði, grunnþætti sameindaerfðafræði, grunnþætti sameindalíffræði og grunnþætti frumulíffræði. Farið í uppbyggingu og starfsemi próteina. Farið verður yfir uppbyggingu og pökkun erfðaefnisins. Farið verður yfir þá þætti sem stýra viðhaldi, viðgerð og endurmyndun á erfðaefninu. Farið verður í gegnum hvernig erfðaefnið er umritað og þýtt yfir í prótein. Farið verður í grunnbyggingu og efnasamsetningu frumuhimnunar. Farið verður yfir helstu þætti sem stjórna flæði efna í gegnum frumuhimnu. Farið verður yfir helstu frumulíffæri og hvernig próteinum er pakkað og flutt til innan frumunar. Farið verður í orkubúskap heilkjörnunga. Farið verður yfir samskipti innan frumna og milli frumna. Farið verður yfir frumugrindina og hvernig frumur hreyfa sig. Fjallað verður um stofnfrumur, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Verklegar æfingar verða tvisvar sinnum á önninni&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Námskeiðinu er skipt í fjóra hluta: I) inngang að frumulíffræð, lífefnafræði og prótein,  II) Sameindaerfðafræði III) Frumuhimnan, flutningur sameinda yfir frumuhimnu, Innra skipulag frumunar, Boðskipti frumunar og Frumugrindin. IV) Stofnfrumur, vefajverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Að loknu námskeiðinu á nemandinn að hafa skilning á efnafræði frumna, uppbyggingu og starfsemi próteina, uppbyggingu erfðaefnisins, umritun og þýðingu erfðaefnis yfir í prótein , byggingu og virkni frumuhimnunnar, frumulíffæri, innanfrumuboðleiðir, samskipti frumna og hafa grunþekkingu um stofnfrumur, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mæting í verklegar æfingar og skil á skýrslum&lt;/li&gt;&lt;li&gt;Áfangapróf&lt;/li&gt;&lt;li&gt;Skriflegt lokapróf&lt;/li&gt;&lt;li&gt;Ekki farið fram á lágmarkseinkunn úr verklegum æfingum eða áfangaprófum til að öðlast próftökurétt í lokaprófi. Standast þarf lokapróf.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>T-844-FEMM</t>
+  </si>
+  <si>
+    <t>T-535-MECH</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt; 3. Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs: &lt;/strong&gt;Skyldunámskeið hátækniverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Forritun í C++ (T-208-FOR2) eða Python (T-111-PROG eða T-201-FOR1). &lt;strong&gt;Aðrir ráðlagðir undanfarar:&lt;/strong&gt; Greining rása (T-306-RAS1); Stöðu- og burðarþolsfræði (T-106-BURD); Tölvuhögun (T-107-TOLH, hægt að taka samhliða). &lt;/p&gt;&lt;p&gt;This is an introduction to Mechatronics, the technique of interfacing software, electronics, and mechanical components. We will be utilizing the Raspberry Pi single-board linux microcontroller and Arduino as our focus. Students will have pay a fee for their personal lab kit which includes some shared parts for team-based labs. The chosen textbook is required for the course and critical to completing the Lab assignments. &lt;br&gt;We will begin with an introduction to linux and software engineering. This includes C++, python, and Subversion (for collaboration).  We will then shift to electronics design, implementation, and testing. We will cover both analog and digital electronics with a focus on interfacing to sensors and actuators. Students will be designing and building PCB boards using Altium to integrate the electronics being developed.  Students will choose a final mechatronics team project to be presented at the end of the semester. This project should involve manufacturing mechanical elements and interfacing them with the microcontrollers to demonstrate their mastery of the subject. Students will be spending a good deal of time in the Electronics Lab in V207 and Machine Shop building projects. This means that each student should have gone through safety training in the labs as a prerequisite. If you are an exchange student, contact the Teaching Assistants about setting up a safety training session so you can use the facilities. &lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Textbook/ Lesefni:&lt;/strong&gt; &lt;em&gt;Exploring Raspberry Pi: Interfacing to the Real World with Embedded Linux&lt;/em&gt; by Derek Molloy, published by John Wiley and Sons in 2016.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;At the end of the class, students should have good knowledge of:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Data encoding formats and binary arithmetic&lt;/li&gt;&lt;li&gt;Different electrical, mechanical, and software components&lt;/li&gt;&lt;li&gt;Commonly used sensors and actuators in smart devices&lt;/li&gt;&lt;li&gt;Concepts of modularity, independence, information, and robustnes&lt;br&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;At the end of the class, students should know how to:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Operate oscilloscopes, multimeters, soldering irons, and benchtop power-supplies&lt;/li&gt;&lt;li&gt;Create schematics, layout PCB boards, and solder components to build working devices&lt;/li&gt;&lt;li&gt;Program a microcontroller to read sensors and control actuators.  For example: An Arduino with C++ or a BeagleBone with python&lt;/li&gt;&lt;li&gt;Apply the Axiomatic Design methodology to design modular robust systems.&lt;/li&gt;&lt;li&gt;Understand digital and analog communication interfaces such as wireless networking, ethernet, and Internet of Things&lt;/li&gt;&lt;li&gt;Understand actuator and electronics specification sheets&lt;/li&gt;&lt;li&gt;Measure the accuracy, repeatibility, and resolution of a sensor&lt;/li&gt;&lt;li&gt;Record communication and data into a research notebook properly for international-quality research&lt;/li&gt;&lt;li&gt;Write lab reports and conference papers using LaTeX and Overleaf&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;At the end of the class, students will be able to:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Develop an application using a linux single-board-computer&lt;/li&gt;&lt;li&gt;Design, build, and test advanced circuits with active elements&lt;/li&gt;&lt;li&gt;Choose the best components for a design&lt;/li&gt;&lt;li&gt;Improve upon existing mechatronic devices&lt;/li&gt;&lt;li&gt;Build actuator or control systems with feedback&lt;/li&gt;&lt;li&gt;Debug electronic, software, and mechanical issues efficiently&lt;/li&gt;&lt;li&gt;Write a conference-quality paper for a final report of a project&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is no final exam.    Assignments will consist of a mixture of group lab assignments and individual competency tests.  Students must be able to effectively communicate their ideas through written and oral methods.  Students will each have a design notebook which must be used on a regular basis on topics relating to the class, team efforts, and analysis.  The notebook will graded periodically.   &lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;Students are required to keep at least a 67% attendance grade in order to complete the course.  Students are also expected to assist in cleanup of the mechatronics lab at the end of the course in order to receive a grade. &lt;br&gt; &lt;br&gt;Proper citation is a requirement in this class, without exemptions.  All material from an outside source (ideas, text, pictures) must include a proper citation.  IEEE is the preferred format.  Failure to include citations will result in a 0 for the assignment and considered plagarism which will be reported to the academic office.  Improperly cited material will be assessed a lesser penalty depending upon the assignment.  You are explicitly given permission to use the RU logo on your reports and presentations without citation because you are enrolled at our university. &lt;br&gt; &lt;br&gt;Late work will be penalized according to the degree of lateness: 10%  per day that work is late to a maximum of 5 points (for 5+ days late).  Assigments may only be submitted up to one week late.  Software with code that was checked in to SVN at the due date/time can be checked off at the next session at full credit.  If any changes are made after that time, the late work penalty will be applied.  For LaTeX documents and presentations, the  CANVAS submission time will be used to assess lateness.  Always check the assignment for the appropriate submission procedure. &lt;br&gt; &lt;br&gt;Whenever possible, the evaluation sheet for a given assignment will be provided before the start of the assignment.  Reports and papers may be resubmitted up to a week after they are returned for regrading.  These grades will be averaged for the new grade(40%/60%). &lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Communication and rigor are critical to proper mechatronic design.  Students will be shown how to use a research notebook and expected to keep it up to date as part of their grade.    Proper citation of included internet and written material must be performed.  Each subject will consist of lectures and related labs or projects.  Significant student participation and interaction in lecture discussions is expected.   &lt;br&gt; &lt;br&gt;Many assignments are to be done in teams.  Collaboration on individual assignments is expected, but each student must do their own writeup (no copying).  Document assignments will use LaTeX templates that will be provided. &lt;br&gt; &lt;br&gt;Students are expected to make use of the Machine shop and Electronics lab, taking appropriate International safety precautions where applicable.  The instructor will give guidelines on these procedures and assist in execution.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Merki og kerfi</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course:                   &lt;/strong&gt;2. First cycle, advanced.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Mandatory course for 2nd year biomedical engineering and 3rd year  mechatronics engineering, electric power engineering.&lt;br&gt;&lt;strong&gt;Mandatory prerequisites:  &lt;/strong&gt;Analog Circuit Analysis (T-306-RAS1), Mathematics III (T-301-MATH), Fundamental knowledge of programming (Matlab and/or Python).&lt;/p&gt;&lt;p&gt;Continuous-time and discrete-time signals. Unit impulse and unit step signal. Continuous-time and discrete-time systems. Causality, stability, linearity, time invariance and systems with memory. Linear time invariant systems. Unit impulse and unit step response. Convolution. Fourier series. Continuous Fourier transform. Discrete-Time Fourier transform. Convolution property of the Fourier transform. Sampling. Laplace Transform. Z-transform. Amplitude and phase response. Filters.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material:  &lt;/strong&gt;Lathi, &lt;em&gt;Linear Systems and Signals&lt;/em&gt;, Oxford University Press, Int. 2nd edition, 2010.  Hsu, &lt;em&gt;Signals and Systems&lt;/em&gt;, Schaum´s Outline Series, McGraw-Hill, 1995. Oppenheim, Willsky og Nawab, &lt;em&gt;Signals and Systems, &lt;/em&gt;Pearson, 2014.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;After the course the students should be able to &lt;em&gt;recall&lt;/em&gt;, &lt;em&gt;describe&lt;/em&gt; and &lt;em&gt;define&lt;/em&gt; the following terms:&lt;/p&gt;&lt;p&gt;Continuous-time and discrete-time signals. Unit impulse and unit step signal. Continuous-time and discrete-time systems. Causality, stability, linearity, time invariance and systems with memory. Linear time invariant systems. Unit impulse and unit step response. Convolution. Fourier series. Fourier transform. Sampling. Laplace Transform. Z-transform. Filters.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;After the course the students should be able to &lt;em&gt;apply&lt;/em&gt; and &lt;em&gt;implement&lt;/em&gt; signal processing methods to real world engineering problems using standard software packages such as Matlab.&lt;/p&gt;&lt;p&gt;After the course the students should be able to &lt;em&gt;interpret&lt;/em&gt; physical systems signal processing.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4 fyrirlestrar og 2 dæmatímar á viku í 12 vikur .  2 verklegir tímar 5-6 sinnum yfir misserið.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Announced later.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught for 12 weeks. Lectures and problem solving sessions.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið. &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fjármálaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Fjármálaverkfræði – inngangur (T-101-INNF), Stærðfræði I &amp; II (T-101-STA1 og T-201- STA2), Línuleg algebra (T-211-LINA).  Aðrir ráðlagðir undanfarar: Góð kunnátta í excel, Matlab og/eða Python.&lt;/p&gt;&lt;p&gt;Viðfangsefni námskeiðsins er verðmat fjárfestinga og ákvarðanafræði og gera nemendur færa um að skilja og beita helstu hugtökum á þessum sviðum.&lt;br&gt;Efnistök námskeiðsins eru: greiðsluflæði, tímagildi peninga, vaxta- og ávöxtunarútreikningar, meðallíftími, vaxtaferlar, framvirkir vextir, samval verðbréfa, framfall eignasafna, CAPM og árangursmat.  Einnig verða vaxtaskiptasamningar kynntir og álagspróf.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;strong&gt;Lesefni:    &lt;/strong&gt;David Luenberger, &lt;em&gt;Investment Science.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Að námskeiðinu loknu hafi nemandi undirstöðuskilning á helstu tegundum verðbréfa og helstu aðferðum sem beita má við verð- og áhættumat þeirra. Þá hafi nemandi góðan skilning á aðferðum til þess að bera saman mismunandi fjárfestingarkosti og geti beitt til þess bestunaraðferðum. Loks hafi nemandi góðan skilning á samspili ávöxtunar og áhættu í verðbréfasöfnum og geti beitt stærðfræðilegum aðferðum til þess að skilgreina eignasafn með tilteknum jaðarskilyrðum.  Ofangreint meginmarkmið má brjóta niður í eftirfarandi undirviðmið:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Skilja fræðilega undirstöðu og aðferðafræði við verðmat á helstu verðbréfum (þó ekki afleiðum) og fjárfestingarkostum.&lt;/li&gt;&lt;li&gt;Velja besta fjárfestingarkost með beitingu heiltölubestunar.&lt;/li&gt;&lt;li&gt;Skilja hugtök um ávöxtunarkröfu, vaxtarferla, framvirka vexti og samspil þessara þátta.&lt;/li&gt;&lt;li&gt;Skilja hugtök um meðaltíma greiðsluflæðis.&lt;/li&gt;&lt;li&gt;Þekkja og beita líkani Markowitz við skilgreiningu verðbréfasafna.&lt;/li&gt;&lt;li&gt;Kunna skil á aðferð Lagrange til þess að finna verðbréfasafn með tilteknum jaðarskilyrðum.&lt;/li&gt;&lt;li&gt;Kunna skil á samspili ávöxtunarkröfu og áhættu og geta teiknað og útskýrt framfallið sem bestu niðurstöðu.&lt;/li&gt;&lt;li&gt;Þekkja og beita CAPM líkaninu við verðmat fjárfestingarkosta.&lt;/li&gt;&lt;li&gt;Hafa grunnþekkingu á helstu tegundum afleiða.&lt;/li&gt;&lt;li&gt;Þekkja aðferðafræði við álagsprófanir í fjármálafyrirtækjum.&lt;/li&gt;&lt;li&gt;Framkvæma umfangsmikið verkefni þar sem ofangreindum atriðum er beitt við lausn hagnýtra viðfangsefna.  &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>T-603-AKVA</t>
+  </si>
+  <si>
+    <t>T-867-STAB</t>
+  </si>
+  <si>
+    <t>T-866-MODE</t>
+  </si>
+  <si>
+    <t>Raforkukerfi og reiknilíkön</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;b&gt;&lt;span style="font-size: 7.5pt; font-family: Verdana, sans-serif;"&gt;General course objectives:&lt;/span&gt;&lt;/b&gt;&lt;br /&gt;_x000D_
+&lt;span style="font-size: 7.5pt; line-height: 107%; font-family: Verdana, sans-serif;"&gt;To obtain knowledge about how various power system components may be appropriately modelled such they may be used for analysis of large-scale systems. This includes static models of transmission lines, transformers and loads, and dynamic models of the synchronous machine.&amp;nbsp; Furthermore, focus is on applying techniques to analyze power system in steady state and in dynamic state. Students have to write Matlab code to carry out load flow analysis and time domain simulations of large power systems.&amp;nbsp; &amp;nbsp;&lt;br /&gt;_x000D_
+&lt;br /&gt;_x000D_
+&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;span style="font-family: Verdana, sans-serif; font-size: 7.5pt;"&gt;A student who has met the objectives of the course will be able to:&lt;/span&gt;&lt;/p&gt;_x000D_
+&lt;ul type="disc"&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Apply&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; models of electrical transmission lines      and components to &lt;b&gt;analyze&lt;/b&gt; their      transmission characteristics and to study large complex power grids&lt;/span&gt;&lt;/li&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Apply&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the mathematical model of the synchronous      machine to &lt;b&gt;analyze&lt;/b&gt; it under      stationary and transient conditions&lt;/span&gt;&lt;/li&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Describe&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the structure of a program that carriers      out static analysis of complex electric power systems&lt;/span&gt;&lt;/li&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Describe&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the steps involved and information needed      to study the dynamic response in complex electric power systems&lt;/span&gt;&lt;/li&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Analyze&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; given power system conditions by applying      load flow and time domain simulations.&amp;nbsp;&lt;/span&gt;&lt;/li&gt;_x000D_
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;span style="font-family: Arial, Helvetica, sans-serif;"&gt;Lectures and practical sessions.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>T-706-INT2</t>
+  </si>
+  <si>
+    <t>T-706-INT1</t>
+  </si>
+  <si>
+    <t>Starfsnám í verkfræði I</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Valnámskeið í öllum námsbrautum. Nemandi sem stundar starfsnám getur í mesta lagi&amp;nbsp; verið skráður í 30 ECTS á viðkomandi önn. Námskeiðið er ekki opið skiptinemum.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Tvö námsár í verkfræði. Þátttakendur eru valdir úr hópi umsækjenda, m.a. er tekið tillit til&amp;nbsp;námsframvindu og einkunna.&lt;/p&gt;&lt;p&gt;Starfsnám I er valnámskeið á lokaári BSc náms eða fyrra ári MSc náms og er skilyrðislaus undanfari fyrir Starfsnám II. Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Miða skal við að vinnuframlag nemanda sé að lágmarki 120 vinnustundir. Þessu til viðbótar kemur undirbúningur, vinna við gerð lokaskýrslu og kynningu hennar.&lt;/p&gt;&lt;p&gt;Starfsnám I er valnámskeið á lokaári BSc náms eða fyrra ári MSc náms og er skilyrðislaus undanfari fyrir Starfsnám II. Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Miða skal við að vinnuframlag nemanda sé að lágmarki 120 vinnustundir. Þessu til viðbótar kemur undirbúningur, vinna við gerð lokaskýrslu og kynningu hennar. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Nemendur á lokaári BSc náms geta tekið Starfsnám II í beinu framhaldi af Starfsnámi I á 12-vikna meginkennslutímabili annarinnar, eða tekið einungis Starfsnám I. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Nemendum á fyrra ári MSc náms býðst ekki að taka einungis Starfsnám I. Ef þeir velja starfsnám þá er það samtals 12 ECTS, þ.e. í beinu framhaldi af Starfsnámi I kemur Starfsnám II, sem má taka hvort heldur á 12-vikna eða á 3vikna kennslutímabilinu. Ef nemandi tekur bæði Starfsnám I og II á 12-vikna kennslutímabilinu, þá dreifast samanlagðar vinnustundir beggja námskeiða á allt að 12 vikur. Starfsnámið ber að skipuleggja þannig að vinnutíminn skarist ekki við kennslustundir í öðrum námskeiðum. Sjá nánar Leiðbeiningar um starfsnám í verkfræði. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Verkefnið skal vera skilgreint og afmarkað í samráði við umsjónarmann hjá fyrirtæki/stofnun og umsjónarkennara hjá HR. Að öllu jöfnu er um að ræða hagnýtt verkefni sem byggir á námsefni undangenginna anna og rúmast á 120 vinnustundum. Við upphaf starfsnáms skal liggja fyrir lýsing á verkefninu sem umsjónaraðilar hafa samþykkt. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Áhersla er lögð á skipuleg, sjálfstæð og tæknileg vinnubrögð. Nemandinn skal í upphafi skilgreina verkefnið, þ.e. hvert sé markmið og afrakstur. Meðan á verkefninu stendur skal nemandinn halda dagbók þannig að hægt sé að&amp;nbsp;fylgjast með framvindu verkefnisins. Í lok námstíma skal nemandinn skrifa skýrslu um verkefnið sem er kynnt og varin munnlega.&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;&lt;u&gt;Heimilt, í samráði við umsjónarkennara, að ákveða að nemandi í BSc námi vinni í Starfsnámi I að mörgum smærri verkefnum hjá fyrirtæki/stofnun í stað þess að vinna að einu afmörkuðu verkefni allan tímann, með það að meginmarkmiði að nemandinn kynnist fjölbreyttri starfsemi viðkomandi vinnustaðar. Þetta er ekki heimilt ef um er að ræða nemanda í MSc námi. Fyrir nemendur í MSc námi er starfsnám einungis í boði sem 12 ECTS, þ.e. nemandinn tekur bæði Starfsnám I og Starfsnám II.&lt;/u&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Samkvæmt ábendingum umsjónarmanns.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lærdómsviðmið eiga að endurspegla það sem nemandinn lærir og þá reynslu sem hann hlýtur meðan á starfsnámi stendur&lt;strong&gt;.&lt;/strong&gt;&lt;strong&gt; Áherslur, sértæk lærdómsviðmið og &lt;/strong&gt;&lt;strong&gt;kröfur um afrakstur&lt;/strong&gt; verða skilgreind af umsjónaraðilum HR og viðkomandi fyrirtækis hverju sinni fyrir hvert einstakt verkefni, með eftirfarandi markmið í huga.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;að efla tengsl nemenda tækni- og verkfræðideildar HR við atvinnulífið.&lt;/li&gt;&lt;li&gt;að auka innsýn og skilning nemenda á viðfangsefnum þess fagsviðs sem þau stunda nám á.&lt;/li&gt;&lt;li&gt;að auka skilning nemenda á verkferlum og skipulagningu verkefna hjá viðkomandi fyrirtæki/stofnun.&lt;/li&gt;&lt;li&gt;að nemendur geti skipulagt og útfært faglega vinnu út frá fyrirfram gefnum forsendum og kröfum.&lt;/li&gt;&lt;li&gt;að styrkja samskiptahæfni nemenda (innri og ytri samskipti í fyrirtæki)&lt;/li&gt;&lt;li&gt;að nemendur hljóti reynslu af því að vinna að úrlausn raunhæfra viðfangsefna á vettvangi, undir leiðsögn leiðbeinenda úr atvinnulífinu.&lt;/li&gt;&lt;li&gt;að undirbúa nemendur undir starf eftir námslok.&lt;/li&gt;&lt;li&gt;að opna nemendum leið inn á vinnumarkað.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í allt að 12 vikur skv. sérstakri stundaskrá.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einkunn Staðið/Fall. Lagt verður mat á frammistöðu nemanda á vinnustaðnum ásamt dagbók, lokaskýrsla og kynningu á verkefninu. Við matið skal taka mið af því hvort nemandi hafi sýnt fram á getu til uppfylla lærdómsviðmiðin sem umsjónaraðilar skilgreina í upphafi námskeiðs.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í allt að 12 vikur skv. sérstakri stundaskrá.&amp;nbsp;Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Nemandinn skal í upphafi skilgreina verkefnið, þ.e. hvert sé markmið og lokaafurð. Vinnutími nemanda við verkefnið skal að lágmarki vera 120 klst, því til viðbótar kemur undirbúningur, svo og vinna við gerð lokaskýrslu og kynningu verkefnisins.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>T-401-LISY</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa þekkingu á:&lt;/p&gt;&lt;ul&gt;&lt;li&gt; grunnatriðum verkfræðinnar er lúta að varmafræði&lt;/li&gt;&lt;li&gt; orku- og massavarðveislu í verkfræðilegum kerfum&lt;/li&gt;&lt;li&gt;orkuferlum við nýtingu helstu orkugjafa&lt;/li&gt;&lt;li&gt;eðli og leiðum til varmaflutnings um efni&lt;/li&gt;&lt;li&gt;hagnýtri forritun við úrlausn á verkfræðilegum verkefnum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa færni í að:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;leysa einföld verkfræðileg verkefni m.t.t. massa- og orkujafnvægis og varmaflutnings&lt;/li&gt;&lt;li&gt;setja upp og leysa útreikninga á grunnatriðum orkuframleiðslu m.a. með hagnýtri forritun&lt;/li&gt;&lt;li&gt;setja fram niðurstöður á útreikningum á skilvirkan hátt&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Í lok þessa námskeiðs hafa nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;öðlast hæfni til að beita verkfræðilegum aðferðum við úrlausn á einföldum orkutengdum verkefnum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar og dæmatímar.  Aukatímar í hagnýtri forritun verða í boði.&lt;/p&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -1335,15 +1549,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1351,12 +1571,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3985,10 +4248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB368C67-0469-40F7-B089-2478E9FFC0A5}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K57" zoomScale="66" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68:F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6551,6 +6814,1830 @@
         <v>21</v>
       </c>
     </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2">
+        <v>6</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="5">
+        <v>6</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="2">
+        <v>6</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="5">
+        <v>6</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="2">
+        <v>6</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="5">
+        <v>6</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="2">
+        <v>6</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="5">
+        <v>6</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="2">
+        <v>6</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="5">
+        <v>6</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="2">
+        <v>6</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="5">
+        <v>6</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2">
+        <v>6</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="5">
+        <v>6</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="2">
+        <v>6</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="5">
+        <v>6</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="5">
+        <v>6</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2">
+        <v>6</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="5">
+        <v>6</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="2">
+        <v>6</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="5">
+        <v>6</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="2">
+        <v>6</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="5">
+        <v>6</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2">
+        <v>6</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="5">
+        <v>6</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="2">
+        <v>6</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="5">
+        <v>6</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="2">
+        <v>6</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="5">
+        <v>6</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="2">
+        <v>6</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="5">
+        <v>6</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="2">
+        <v>6</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="5">
+        <v>6</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="2">
+        <v>6</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="5">
+        <v>6</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="2">
+        <v>6</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="5">
+        <v>6</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="2">
+        <v>6</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="5">
+        <v>6</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2">
+        <v>6</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" s="5">
+        <v>1</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="5">
+        <v>6</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="2">
+        <v>6</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="5">
+        <v>6</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="2">
+        <v>6</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="5">
+        <v>6</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="2">
+        <v>6</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="5">
+        <v>6</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslaugsol/Documents/GitHub/LIKX2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52127BED-97FD-E34E-9DE2-BA9C10531864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A205A-84F0-A644-8A73-DAC09CFA1F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="615">
   <si>
     <t>CourseCode</t>
   </si>
@@ -1322,225 +1322,618 @@
     <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar,&amp;nbsp;dæmatímar, verklegar æfingar og heimaverkefni.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>SemesterType</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>3V</t>
+  </si>
+  <si>
+    <t>T-106-REVE</t>
+  </si>
+  <si>
+    <t>T-305-PRMA</t>
+  </si>
+  <si>
+    <t>T-306-MERK</t>
+  </si>
+  <si>
+    <t>T-401-LISY</t>
+  </si>
+  <si>
+    <t>T-401-VELH</t>
+  </si>
+  <si>
+    <t>T-403-RAVE</t>
+  </si>
+  <si>
+    <t>T-406-LIFE</t>
+  </si>
+  <si>
+    <t>T-423-ENOP</t>
+  </si>
+  <si>
+    <t>T-424-SLEE</t>
+  </si>
+  <si>
+    <t>T-535-MECH</t>
+  </si>
+  <si>
+    <t>T-603-AKVA</t>
+  </si>
+  <si>
+    <t>T-606-HEAT</t>
+  </si>
+  <si>
+    <t>T-606-NUFF</t>
+  </si>
+  <si>
+    <t>T-609-LAEK</t>
+  </si>
+  <si>
+    <t>T-620-ENGX</t>
+  </si>
+  <si>
+    <t>T-630-IND1</t>
+  </si>
+  <si>
+    <t>T-706-INT1</t>
+  </si>
+  <si>
+    <t>T-706-INT2</t>
+  </si>
+  <si>
+    <t>T-708-SBTE</t>
+  </si>
+  <si>
+    <t>T-738-CONT</t>
+  </si>
+  <si>
+    <t>T-801-RESM</t>
+  </si>
+  <si>
+    <t>T-803-VERK</t>
+  </si>
+  <si>
+    <t>T-805-NORD</t>
+  </si>
+  <si>
+    <t>T-814-DERI</t>
+  </si>
+  <si>
+    <t>T-814-INNO</t>
+  </si>
+  <si>
+    <t>T-816-MTFE</t>
+  </si>
+  <si>
+    <t>T-829-GRO1</t>
+  </si>
+  <si>
+    <t>T-829-GRO2</t>
+  </si>
+  <si>
+    <t>T-844-FEMM</t>
+  </si>
+  <si>
+    <t>T-863-NEUR</t>
+  </si>
+  <si>
+    <t>T-863-WIND</t>
+  </si>
+  <si>
+    <t>T-864-NUFF</t>
+  </si>
+  <si>
+    <t>T-867-POSY</t>
+  </si>
+  <si>
+    <t>T-867-STAB</t>
+  </si>
+  <si>
+    <t>T-868-PROT</t>
+  </si>
+  <si>
+    <t>Notkun verkfræðilegra aðferða og líkana við rekstur og stjórnun</t>
+  </si>
+  <si>
+    <t>Verkefnastjórnun</t>
+  </si>
+  <si>
+    <t>Merki og kerfi</t>
+  </si>
+  <si>
+    <t>Línuleg kvik kerfi</t>
+  </si>
+  <si>
+    <t>Vélhlutafræði</t>
+  </si>
+  <si>
+    <t>Rafmagnsvélar</t>
+  </si>
+  <si>
+    <t>Lífeðlisfræði</t>
+  </si>
+  <si>
+    <t>Verkfræðilegar bestunaraðferðir</t>
+  </si>
+  <si>
+    <t>Svefn</t>
+  </si>
+  <si>
+    <t>Mechatronics II</t>
+  </si>
+  <si>
+    <t>Ákvarðanatökuaðferðir</t>
+  </si>
+  <si>
+    <t>Varmaflutningsfræði</t>
+  </si>
+  <si>
+    <t>Töluleg straum- og varmaflutningsfræði</t>
+  </si>
+  <si>
+    <t>Læknisfræðileg myndgerð</t>
+  </si>
+  <si>
+    <t>Verkfræði X</t>
+  </si>
+  <si>
+    <t>Sjálfstætt verkefni I</t>
+  </si>
+  <si>
+    <t>Starfsnám í verkfræði I</t>
+  </si>
+  <si>
+    <t>Starfsnám í verkfræði II</t>
+  </si>
+  <si>
+    <t>Principles of synthetic biology and tissue engineering</t>
+  </si>
+  <si>
+    <t>Robust and Adaptive Control, with Aerospace Application</t>
+  </si>
+  <si>
+    <t>Aðferðafræði rannsókna I</t>
+  </si>
+  <si>
+    <t>Verkefnastjórnun og stefnumarkandi áætlunargerð</t>
+  </si>
+  <si>
+    <t>Nordplus Intensive Course on Circular Economy</t>
+  </si>
+  <si>
+    <t>Afleiður og áhættustýring</t>
+  </si>
+  <si>
+    <t>Gerð viðskiptaáætlunar fyrir tæknilega hugmynd - Frumkvöðlafræði og nýsköpun</t>
+  </si>
+  <si>
+    <t>Nýjar stefnur í fjármálaverkfræði</t>
+  </si>
+  <si>
+    <t>Rannsóknarvinna í meistaranámi I</t>
+  </si>
+  <si>
+    <t>Rannsóknarvinna í meistaranámi II</t>
+  </si>
+  <si>
+    <t>Tölvustudd greining með einingaaðferðinni</t>
+  </si>
+  <si>
+    <t>Verkfræði taugamótunar</t>
+  </si>
+  <si>
+    <t>Vindorka</t>
+  </si>
+  <si>
+    <t>Rekstur raforkukerfa</t>
+  </si>
+  <si>
+    <t>Stöðugleiki og stjórnun raforkukerfa</t>
+  </si>
+  <si>
+    <t>Protection Philosophy for Smart-Grids</t>
+  </si>
+  <si>
+    <t>Vorönn 2022</t>
+  </si>
+  <si>
     <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&amp;nbsp;&lt;/strong&gt;&amp;nbsp;1. Grunnnám, grunnnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;&amp;nbsp; &amp;nbsp;Skyldunámskeið fyrir allar námsbrautir í verkfræði.&lt;br&gt;&lt;strong&gt;???????Nauðsynlegir undanfarar: &lt;/strong&gt;Engir undanfarar.&lt;/p&gt;&lt;p&gt;Eðlisfræði er grunnur að hefðbundum greinum verkfræðinnar en aðferðafræði eðlisfræðinnar, sérstaklega líkanagerð, nær langt út fyrir þessi hefðbundnu svið. Til dæmis nýtast aðferðir eðlisfræðinnar til að lýsa kerfum í líffræði, hagfræði og fjármálum. Í áfanganum er nemandinn þjálfaður í að lýsa einfaldri hreyfingu hluta og grunnatriðum varmafræði. Eðlisfræðin eykur skilning á umhverfi okkar, náttúrunni og tækninni, og gefur innsýn sem hvetur og styður við skapandi hugsun við lausn verkefna.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;strong&gt;Lesefni:&lt;/strong&gt; H.D Young and R.A Freedman, University Physics with Modern Physics.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Stefnt er að því að nemendur þekki: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;almenna lausn á diffurjöfnu og sérlausn á upphafsgildisverkefni (U.G.V.),&lt;/li&gt;&lt;li&gt;nokkrar algengar tegundir af fyrsta stigs diffurjöfnum,&lt;/li&gt;&lt;li&gt;hliðraðar og óhliðraðar annars stigs diffurjöfnur,&lt;/li&gt;&lt;li&gt;grunnlausnir á annars stigs diffurjöfnum og Wronski ákveður,&lt;/li&gt;&lt;li&gt;Laplace-ummyndun,&lt;/li&gt;&lt;li&gt;Fourierraðir og Fourier-ummyndun,&lt;/li&gt;&lt;li&gt;fyrsta stigs línuleg diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;nokkrar hlutafleiðujöfnur, t.d. bylgjujöfnuna og varmaleiðnijöfnuna.&lt;/li&gt;&lt;li&gt;einfaldar ítranir til að leysa diffurjöfnu tölulega.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;leyst nokkrar tegundir af fyrsta stigs diffurjöfnum, t.d. með því að aðskilja breytistærðir, finna mætti eða nota breytuskipti,&lt;/li&gt;&lt;li&gt;leyst hliðraðar annars stigs diffurjöfnur, t.d. með aðferð breytilegra stuðla eða aðferð óákvarðaðra fasta,&lt;/li&gt;&lt;li&gt;leyst upphafsgildisverkefni með Heaviside falli eða Deltafalli Diracs með Laplace-ummyndun,&lt;/li&gt;&lt;li&gt;fundið veldaraðalausnir,&lt;/li&gt;&lt;li&gt;fundið Fourierröð falls og kósínus og sínusröð falls,&lt;/li&gt;&lt;li&gt;breytt n-ta stigs diffurjöfnu í 1. stigs diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;leyst diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;geti leyst jaðargildisverkefni fyrir annars stigs diffurjöfnur með fastastuðlum,&lt;/li&gt;&lt;li&gt;geti leyst einfaldar hlutafleiðujöfnur með aðskilnaði breytistærða.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Stefnt er að því að nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;átti sig á hlutverki diffurjafna við framsetningu verkefna í verkfræði,&lt;/li&gt;&lt;li&gt;geti leyst verkefni í verkfræði sem innihalda diffurjöfnur.&lt;/li&gt;&lt;li&gt;notað hugbúnað (t.d. Matlab) við lausn verkefna í námsefninu.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Námsmat er byggt á skriflegu lokaprófi skiladæmum, hlutaprófum og kynningu á hagnýtri diffurjöfnu. Standast þarf skriflega lokaprófið.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt;                  2. First cycle, intermediate.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Mandatory course for mechatronics engineering, biomedical engineering, electric power engineering, energy engineering, mechanical engineering.&lt;br&gt;&lt;strong&gt;Mandatory prerequisites: &lt;/strong&gt;Calculus I (T-101-STA1), Physics I (T-102-EDL1), Physcis II (T-202-EDL2).&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Basic concepts of charge, current, power and energy.&lt;/li&gt;&lt;li&gt;Circuit elements, including different types of sources.&lt;/li&gt;&lt;li&gt;Basic laws, including Ohm’s and Kirchhoff’s laws.&lt;/li&gt;&lt;li&gt;Series and parallel connections, and Delta and Wye transformations.&lt;/li&gt;&lt;li&gt;Circuit analysis methods; node voltage and mesh current methods.&lt;/li&gt;&lt;li&gt;Circuit theorems; superposition, source transformation, Thevenin’s and Norton’s theorems and maximum power transfer.&lt;/li&gt;&lt;li&gt;Operational amplifiers (Op-Amp) and its basic circuits.&lt;/li&gt;&lt;li&gt;Inductors and capacitors and series and parallel combinations.&lt;/li&gt;&lt;li&gt;First order RL and RC circuits, and the natural, forced and steady-state responses.&lt;/li&gt;&lt;li&gt;Second order series and parallel RLC circuits.&lt;/li&gt;&lt;li&gt;Concepts of phasors and impedances for AC sinusoidal analysis&lt;/li&gt;&lt;li&gt;Circuits methods and theorems for AC sinusoidal steady-state and AC power analysis&lt;/li&gt;&lt;li&gt;Frequency response; resonance conditions, transfer functions and frequency filters&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Textbook&lt;/strong&gt;: Fundamentals of Electric Circuits, C. K. Alexander and M. N. O. Sadiku, Mc Graw Hill 6th edition, 2016 (Chapters: 01-11 and 14).&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Lecture Slides&lt;/strong&gt;: Mainly from the textbook.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Homework Assignments and Experiments&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;The course supervisor is Mohamed Abdelfattah.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Assessment methods:&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;_x000D_
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs&lt;/strong&gt;:            Skyldunámskeið RV.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Engir.&lt;/p&gt;&lt;p&gt;Fjallað verður um öll helstu svið stjórnunar og þá aðferðafræði og hugsun sem þar hefur verið þróuð út frá verkfræðilegri nálgun. Við förum í fyrirlestrum í gegnum aðferðafræðina, vinnum verkefni í kennslustofunni og heimsækjum fyrirtæki og upplifum notkun aðferðanna eftir því sem kostur er.&lt;/p&gt;&lt;p&gt;Námskeiðinu er ætlað að gefa yfirlit yfir verkfræðilega nálgun við rekstur og stjórnun og grunn undir viðfangsefni námsbrautarinnar. Fjallað er um:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Stefnumótun, markmiðasetningu og árangursmælingar.&lt;/li&gt;&lt;li&gt;Kostnaðar- og afkomútreikninga og “stjórnun” efnahagsreiknings fyrirtækja.&lt;/li&gt;&lt;li&gt;Stjórnun; hlutverk og starf stjórna, skipurit og starfsmannamál.&lt;/li&gt;&lt;li&gt;Viðskiptavininn og samkeppnisgreiningu, svo sem markaðsgreiningu, eftirspurnarföll og markaðsaðgerðir.&lt;/li&gt;&lt;li&gt;Verðmætasköpunarferlið; innkaup, birgðastýringu, framleiðsluskipulagningu og framleiðslustjórnun.&lt;/li&gt;&lt;li&gt;Tækni, tækniþróun, rannsóknir, þróunarstarfsemi og nýsköpun.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Lesefni:&lt;/strong&gt; 1. &lt;em&gt;Handbók athafnamannsins I&lt;/em&gt;: Stefna, stjórnun og starfsmenn. Höfundur Páll Kr. Pálsson. Útgefandi Skyggni ehf og SPRON. Sept. 2006. 2. &lt;em&gt;Handbók athafnamannsins II&lt;/em&gt;: Gerð rekstrar og viðskiptaáætlana, Nýsköpun og þróun, Arðsemisútreikningar og verðmat, Kostnaðargreiningar. Höfundur Páll Kr. Pálsson. Skyggni ehf. Sept. 2018. 3. Annað námsefni, einkum af netinu, verður kynnt samhliða framvindu námskeiðsins.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Að nemendur hafi að loknu námskeiðinu haldgóða þekkingu á þeirri aðferðafræði sem beitt er við stjórnun fyrirtækja, út frá verkfræðilegum sjónarmiðum og verkfræðilegri hugsun. Þekki og skilji hvernig hugsun og aðferðafræði bestunar er beitt við stjórnun, einkum á eftirtöldum sviðum: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Stefnumótun, markmiðasetning og árangursmælingar. Skilji aðferðafræði og ferlið við útfærslu þessara þátta og geti útskýrt það. &lt;/li&gt;&lt;li&gt;Kostnaðar- og afkomuútreikningar, framlegðarútreikningar og framleiðnimælingar og “stjórnun” efnahagsreiknings fyrirtækja. Þekki helstu aðferðir sem beitt er og getir reiknað mikilvægustu kennitölur. &lt;/li&gt;&lt;li&gt;Stjórnun; hlutverk og starf stjórna, skipurit og starfsmannamál. Geti útskýrt og rætt helstu hugtök á þessum sviðum. &lt;/li&gt;&lt;li&gt;Viðskiptavinurinn og samkeppnisgreining, svo sem markaðsgreining, markaðsrannsóknir og markaðsaðgerðir. Hafi yfirsýn og getu til að rökstyðja helstu verkferla á þessum sviðum. &lt;/li&gt;&lt;li&gt;Verðmætasköpunarferlið; innkaup, birgðastýring, framleiðsluskipulagning og framleiðslustjórnun. Skilji og þekki hvernig bestunarlíkönum er beitt á þessum sviðum. &lt;/li&gt;&lt;li&gt;Tækni, tækniþróun, rannsóknir, þróunarstarfsemi og nýsköpun. Skilji gildi nýsköpunar fyrir fyrirtæki og samfélagið. &lt;/li&gt;&lt;li&gt;Geti tjáð sig í ræðu og riti um ofangreinda þætti og rökstutt viðhorf sín og séu færir um að kynna og túlka viðhorf sín í verkefnum sem snúa að ofangreindum þáttum með aðferðafræðilegri hugsun og verkfærum verkfræðinnar. &lt;/li&gt;&lt;li&gt;Skilji heildarsamhengi rekstrar út frá flóknu umhverfi fjölda breytna. Skilji eftirspurnar-, kostnaðar- og afkomuföll. Þekki og skilji aðferðafræði æviskeiðsferla fyrirtækja og afurða. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>6 kennslustundir á viku í 12 vikur</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat bygginst á skriflegu lokaprófi, verkefni úr fyrirtækjaheimsóknum og verkefnum í tímum.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Fyrirlestrar og fyrirtækjaheimsóknir&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið.&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Skyldunámskeið fyrir allar námsbrautir í verkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Engir.&lt;/p&gt;&lt;p&gt;Verkefnastjórnun fjallar um heildarskipulag, stjórnun og samhæfingu verkefnis, frá upphafi til enda. Marmið verkefnastjórnunar er að uppfylla kröfur viðskiptavinar í því skyni að verkefni verði lokið á réttum tíma, innan við samþykktan kostnað og uppfylli samþykktar gæðakröfur. Í þessu námskeiði verður grundvallarfærni í verkefnastjórnun kynnt með það markmið að kenna aðferðarfræði verkefnisstjórnunar og þjálfa nemendur í beitingu hennar. Farið verður yfir skilgreiningu verkefna, lífsskeið verkefnis, áætlun, framkvæmd, framvindu og miðlun upplýsinga. Þá er fá nemendur kynningu á mismunandi aðferðum við beitingu verkefnastjórnunar (PMBOK, Agile, Kanban, ofl), gerð verkáætlanir, framvinduerftirlit ofl.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Gray &amp;amp; Larson, &lt;em&gt;Project Management: The managerial process.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Stefnt er að því að nemendur:&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Skilji hlutverk verkefna og verkefnisstjórnunar í nútíma rekstarumhverfi.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Skilji samband tíma, verkefna og kostnaðar&amp;nbsp;&lt;/li&gt;&lt;li&gt;Geti gert undirbúið og afmarkað verkefni þ.m.t. að reikna ávinning og arðsemi þess.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Geti gert brotið upp verkefni í verkþætti og tengt þá saman.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Geti gert tíma-, kostnaðar og aðrar nauðsynlegar áætlanir.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Geti sett upp stýringu til að fylgjast með framvindu þess.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Geti lokið og gert upp verkefni formlega.&amp;nbsp;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Kennt alla virka daga í 3 vikur.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 3 vikur skv. sérstakri stundaskrá. Fyrirlestrar, dæmatímar og verkefnavinna.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course:                   &lt;/strong&gt;2. First cycle, advanced.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Mandatory course for 2nd year biomedical engineering and 3rd year  mechatronics engineering, electric power engineering.&lt;br&gt;&lt;strong&gt;Mandatory prerequisites:  &lt;/strong&gt;Analog Circuit Analysis (T-306-RAS1), Mathematics III (T-301-MATH), Fundamental knowledge of programming (Matlab and/or Python).&lt;/p&gt;&lt;p&gt;Continuous-time and discrete-time signals. Unit impulse and unit step signal. Continuous-time and discrete-time systems. Causality, stability, linearity, time invariance and systems with memory. Linear time invariant systems. Unit impulse and unit step response. Convolution. Fourier series. Continuous Fourier transform. Discrete-Time Fourier transform. Convolution property of the Fourier transform. Sampling. Laplace Transform. Z-transform. Amplitude and phase response. Filters.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material:  &lt;/strong&gt;Lathi, &lt;em&gt;Linear Systems and Signals&lt;/em&gt;, Oxford University Press, Int. 2nd edition, 2010.  Hsu, &lt;em&gt;Signals and Systems&lt;/em&gt;, Schaum´s Outline Series, McGraw-Hill, 1995. Oppenheim, Willsky og Nawab, &lt;em&gt;Signals and Systems, &lt;/em&gt;Pearson, 2014.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;After the course the students should be able to &lt;em&gt;recall&lt;/em&gt;, &lt;em&gt;describe&lt;/em&gt; and &lt;em&gt;define&lt;/em&gt; the following terms:&lt;/p&gt;&lt;p&gt;Continuous-time and discrete-time signals. Unit impulse and unit step signal. Continuous-time and discrete-time systems. Causality, stability, linearity, time invariance and systems with memory. Linear time invariant systems. Unit impulse and unit step response. Convolution. Fourier series. Fourier transform. Sampling. Laplace Transform. Z-transform. Filters.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;After the course the students should be able to &lt;em&gt;apply&lt;/em&gt; and &lt;em&gt;implement&lt;/em&gt; signal processing methods to real world engineering problems using standard software packages such as Matlab.&lt;/p&gt;&lt;p&gt;After the course the students should be able to &lt;em&gt;interpret&lt;/em&gt; physical systems signal processing.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>4 fyrirlestrar og 2 dæmatímar á viku í 12 vikur .  2 verklegir tímar 5-6 sinnum yfir misserið.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Announced later.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught for 12 weeks. Lectures and problem solving sessions.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course: &lt;/strong&gt;2.&lt;strong&gt; &lt;/strong&gt;Undergraduate (First cycle), intermediate.&lt;br&gt;&lt;strong&gt;Type of course: &lt;/strong&gt;Core for all programs in engineering.&lt;br&gt;&lt;strong&gt;Prerequisites (mandatory): &lt;/strong&gt;Knowledge of linear algebra and differential equations is essential (equivalent to the courses Linear algebra (T-211-LINA) and Mathematics III (T-301-MATH).&lt;/p&gt;&lt;p&gt;This course is an introduction to applied linear algebra and linear dynamical systems, with applications to circuits, data analysis, and control systems. The course topics are as follows:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Introduction to dynamical systems, modelling &amp; simulation&lt;/li&gt;&lt;li&gt;Least-squares and applications&lt;/li&gt;&lt;li&gt;Least-norm solutions of underdetermined equations&lt;/li&gt;&lt;li&gt;Autonomous linear dynamical systems: solution via Laplace transform and matrix exponential&lt;/li&gt;&lt;li&gt;Linear dynamical systems with inputs and outputs: controllability and observability.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Having completed this course, you should be able to&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Explain, using own words, the concept of (linear) dynamical systems&lt;/li&gt;&lt;li&gt;Apply simple modelling &amp; simulation techniques&lt;/li&gt;&lt;li&gt;Apply the optimisation techniques presented to various problems&lt;/li&gt;&lt;li&gt;Solve autonomous linear differential equations&lt;/li&gt;&lt;li&gt;Solve simple control problems&lt;/li&gt;&lt;li&gt;Apply different techniques to analyse linear dynamical systems and time series&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught for 12 weeks.  To be decided.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &lt;/strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 2. Grunnnám, framhaldsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Skyldunámskeið hátækniverkfræði, vélaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Stöðu og burðarþolsfræði (T-106-BURD), Aflfræði (T-534-AFLF).&lt;/p&gt;&lt;p&gt;Í námskeiðinu er fjallað um álags- og spennugreiningu vélhluta. Brotkenningar og jafngildisspennur. Styrk vélhluta undir stöðugu og breytilegu álagi (Þreytuþol) . Hönnun á boltum og færsluskrúfum. Boltasamsetningar og suðusamsetningar. Hönnun á gormum og fjöðrum. Kúlu og keflalegur. Hemlar og tengsli. Gírar og gírhlutföll. Reimar og keðjur. Nemendur skila vikulegum skiladæmum og vinna saman í hópum að hönnunar- og smíðaverkefni.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;Budynas and Nisbett, &lt;em&gt;Shigley‘s Mechanical Engineering Design&lt;/em&gt;, 10. útgáfa.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Við lok námskeiðs er ætlast til að &amp;nbsp;nemandinn hafi góðan skilning á hönnun samsettra vélarhluta á grundvelli álagsgreiningu gagnvart stöðugu og breytilegu álagi með aðferðum vélhlutafræðinnar og aðstoð CAD forrita. Einnig hafi nemandi fengið hagnýta reynslu í hönnun og smíði vélhluta.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Þekking:&lt;/em&gt; Við lok námskeiðs mun nemandi hafa þekkingu á:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;helstu aðferðum til að finna leyfilegt álag á vélarhlut sem verður fyrir margvíðu stöðugu álagi og geti valið þær aðferðir sem henta miðað við efni og álagsgerð.&lt;/li&gt;&lt;li&gt;notkun á hönnunarstuðlum og þekki hugtökin flotspenna, brotspenna og jafngildisálag.&lt;/li&gt;&lt;li&gt;hvernig sveiflukennt álag verkar á vélarhlut og þekki hugtökin spennuhækkun, þreytuþol og þreytuþolsmörk.&lt;/li&gt;&lt;li&gt;kraftverkun í boltasamsetningum við togálag, skerálag og sveiflukennt álag (þreytuálag)&lt;/li&gt;&lt;li&gt;kraftverkun í suðusamsetningum við mismunandi álagsgerðir.&lt;/li&gt;&lt;li&gt;eðli og virkni gorma og fjaðra.&lt;/li&gt;&lt;li&gt;helstu gerðum af veltilegum (kúlu og keflalegur) og hvernig val á legum er framkvæmt út frá líftíma og álagi.&lt;/li&gt;&lt;li&gt;hvernig reima og keðjudrif eru stærðarákvörðuð.&lt;/li&gt;&lt;li&gt;virkni tengsla og hemla.&lt;/li&gt;&lt;li&gt;eðli tanndrifa og hvernig lögun tanna eru ákvörðuð.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;&lt;em&gt;Færni:&lt;/em&gt; Við lok námskeiðsins mun nemandi hafa færni í að:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;hanna og smíða einfalda vélhluti á grunni álagsgreiningar og efnisvals.&lt;/li&gt;&lt;li&gt;hanna og stærða ákvarða einfaldar suðu- og boltasamsetningar við stöðugt og breytilegt álag.&lt;/li&gt;&lt;li&gt;velja staðlaða íhluti í aflflutningsbúnað s.s. legur, reimar, keðju- og tanndrif út frá stöðlum og upplýsingum framleiðenda.&lt;/li&gt;&lt;li&gt;geti stærðarákvarðað hemla og tengsli út frá afl og kraftagreiningu.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;&lt;em&gt;Hæfni:&lt;/em&gt; Við lok námskeiðsins mun nemandi hafa hæfni til að:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;hanna vélbúnað og meta styrk og endingu út frá álagsgreiningu.&lt;/li&gt;&lt;li&gt;nota tölvustudda hönnun til að meta styrk vélbúnaðar.&lt;/li&gt;&lt;li&gt;geta smíðað einfalda frumgerð til að meta styrk og virkni.&lt;/li&gt;&lt;li&gt;setja hönnunargögn (útreikninga og teikningar) fram á skilmerkilegan og vandaðan máta.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í 12 vikur- 6 tímar á viku</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat byggt á heimadæmum, hönnunarverkefnum og skriflegu lokaprófi.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt; Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; Skyldunámskeið í&amp;nbsp; hátækniverklfræði, orkuverkfræði, raforkuverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir &lt;/strong&gt;&lt;strong&gt;undanfarar:&lt;/strong&gt; Greining rása (T-306-RAS1 eða RT RAF1003). Auk þess er Rafsegulfræði og hálfleiðarar (RT EXH1013/T-303-RASE) ráðlagður undanfari.&lt;/p&gt;&lt;p&gt;Fjallað verður um einfaldar segulrásir, þriggja fasa rafmagn og per unit kerfi..&amp;nbsp; Rifjuð verða upp grundvallaratriði spenna bæði fræðilega og praktísk.&amp;nbsp; Fjallað verður um bæði jafnstraums- og riðstraumsvélar, virkni þeirra, hvernig þeim er komið af stað og hvernig launafli er stjórnað í þeim.&amp;nbsp; Einnig er farið í notkun stepper mótora.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:&lt;/strong&gt; P.C. Sen, &lt;em&gt;Principles of Electric Machines and Power Electronics, 3. útgáfa.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Við lok námskeiðs mun nemandi hafa þekkingu á:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Segulrásum.&lt;/li&gt;&lt;li&gt;Spennum.&lt;/li&gt;&lt;li&gt;Virkni jafnstraumsvéla.&lt;/li&gt;&lt;li&gt;Virkni riðstraumsvéla.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Við lok námskeiðsins mun nemandi hafa færni í:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Að lesa nafnspjöld spenna og greina rásir sem innihalda þriggja-fasa spenna.&lt;/li&gt;&lt;li&gt;Greiningu á tengingum jafnstraums- og riðstraumsvéla.&lt;/li&gt;&lt;li&gt;Að teikna rótarferla og hafi skilning á merkingu þeirra.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Við lok námskeiðsins mun nemandi geta:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Útskýrt virkni rafmagnsvéla.&lt;/li&gt;&lt;li&gt;Tengt þriggja-fasa búnað s.s. spenna og rafmagnsvéla.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, dæmatímar og verkefni. Verklegar æfingar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Skyldunámskeið heilbrigðisverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Sameinda- og frumulíffræði (T-106-LIFV).&lt;/p&gt;&lt;p&gt;Fyrirlestrar I: Samvægi. Lífeðlisfræði hjarta og blóðrásar. Hjartað sem dæla. Æðakerfið. Öndun og stjórn öndunar. Nýrnastarfsemi. Vökva- og jónavægi. Sýru-basa stjórnun. Bygging taugakerfisins. Raflífeðlisfræði, himnuspenna og boðspenna. Lífeðlisfræði taugafrumna. Miðtauga- og úttaugakerfið; viljastýrða og ósjálfráða taugakerfið. Heilarit, vitund/svefn, dægursveiflur. Hormónakerfið. Rafvirkni hjartans og hjartarafrit.&lt;/p&gt;&lt;p&gt;Fyrirlestrar II: Lífeðlisfræði hjarta og blóðrásar. Hjartað sem dæla. Æðakerfið. Öndun og stjórn öndunar. Stjórn líkamshita. Áreynslulífeðlisfræði. Nýrnastarfsemi. Vökva- og jónavægi. Sýru-basa stjórnun. Melting. Hormónastjórn efnaskipta. Æxlun. Verklegar æfingar: Öndun og blóðrás, nýrnastarfsemi og viðbrögð líkamans við áreynslu. Verkefni: Nemendur vinna verkefni í verkfræðilegri lífeðlisfræði, kynna það munnlega og skila því að lokum skriflega. Nemendur ritrýna vísindagrein. Kennslan er í formi fyrirlestra, umræðufunda,verklegra æfinga og verkefnavinnu. Skylt er að mæta í allar verklegar æfingar og umræðutíma sem þeim fylgja, skila skýrslum og verkefnum.&lt;br&gt;Verklegar æfingar 1) Heilarafrit (Electroencephalogram). 2) Svefnrit (polysomnography). Í báðum æfingum er tölulega úrvinnslu gagna.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;D.U. Silverthorn: &lt;em&gt;Human physiology: An Intergrated Approach&lt;/em&gt;, Global Edition 7. útg., 2016.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Markmið námskeiðsins er að nemandi hafi öðlast fræðilegan undirbúning í lífeðlisfræði, sem geri hann hæfan til að takast á við frekara nám og starf á sviði líf- og heilbrigðisvísinda.&lt;br&gt;Í lok námskeiðsins á nemandi að hafa tileinkað sér hæfni í eftirfarandi þáttum:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Þekkja og geta lýst grundvallarhugtökum í lífeðlisfræði, byggingu og starfsemi frumna, vefja, líffæra og líffærakerfa. Ennfremur helstu rannsóknaraðferðir og mælitækni.&lt;/li&gt;&lt;li&gt;Geta útskýrt&amp;nbsp;lífeðlisfræðilega ferla.&lt;/li&gt;&lt;li&gt;Geta mælt ákveðna lífeðlisfræðilega þætti og unnið úr niðurstöðum.&lt;/li&gt;&lt;li&gt;Geta túlkað niðurstöður eigin mælinga og annarra á gagnrýninn hátt.&lt;/li&gt;&lt;li&gt;&amp;nbsp;Geta beitt þekkingu í lífeðlisfræði til að setja fram vinnutilgátur sem reyna má með tilraunum.&lt;/li&gt;&lt;li&gt;Geta rætt og rökstutt mál sitt með tilvísunum í heimildir&amp;nbsp;og geta greint á milli staðreynda og ályktana.&lt;/li&gt;&lt;li&gt;Geta tekið virkan þátt í vinnuhópum við að leysa lífeðlisfræðileg verkefni.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, umræðufundir og verklegar æfingar. Skylt er að mæta í allar verklegar æfingar og skila skýrslum.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course: &lt;/strong&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 3. Undergraduate, advanced / 4. Graduate, introductory.&lt;br&gt;&lt;strong&gt;Type of course:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Elective.&lt;br&gt;&lt;strong&gt;Prerequisites:&amp;nbsp; &lt;/strong&gt;&lt;br&gt;1)Working knowledge of Matlab programming;&lt;br&gt;2) Calculus (elementary linear algebra, in particular, vector/matrix operations and linear&amp;nbsp;systems; Basic knowledge of derivatives, including Taylor expansion).&lt;/p&gt;&lt;p&gt;The course introduces the concept and methods of engineering optimization. Major topics discussed throughout the course are: formulation of unconstrained and constrained optimization problems, objective functions, classification of optimization methods, first- and second-order optimality conditions, gradient-based search methods, derivative-free optimization, stochastic search methods including multi-agent systems and evolutionary algorithms, multi-objective optimization, surrogate-based optimization with focus on space mapping, functional and physical surrogate modeling, design of experiments, model selection and validation, as well as solving real-world engineering optimization problems with interfacing of commercial simulators. The relevant material concerning Matlab programming as well as calculus in the scope necessary for the course will also be given.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material: &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;Lecture slides provided by the teacher&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Upon completing the course, the students should be able to:&lt;/p&gt;&lt;p&gt;(1) Formulate engineering optimization problem, corresponding objective functions and constraints,&lt;/p&gt;&lt;p&gt;(2) Select appropriate optimization/modeling methodology,&lt;/p&gt;&lt;p&gt;(3) Implement basic optimization and modeling procedures as well as develop necessary Matlab code,&lt;/p&gt;&lt;p&gt;(4) Solve problems using existing packages, in particular Matlab and Matlab’s Optimization Toolbox,&lt;/p&gt;&lt;p&gt;(5) Visualize the optimization process and the results.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Taught every day for three weeks.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grades are based exclusively on the assessment of the solutions to the practical exercises. Requirement regarding the solution format and other details will be given during the first lecture.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught every day&amp;nbsp;for 3 weeks. Lectures and practical sessions.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Valnámskeið.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Engir undanfarar&lt;/p&gt;&lt;p&gt;Efnistök námskeiðsins eru meðal annars: Saga svefnrannsókna, taugafræðilegar undirstöður svefns og vöku, samanburður svefns og vöku milli tegunda, hlutverk svefns í þroska og minni, svefnsjúkdómar, áhrif svefnleysis, og virkni svefn og vökulyfja. Lögð verður áhersla á að skoða hagnýtingu svefnrannsókna til dæmis í tengslum við lyfja og tækjaþróun. Engin kennslubók verður notuð - eingöngu verða lesnar viðeigandi frumheimildir; jafnt sígildar sem glænýjar. Námskeiðið er hugsað fyrir nemendur sem eru í MSc námi eða lengra komnir í BSc námi. Gott væri er nemendur hefðu tekið til dæmis: T-106-LIFV eða E-112-LIAT; en nálgunin verður þverfagleg og er því ekki neinn einn bakgrunnur skilyrði fyrir inngöngu (en er háð samþykki kennara). Verklegar æfingar verða hluti af námsmati. Námskeiðið er á íslensku en verkefnum má skila hvort heldur sem er á íslensku, ensku (eða skandinavísku eitthverri).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Stefnt er að því að nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Öðlist skilning á hvað svefn er&lt;/li&gt;&lt;li&gt;Öðlist skilning á þeim vandamálum sem hindra að svefn sé að fullu útskýrður&lt;/li&gt;&lt;li&gt;Að hverju rannsóknum verður beint í nánustu framtíð&lt;/li&gt;&lt;li&gt;Kunni skil á helstu mæli og úrvinnsluaðerðum&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í alla daga í 3 vikur.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Þátttaka í tímum, nemendur senda að auki tölvupóst til kennara í hverri viku þar sem inntak greinanna sem verða lesnar í þeirri viku er dregið saman; skýrsla um verklegar æfingar (nánar útlistaðar í upphafi námskeiðs), ritgerðarpróf.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt alla daga í 3 vikur skv. sérstakri stundaskrá. Haldnir verða hefðbundnir fyrirlestrar en þeir verða í minnihluta. Námskeiðið byggist upp á umræðum þar sem lesefnið, sem og inntak verklegra æfinga verður greint. Verklegar æfingar verða fyrirferðamiklar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course: &amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/strong&gt;3.&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;Undergraduate, advanced&amp;nbsp;/ 4. Graduate, introductory.&lt;br&gt;&lt;strong&gt;Type of course: &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;Core in MSc mechatronics engineering.&lt;br&gt;&lt;strong&gt;Prerequisites&lt;/strong&gt;: Mechatronics I (T-411-MECH)&lt;/p&gt;&lt;p&gt;Mechatronics-2 extends Mechatronics-1 by going into more details. While Mechatronics 1 is broader and more about getting results fast (what is possible), Mechatronics 2 is more about accuracy and how to match a design to a task with economy, accuracy and robustness in mind (what is the limit). The course includes sensors, signal conditioning, interfacing, analog-digital conversion, digital input/outputs, timers, low level embedded firmware programming, actuators, UARTs and serial communication. It is expected that the student is familiar with digital electronics, analog electronics and the programming language C. Along with the lectures, each student has his/her own private project based on the fundamental elements of mechatronics: sense-think-act. For this project the student holds a lab notebook. At the end of the course the student delivers a report about the project.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material&lt;/strong&gt;:&amp;nbsp;&lt;em&gt;Introduction to Mechatronic Design&lt;/em&gt;, International edition J. Edward Carryer, R Mathew Ohline, Thomas W. Kerry, Pearson 2011, ISBN 978-0-13-609521-7&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;On the completion of the course the student should know&lt;/p&gt;&lt;ul&gt;&lt;li&gt;What an embedded system is&lt;/li&gt;&lt;li&gt;In details how a microcontroller works&lt;/li&gt;&lt;li&gt;Of several options of sensors and actuators&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;On completion of the course the student should&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Be able to program an embedded system&lt;/li&gt;&lt;li&gt;How to interface various sensors and actuators to a microcontroller&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;On the completion of the course the student is competent to&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Choose a microcontroller of a specific mechatronic task&lt;/li&gt;&lt;li&gt;Choose sensors for a given mechatronic problem&lt;/li&gt;&lt;li&gt;optimize code for a given hardware platform&lt;/li&gt;&lt;li&gt;can complete a defined personal project in a systematic and predictable way&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Combination of lectures and practical lessons, 6 hours per week for 12 weeks.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Assessment is based on homework, mid-term evaulatuon, video, lab notebook, final report, final project presentation.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught for 12 weeks. Lectures and practical sessions.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Valnámskeið.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Tölfræði I (T-302-TOLF).&lt;/p&gt;&lt;p&gt;Markmið áhættustjórnunar er ekki að útrýma áhættu enda er það ekki hægt. Áhættuna má á hinn bóginn skilgreina og meta til líkinda og verðs. Flókna og margslungna ákvörðun má brjóta upp í þætti og einfalda uns ljóst er í hvaða átt helstu rök hníga. Um langa hríð hefur hér á landi hver umdeilda ákvörðunin rekið aðra. Hefðu sumar þeirra ákvarðana reynst betur hefðu þær stuðst við þær aðferðir sem greint er frá í þessu námskeiði? Svarið er já. Líkindareikningur og normaldreifingin eru grundvallaratriði og tungumál áhættustjórnunar upp að vissu marki. Líkindareikningur segir okkur til dæmis hvernig á að meta það sem á eftir að gerast á grundvelli þess sem liðið er og tölfræðileg staðalfrávik eru notuð til að stærðarmeta áhættuna. Einnig munum við velta fyrir okkur hvernig þættir í eðli okkar geta mótað afstöðu okkar og bjagað ákvarðanir sem við tökum.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                                 &lt;/strong&gt;Goodwin &amp; Wright, &lt;em&gt;Decision Analysis for Management Judgment (5ed&lt;/em&gt;&lt;em&gt;).&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Helsta markmið námskeiðsins er að gera þá nemendur sem hyggjast leggja fyrir sig stjórnun betur færa um að standa sig vel í því hlutverki. Gildi þess að taka áhættu og óvissu með í reikninginn við ákvarðanir sínar er ótvírætt. Helstu kennslumarkmið: Kenna nemendum beitingu tölfræðilegra aðferða við ákvörðunartöku og áhættugreiningar. Kynna fyrir nemendum hvernig ofmat/vanmat á mannlegum þáttum skiptir máli við ákvörðunartöku. Kenna nemendum helstu aðferðir ákvörðunargreininga. Kenna nemendum að byggja upp líkön til að styðja ákvörðunartökuna.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Þekking: &lt;/strong&gt;Eftir námskeiðið hefur nemandinn þekkingu til að beita helstu verkfærum ákvörðunarfræða s.s. áhrifaritum, Monte Carlo hermun, ákvörðunartré, afraksturstöflum, hópvinnutækni, Delphi könnunum os,frv,&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;&lt;strong&gt;Færni&lt;/strong&gt;: Eftir námskeiðið getur nemandinn still upp ferli til að taka ákvörðun sem byggir á bestu fáanlegum upplýsingum s.s. með þróun ákvörðunarlíkana.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Persónuleg færni&lt;/strong&gt;: Eftir námskeiðið er nemandinn fær um að vinna með teymum í anda nútíma kenninga um leiðtogafærni til að komast að óbjagaðri niðurstöðu um ákvörðunartengt vandamál.&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;&lt;strong&gt;Hæfni&lt;/strong&gt;: Nemandinn er hæfur til að hugsa á gagnrýninn hátt um ákvarðanir og hanna leið til að finna bestu mögulegu lausn.&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í 12 vikur - 3 fyrirlestrar og 2 dæmatímar á viku.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, dæmatímar og reynsludæmi (case studies).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &lt;/strong&gt;                  3. Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið vélaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Stærðfræði III (T-301-MATH), Varmafræði (T-507-VARM), Straumfræði (T-536-RENN).&lt;/p&gt;&lt;p&gt;Í þessu námskeiði eru grunnhugtök og grunnaðferðir í varmaflutningsfræði kynntar:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Varmaleiðni: Æstæð varmaleiðni í einni vídd, lausn á jöfnu Fourier fyrir æstæð og tímaháð vandamál. Greining á hnikkluðum kerfum með varmaviðnámi. Tölulegar aðferðir.&lt;/li&gt;&lt;li&gt;Varmaburður: Frjáls varmaburður. Þvingaður varmaburður, lagstreymi og iðustreymi í innra og ytra streymi, t.d. streymi í samsíða plötum, yfir flata plötu og í hringlaga pípu. Varmaburður við þéttingu og suðu. Tölulegar aðferðir.&lt;/li&gt;&lt;li&gt;Varmageislun: Grunnlögmál, geislunareiginleikar, formstuðlar, geislun frá svörtum hlut og frávik frá því, geislun frá gösum.&lt;/li&gt;&lt;li&gt;Varmaskiptar: Flokkun varmaskipta, hitastigsdreifing, heildarvarmaburðarstuðull. Greining varmaskipta með LMTD og NTU aðferðum.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Incropera Dewitt, Bergmenn and Lavine, &lt;em&gt;Introduction to Heat Transfer.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa þekkingu á:&lt;br&gt;•    varmaleiðni, varmaburði og varmageislun&lt;br&gt;•    varmaskiptum&lt;br&gt;•    einföldum tölulegum aðferðum við lausn æstæðra vandamála&lt;br&gt;•    tengslum milli streymis og varmaflutnings&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa leikni í að:&lt;br&gt;•    leysa verkfræðileg vandamál m.t.t. varmaflutnings&lt;br&gt;•    setja upp net og jaðarskilyrði fyrir tölulega lausn vandamála&lt;br&gt;•    greina varmaskipta með LMTD og NTU aðferðum&lt;br&gt;•    greina og leysa æstæð og tímaháð vandamál&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Í lok þessa námskeiðs hafa nemendur: &lt;br&gt;•    öðlast hæfni til að forhanna varmaskipta og aðra hluti sem verða fyrir varmaálagi. &lt;br&gt;•    öðlast hæfni til að setja upp og framkvæma einfaldar tilraunir í varmaflutningsfræði&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat er byggt á skiladæmum, verklegum æfingum, verkefni, lokaprófi. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar. Dæmaæfingar, skiladæmi, verklegar æfingar, og forritunarverkefni.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tilgangur námskeiðsins er að kynna til sögunnar fræðilega undirstöðu tölulegrar straumfræði (CFD) til að greina og leysa vandamál í straum- og varmaflutningsfræði. Hagnýt verkefni eru lögð fyrir, þar sem nemendur kynnast undirstöðu CFD með forritun lausnaralgríma og notkun CFD kóða.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Þekking: Við lok námskeiðs mun nemandi hafa þekkingu á&lt;br&gt;•    Líkanagerð&lt;br&gt;•    Flokkun grunnjafna straumfræðinnar&lt;br&gt;•    Smábútaaðferðum&lt;br&gt;•    Greiningu á stöðuleika lausna og nákvæmni.&lt;br&gt;•    Lausnaraðferðum&lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Leikni: Við lok námskeiðsins mun nemandi hafa leikni í:&lt;br&gt;•    Notkun og forritun númerískra aðferða í straumfræði&lt;br&gt;•    Setja upp gefið vandamál í CFD forriti&lt;br&gt;•    Setja upp net&lt;br&gt;•    Velja viðeigandi jaðarskilyrði við hermun&lt;br&gt;•    Túlka niðurstöður á gagnrýnin hátt.&lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Hæfni: Við lok námskeiðsins mun nemandi hafa hæfni:&lt;br&gt;•    Til að framkvæma töluleg lausnir á vandamáli í straum- og varmaflutningsfræði.&lt;br&gt;•    Leggja mat á tölulegar aðferðir við lausnir í straum- og varmaflutningsfræði.&lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &lt;/strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Skyldunámskeið heilbrigðisverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Forritun (T-201-FOR1), Merkjafræði (T-306-MERK), Eðlisfræði III (T-307-HEIL).&lt;/p&gt;&lt;p&gt;Í námskeiðinu verður farið yfir helstu myndgerðarhætti sem notaðir eru í læknisfræði: röntgenmyndgerð og tölvusneiðmyndir, segulómun, ómun og ísótópa. Tækin verða kynnt og farið yfir eðlisfræði mismunandi myndgerða. Í dag eru læknisfræðilegar myndirnar nær alltaf á stafrænu formi og í byrjun verður fjallað almenntum stafrænar myndir, uppbyggingu og eiginleika, og grunnatriði myndvinnslu, birtubjögun, flatarsíun og tíðnisíun.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Paul Suetens, &lt;em&gt;Fundamentals of Medical Imaging.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eftir að hafa lokið námskeiðinu á nemandi að:&lt;br&gt;&lt;br&gt;• geta lýst uppbyggingu stafrænnar myndar, stærð og dýpt, bæði gráskala og litmynd, og helstu sniðum eins og jpeg og dicom.&lt;br&gt;• geta lýst áhrifum birtubjögunar, flatarsíunar og tíðnisíunar á mynd, og beitt þessum aðferðum myndvinnslu á markvissan hátt.&lt;br&gt;• þekkja helstu myndgerðir sem eru notaðar í læknisfræði, þ.e. röntgen, tölvusneiðmynd, segulómun, ómun og ísótópa, og geta lýst stuttlega hvaða eðlismunur er á þeim og hvaða eiginleikar vefja og virkni koma fram á myndunum.&lt;br&gt;• geta lýst hvernig tölvusneiðmynd er byggð upp.&lt;br&gt;• geta lýst þeirri eðlisfræði sem liggur að baki og hvernig myndin er byggð upp fyrir: röntgen, segulómun, ómun og ísótópa.&lt;br&gt;• þekkja til mikilvægi geislavarna og geta lýst helstu aðferðum sem eru notaðar til að draga úr geislaálagi.&lt;br&gt;• þekkja aðeins til fleiri myndgerða og nýjunga, og hafa aðeins kynnst starfsemi myndgerðardeildar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í 12 vikur - 3 fyrirlestrar og tveir dæma- og verkefnatímar vikulega. Verklegar æfingar og kynningar.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einkunn fyrir námskeiðið byggist á einu áfangaprófi, verkefnum og heimavinnu. Námskeiðið er án lokaprófs.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, dæmatímar, verkefni og heimsóknir.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course: 3. &lt;/strong&gt;Undergraduate (First cycle), advanced.&lt;br&gt;&lt;strong&gt;Type of course: &lt;/strong&gt;Core for all programs in engineering.&lt;br&gt;&lt;strong&gt;Prerequisites: &lt;/strong&gt;The student must have completed 5 semesters in engineering. The projects will vary for each specific program and will require knowledge drawn from the courses that are mandatory in that specific program.&amp;nbsp; Details to be published each year.&lt;/p&gt;&lt;p&gt;This course will walk students through the Product Design design process where they will design and implement a prototype solving a problem in their particular discipline. The focus of this course is to understand the elements involved in the generic design process that includes the agents of marketing, design, and implementation. Through the viewpoint of these agents, we will go through the steps of planning, concept development, system-level design, detailed design, and testing and refinement. Weekly problem sets will be given to assess comprehension. Weekly group assignments will apply processes from reading to the final project design e.g. interviewing prospective customers, developing requirements lists, building a test plan, and mastering discipline-specific tools.&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Projects will be connected with a customer in the specific discipline, possibly from industry or research fields. Projects may be selected to be program specific for each of the BSc programs in engineering or may be chosen to have aspects of multiple disciplines and thus involve students from more than one program.&amp;nbsp;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;This course is taught in three parts. For the first 6 weeks the students will learn and master the general Product Design process based on the needs of a customer. For the rest of the course students will work in teams on the project specified for their program, e.g. mechatronics or financial engineering. Weeks 7 – 12 are part of the regular 12 week period in the spring semester while weeks 13 – 15 are taught in the 3 week period of the spring semester during which the students are completely dedicated to this course. &amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;To be decided.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The course will help students to make the vital step from solid understanding of the fundamentals of engineering to the application of theory to practical scenarios, as they arise in the real world.&lt;/p&gt;&lt;p&gt;On completion of the course the students will have extensively applied their knowledge of engineering to a range of practical and relevant problems.&amp;nbsp; The problems will require knowledge drawn from the courses that are mandatory in their specific program.&amp;nbsp;&lt;/p&gt;&lt;p&gt;The students will:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Understand the product design process and be able to apply it to a substantial engineering project.&lt;/li&gt;&lt;li&gt;Be able to apply Product Design techniques to interact with customers and distill their needs into a manageable form .&lt;/li&gt;&lt;li&gt;Be able to create requirements and design documents.&lt;/li&gt;&lt;li&gt;Be able to analyze the modularity and robustness of their design.&lt;/li&gt;&lt;li&gt;Be able to create design documents and conference papers.&lt;/li&gt;&lt;li&gt;Be able to present ideas effectively for customers and peer reviews.&lt;/li&gt;&lt;li&gt;Be able to design and perform experiments to test design choices.&lt;/li&gt;&lt;li&gt;Be able to use appropriate software for design and modelling.&lt;/li&gt;&lt;li&gt;Be able to build prototypes&lt;/li&gt;&lt;li&gt;Be able to use the creative instincts as part of a deterministic process.&lt;/li&gt;&lt;li&gt;Be able to collaborate effectively on a substantial project for a specific customer within given constraints.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught for 15 weeks.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                  &lt;/strong&gt; 3. Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;           Valnámskeið.&lt;br&gt;&lt;strong&gt;Undanfarar:&lt;/strong&gt;                         Samþykki umsjónarkennara og námsbrautarstjóra.&lt;/p&gt;&lt;p&gt;Vel afmarkað verkefni sem reynir á sjálfstæð vinnubrögð nemanda, að mestu unniðs jálfstætt en undir handleiðslu leiðbeinanda.. Verkefnið getur verið rannsókn, þróunarverkefni, smíði eða hönnun og er það unnið utan skipulagðs náms í verkfræði.  Forkröfur: Sviðsstjóri námsbrautarinnar sem nemandinn stundar nám í þarf að samþykkja val á verkefni og leiðbeinanda áður en nemandi getur skráð sig í námskeiðið.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Skv. ákvörðun leiðbeinanda.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nemandi leggur fram skýrslu um verkefnið, eða handrit að grein. Nemandi skilar einnig veggspjaldi rafrænt eða öðru sambærilegu kynningarefni.  Framlögð gögn eru metin af tveimur kennurum tækni- og verkfræðideildar ásamt leiðbeinanda verkefnisins. Þessir aðilar meta hvort verkefnið standist þær kröfur sem eðlilega má gera til verkefnis af þessu tagi, og matið er annað hvort “Staðið” eða “Fall”.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Valnámskeið í öllum námsbrautum. Nemandi sem stundar starfsnám getur í mesta lagi&amp;nbsp; verið skráður í 30 ECTS á viðkomandi önn. Námskeiðið er ekki opið skiptinemum.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Tvö námsár í verkfræði. Þátttakendur eru valdir úr hópi umsækjenda, m.a. er tekið tillit til&amp;nbsp;námsframvindu og einkunna.&lt;/p&gt;&lt;p&gt;Starfsnám I er valnámskeið á lokaári BSc náms eða fyrra ári MSc náms og er skilyrðislaus undanfari fyrir Starfsnám II. Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Miða skal við að vinnuframlag nemanda sé að lágmarki 120 vinnustundir. Þessu til viðbótar kemur undirbúningur, vinna við gerð lokaskýrslu og kynningu hennar.&lt;/p&gt;&lt;p&gt;Starfsnám I er valnámskeið á lokaári BSc náms eða fyrra ári MSc náms og er skilyrðislaus undanfari fyrir Starfsnám II. Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Miða skal við að vinnuframlag nemanda sé að lágmarki 120 vinnustundir. Þessu til viðbótar kemur undirbúningur, vinna við gerð lokaskýrslu og kynningu hennar. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Nemendur á lokaári BSc náms geta tekið Starfsnám II í beinu framhaldi af Starfsnámi I á 12-vikna meginkennslutímabili annarinnar, eða tekið einungis Starfsnám I. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Nemendum á fyrra ári MSc náms býðst ekki að taka einungis Starfsnám I. Ef þeir velja starfsnám þá er það samtals 12 ECTS, þ.e. í beinu framhaldi af Starfsnámi I kemur Starfsnám II, sem má taka hvort heldur á 12-vikna eða á 3vikna kennslutímabilinu. Ef nemandi tekur bæði Starfsnám I og II á 12-vikna kennslutímabilinu, þá dreifast samanlagðar vinnustundir beggja námskeiða á allt að 12 vikur. Starfsnámið ber að skipuleggja þannig að vinnutíminn skarist ekki við kennslustundir í öðrum námskeiðum. Sjá nánar Leiðbeiningar um starfsnám í verkfræði. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Verkefnið skal vera skilgreint og afmarkað í samráði við umsjónarmann hjá fyrirtæki/stofnun og umsjónarkennara hjá HR. Að öllu jöfnu er um að ræða hagnýtt verkefni sem byggir á námsefni undangenginna anna og rúmast á 120 vinnustundum. Við upphaf starfsnáms skal liggja fyrir lýsing á verkefninu sem umsjónaraðilar hafa samþykkt. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Áhersla er lögð á skipuleg, sjálfstæð og tæknileg vinnubrögð. Nemandinn skal í upphafi skilgreina verkefnið, þ.e. hvert sé markmið og afrakstur. Meðan á verkefninu stendur skal nemandinn halda dagbók þannig að hægt sé að&amp;nbsp;fylgjast með framvindu verkefnisins. Í lok námstíma skal nemandinn skrifa skýrslu um verkefnið sem er kynnt og varin munnlega.&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;&lt;u&gt;Heimilt, í samráði við umsjónarkennara, að ákveða að nemandi í BSc námi vinni í Starfsnámi I að mörgum smærri verkefnum hjá fyrirtæki/stofnun í stað þess að vinna að einu afmörkuðu verkefni allan tímann, með það að meginmarkmiði að nemandinn kynnist fjölbreyttri starfsemi viðkomandi vinnustaðar. Þetta er ekki heimilt ef um er að ræða nemanda í MSc námi. Fyrir nemendur í MSc námi er starfsnám einungis í boði sem 12 ECTS, þ.e. nemandinn tekur bæði Starfsnám I og Starfsnám II.&lt;/u&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Samkvæmt ábendingum umsjónarmanns.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lærdómsviðmið eiga að endurspegla það sem nemandinn lærir og þá reynslu sem hann hlýtur meðan á starfsnámi stendur&lt;strong&gt;.&lt;/strong&gt;&lt;strong&gt; Áherslur, sértæk lærdómsviðmið og &lt;/strong&gt;&lt;strong&gt;kröfur um afrakstur&lt;/strong&gt; verða skilgreind af umsjónaraðilum HR og viðkomandi fyrirtækis hverju sinni fyrir hvert einstakt verkefni, með eftirfarandi markmið í huga.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;að efla tengsl nemenda tækni- og verkfræðideildar HR við atvinnulífið.&lt;/li&gt;&lt;li&gt;að auka innsýn og skilning nemenda á viðfangsefnum þess fagsviðs sem þau stunda nám á.&lt;/li&gt;&lt;li&gt;að auka skilning nemenda á verkferlum og skipulagningu verkefna hjá viðkomandi fyrirtæki/stofnun.&lt;/li&gt;&lt;li&gt;að nemendur geti skipulagt og útfært faglega vinnu út frá fyrirfram gefnum forsendum og kröfum.&lt;/li&gt;&lt;li&gt;að styrkja samskiptahæfni nemenda (innri og ytri samskipti í fyrirtæki)&lt;/li&gt;&lt;li&gt;að nemendur hljóti reynslu af því að vinna að úrlausn raunhæfra viðfangsefna á vettvangi, undir leiðsögn leiðbeinenda úr atvinnulífinu.&lt;/li&gt;&lt;li&gt;að undirbúa nemendur undir starf eftir námslok.&lt;/li&gt;&lt;li&gt;að opna nemendum leið inn á vinnumarkað.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í allt að 12 vikur skv. sérstakri stundaskrá.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einkunn Staðið/Fall. Lagt verður mat á frammistöðu nemanda á vinnustaðnum ásamt dagbók, lokaskýrsla og kynningu á verkefninu. Við matið skal taka mið af því hvort nemandi hafi sýnt fram á getu til uppfylla lærdómsviðmiðin sem umsjónaraðilar skilgreina í upphafi námskeiðs.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í allt að 12 vikur skv. sérstakri stundaskrá.&amp;nbsp;Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Nemandinn skal í upphafi skilgreina verkefnið, þ.e. hvert sé markmið og lokaafurð. Vinnutími nemanda við verkefnið skal að lágmarki vera 120 klst, því til viðbótar kemur undirbúningur, svo og vinna við gerð lokaskýrslu og kynningu verkefnisins.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Valnámskeið í öllum námsbrautum. Námskeiðið er ekki opið skiptinemum.&lt;br&gt;&lt;strong&gt;Undanfarar:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Starfsnám í verkfræði I (T-706-INT1).&lt;/p&gt;&lt;p&gt;Starfsnám II er valnámskeið á lokaári BSc náms eða fyrra ári MSc náms. Undanfari er AT INT 1003 Starfsnám í verkfræði I. Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns/leiðbeinanda hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Að öðru jöfnu er búið að undirbyggja verkefnið meðan nemandinn var í Starfsnámi I og verkefnið í Starfsnámi II þá eðlilegt framhald af því. Miða skal við að vinnuframlag nemanda sé að lágmarki 120 vinnustundir. Þessu til viðbótar kemur undirbúningsvinna og vinna við gerð lokaskýrslu og kynningu verkefnisins. Starfsnám II er unnið í framhaldi af Starfsnámi I, á sömu önn, og dreifist annaðhvort á 12-vikna kennslutímabil annarinnar eða unnið samfellt sem full vinna á 3. vikna tímabili í lok annar. Ef starfsnámið fer fram á 12-vikna kennslutímabilinu ber að skipuleggja vinnutímann þannig að hann skarist ekki við kennslustundir í öðrum námskeiðum. Sjá nánar Leiðbeiningar um starfsnám í verkfræði. &amp;nbsp;&lt;br&gt;Verkefnið skal vera skilgreint og afmarkað í samráði við umsjónarmann hjá fyrirtæki/stofnun og umsjónarkennara hjá HR. Að öllu jöfnu er um að ræða hagnýtt hönnunar-, greiningar- og/eða rannsóknarverkefni sem byggir á námsefni undangenginna anna.&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Við upphaf starfsnáms skal liggja fyrir lýsing á verkefninu sem umsjónaraðilar hafa samþykkt. Ætlast er til að lýsingin innihaldi upplýsingar um hvaða viðbótarþekkingu og/eða þjálfun nemandinn þurfi til að vinna verkefnið, með viðeigandi tilvísun í kennslubækur og/eða aðrar heimildir. Áhersla er lögð á skipuleg, sjálfstæð og tæknileg vinnubrögð. Nemandinn skal færa dagbók þannig að hægt sé að fylgjast með framvindu verkefnisins. Í lok námstíma skal nemandinn skrifa skýrslu um verkefnið sem er kynnt og varin munnlega.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:&amp;nbsp; &lt;/strong&gt;Samkvæmt ábendingum leiðbeinanda.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lærdómsviðmið eiga að endurspegla það sem nemandinn lærir og þá reynslu sem hann hlýtur meðan á starfsnámi stendur.&lt;strong&gt; Áherslur, sértæk lærdómsviðmið og &lt;/strong&gt;&lt;strong&gt;kröfur um afrakstur&lt;/strong&gt; verða skilgreind af umsjónaraðilum HR og viðkomandi fyrirtækis hverju sinni fyrir hvert einstakt verkefni, með eftirfarandi markmið í huga. Meginmarkmiðin eru:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;að efla tengsl nemenda tækni- og verkfræðideildar HR við atvinnulífið.&lt;/li&gt;&lt;li&gt;að auka innsýn og skilning nemenda á viðfangsefnum viðkomandi fagsviðs.&lt;/li&gt;&lt;li&gt;að nemendur öðlist reynslu af því að vinna að úrlausn raunhæfra viðfangsefna á vettvangi, undir leiðsögn leiðbeinenda úr atvinnulífinu.&lt;/li&gt;&lt;li&gt;að auka skilning nemenda á verkferlum og skipulagningu verkefna hjá viðkomandi fyrirtæki/stofnun.&lt;/li&gt;&lt;li&gt;að undirbúa nemendur undir starf á sínu fagsviði.&lt;/li&gt;&lt;li&gt;að nemendur geti skipulagt og útfært faglega vinnu út frá fyrirfram gefnum forsendum og kröfum.&lt;/li&gt;&lt;li&gt;að nemendur geti unnið sjálfstætt og borið ábyrgð á eigin þekkingarleit og faglegum áherslum.&lt;/li&gt;&lt;li&gt;að nemendur tileinki sér sjálfstæð og markviss vinnubrögð við úrlausn raunhæfra hönnunar-, greiningar- og/eða rannsóknarverkefna á fagsviðinu.&lt;/li&gt;&lt;li&gt;að&amp;nbsp; nemendur beiti aðferðum tæknifræðinnar við lausn hagnýtra verkefna.&lt;/li&gt;&lt;li&gt;að nemendur fái hagnýta reynslu og yfirsýn yfir fagið með samþættingu námsgreina við úrlausn raunhæfra verkefna.&lt;/li&gt;&lt;li&gt;að nemendur auki þekkingu sína á félagslegum, hagrænum og siðferðislegum þáttum fagsviðsins.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;að auka þekkingu nemenda á notkun öryggis- og tæknistaðla við faglega vinnu.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;að auka færni nemenda í skýrslugerð og kynningu á niðurstöðum og tæknilegum lausnum.&lt;/li&gt;&lt;li&gt;að styrkja samskiptahæfni nemenda (innri og ytri samskipti í fyrirtæki)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í allt að 12 vikur samkvæmt sérstakri stundaskrá, eða kennt alla virka daga í 3_x000D_
+vikur.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einkunn Staðið/Fall. Lagt verður mat á dagbók, lokaskýrslu og kynningu á verkefninu. Við matið skal taka mið af því hvort nemandi hafi sýnt er fram á getu til uppfylla þau lærdómsviðmið sem umsjónaraðilar skilgreina í upphafi námskeiðs.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í allt að 12 vikur samkvæmt sérstakri stundaskrá, eða kennt alla virka daga í 3 vikur. Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Nemandinn skal í upphafi skilgreina verkefnið, þ.e. hvert sé markmið og lokaafurð. Vinnutími nemanda við verkefnið skal að lágmarki vera 120 klst, því til viðbótar kemur undirbúningur, svo og vinna við gerð lokaskýrslu og kynningu verkefnisins.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Synthetic biology is an interdisciplinary area that involves the application of engineering principles to biology. It aims at the (re-)design and fabrication of biological components and systems that do not already exist in the natural world. Tissue engineering is the construction of bioartificial tissues in vitro as well as the in vivo alteration of cell growth and function via implantation of suitable cells isolated from donor tissue and biocompatible scaffold materials. This course will present the a) basics of design and implementation of artificial biomolecular systems and b) the principles of an integrated tissue engineering approach._x000D_
+At the end of the course, the students should know:_x000D_
+a)how to use tools for the design and fabrication of biological parts, devices and synthetic systems, or for the redesign of biological parts, devices and natural systems for application purposes. In particular, they should be able to: - design genetic circuits based on a standard modular approach, - describe and predict the dynamics of genetic circuits by using computational modeling;_x000D_
+b)the general specifications of suitable cells and biomaterials and applicable culture protocols in dedicated devices (bioreactor systems) to obtain viable biohybrid engineered tissues.</t>
+  </si>
+  <si>
+    <t>Lectures, journal clubs, practicals, small-group projects and class exams.</t>
+  </si>
+  <si>
+    <t>The lab room and the equipment: Safety is priority._x000D_
+Unconventional applications for nucleic acids, e.g. DNA nanodevices; DNA computing._x000D_
+Promoters, terminators and ribosome binding sites to control gene transcription/translation._x000D_
+E. coli DNA: Chromosomes and plasmids._x000D_
+BioBrick™ standard assembly._x000D_
+Fluorimetry, fluorescence microscopy or flow cytometry to measure a fluorescent reporter._x000D_
+Mathematical modeling to describe and to predict the behavior of a genetic circuit._x000D_
+Stem cells in tissue engineering (TE)._x000D_
+TE scaffolds: chemical, physical and biological properties of natural and synthetic biomaterials of interest for the aim; scaffold fabrication methods; bioactive substance delivery; cell/biomaterial interactions (biocompatibility e differentiation assessment)._x000D_
+TE bioreactor systems: cell culture in bioreactors for TE; examples/applications.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course: &lt;/strong&gt;3.&lt;strong&gt; &lt;/strong&gt;Undergraduate (First cycle), advanced / 4. Graduate (Second cycle), introductory.&lt;br /&gt;_x000D_
+&lt;strong&gt;Type of course: &lt;/strong&gt;Elective.&amp;nbsp; &lt;em&gt;Recommended elective in mechatronics engineering, electric power engineering.&lt;/em&gt;&lt;br /&gt;_x000D_
+&lt;strong&gt;Prerequisites (mandatory):&amp;nbsp; &lt;/strong&gt;Feedback Control Systems (T-501-REGL).&lt;/p&gt;_x000D_
+&lt;p&gt;This course covers theoretical development and practical applications of formal methods in robust and optimal linear control, robust stability analysis, and Lyapunov stability theory. Throughout the course, case studies are presented to illustrate key design steps and the benefits of applying robust and adaptive control methodologies to aircraft design. Initially, general aviation background is also discussed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Having completed this course, you should be familiar with the equations of motion describing aircraft flight dynamics, be able to explain them using your own word, and to simplify them in order to make them suitable for control design. Moreover, you should be able to identify whether a system is suitable for the application of the presented methods and to apply them. They are&lt;/p&gt;_x000D_
 &lt;ul&gt;_x000D_
-    &lt;li&gt;Quizzes (short tests)&lt;/li&gt;_x000D_
-    &lt;li&gt;Midterm exam&lt;/li&gt;_x000D_
-    &lt;li&gt;Assignments; homework problems and lab exercises.&lt;/li&gt;_x000D_
-    &lt;li&gt;Final exam; in order to pass this course, you need 50% or higher on the Final-Exam grade and 50% or higher on the total grade.&lt;/li&gt;_x000D_
+    &lt;li&gt;command tracking using linear quadratic regulators (LQR),&lt;/li&gt;_x000D_
+    &lt;li&gt;projective control,&lt;/li&gt;_x000D_
+    &lt;li&gt;linear quadratic Gaussian control (LQG),&lt;/li&gt;_x000D_
+    &lt;li&gt;H two and H infinity control.&lt;/li&gt;_x000D_
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>T-401-VELH</t>
-  </si>
-  <si>
-    <t>T-403-RAVE</t>
-  </si>
-  <si>
-    <t>T-738-CONT</t>
-  </si>
-  <si>
-    <t>T-501-REGL</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt;                  3. First cycle, advanced / 4. Second cycle, introductory.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Core mechatronics engineering, electric power engineering.  Recommended elective for biomedical engineering and mechanical engineering.&lt;br&gt;&lt;strong&gt;Prerequisites (mandatory):&lt;/strong&gt; Calculus I (T-101-STA1), Calculus II (T-201-STA2), Mathematics III (T-301-MATH), Linear Algebra (T-211-LINA), Linear Dynamic Systems. T-401-LISY. Programming in Matlab and/or Python.&lt;/p&gt;&lt;p&gt;This is an introductory course to feedback control systems. The course topics are:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Models of dynamical systems based on ordinary differential equations&lt;/li&gt;&lt;li&gt;Stability analysis&lt;/li&gt;&lt;li&gt;Linear systems&lt;/li&gt;&lt;li&gt;Design of control systems in state-space&lt;/li&gt;&lt;li&gt;PID control&lt;/li&gt;&lt;li&gt;Frequency domain analysis&lt;/li&gt;&lt;li&gt;Frequency domain design methods&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;K. J. Åström &amp; R. M. Murray, &lt;em&gt;Feedback Systems: An Introduction for Scientists and Engineers&lt;/em&gt;, Princeton University Press, 2008 (www.cds.caltech.edu/~murray/amwiki/Main_Page)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;This course is designed to give you a solid foundation in the theory and concepts of dynamic systems and how models are used for determining system behaviour. The design of feed-back control systems is particularly well suited to achieving this objective, as it calls for an in-depth understanding of system stability and how this is affected by the design of control signals.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Having completed this course, you should be able to&lt;/p&gt;&lt;ul&gt;&lt;li&gt;explain structure and characteristics of automatic control systems&lt;/li&gt;&lt;li&gt;develop mathematical models of common control systems using differential equations&lt;/li&gt;&lt;li&gt;calibrate these models using system response measurements&lt;/li&gt;&lt;li&gt;determine system stability&lt;/li&gt;&lt;li&gt;apply control to satisfy operational requirements and achieve satisfactory performance&lt;/li&gt;&lt;li&gt;use common methods and software (MATLAB) for the design of control systems&lt;/li&gt;&lt;li&gt;actively participate in the design of a control system&lt;/li&gt;&lt;li&gt;undertake further studies in the analysis and design of complex control systems&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Kennt í 12 vikur - 6 kennslustundir á viku auk verklegra æfinga.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Taught for 12 weeks. To be decided.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>T-864-NUFF</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fyrir allar námsbrautir í verkfræði&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Engir undanfarar.&lt;/p&gt;&lt;p&gt;Farið er í undirstöðuatriði línulegrar algebru og notkun á þeim. Tekinn er fyrir fylkjareikningur og aðferðir við lausn á línulegum jöfnuhneppum. Fjallað er um línulegar varpanir, ákveður, eigingildi og eiginvigra. Myndræn beiting fylkjareiknings er skoðuð. Fjallað er um vigrarúmfræði, þar á meðal jöfnur fyrir plön. Teknar eru fyrir aðferðir til að leiða út grunn fyrir ýmis hlutrúm Rn.  Nemendur fá að kynnast almennum vektorrúmum og eiginleika þeirra.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                 &lt;/strong&gt;Lay, Lay and McDonald, &lt;em&gt;Linear Algebra and its Applications.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Stefnt er að því að nemendur þekki:&lt;br&gt;•    undirstöðuatriði fylkjareiknings,&lt;br&gt;•    lausnir á línulegum jöfnuhneppum,&lt;br&gt;•    aðferðir til að meta hvort vigrar eru línulega óháðir,&lt;br&gt;•    grunnatriði varðandi línulegar varpanir,&lt;br&gt;•    vigraaðgerðir, meðal annars innfeldi og krossfeldi,&lt;br&gt;•    fylkjaaðgerðir og andhverfur fylkja,&lt;br&gt;•    þverlægni, ofanvörp og hornrétta grunni,&lt;br&gt;•    hlutrúm Rn og víddir og grunnir þeirra,&lt;br&gt;•    grunnatriði varðandi almenn vektorrúm.&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;br&gt;•    rökstutt niðurstöður í línulegri algebru með því að beita stærðfræðilegri röksemdarfærslu,&lt;br&gt;•    notað fylkjareikning til að leysa ýmis verkefni í rúmfræði,&lt;br&gt;•    reiknað ákveðu og andhverfu fylkis,&lt;br&gt;•    reiknað eigingildi og eiginvigra fylkis, og hornalínugert það þegar hægt er,&lt;br&gt;•    reiknað grunn fyrir ýmis hlutrúm Rn.&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;br&gt;• beitt fylkjareikningi til að leysa verkefni sem upp koma í tölvunarfræði og verkfræði, &lt;br&gt;&lt;/p&gt;&lt;p&gt;• beitt stærðfræðilegri röksemdarfærslu til að sanna einfaldar reglur og setningar. &lt;br&gt;&lt;/p&gt;&lt;p&gt;• notað hugbúnað (t.d. Matlab) við lausn verkefna í námsefninu. &lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>T-606-HEAT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið.&lt;strong&gt; &lt;/strong&gt;  &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið vélaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Eðlisfræði I (T-102-EDL1), Stærðfræði II (T-201-STA2), Varmafræði (T-507-VARM).&lt;/p&gt;&lt;p&gt;Efnistök námskeiðsins eru meðal annars eðliseiginleikar vökva, vökvastöðufræði, varðveislulögmál með tegur- og diffurframsetningu, Bernoulli jafna, mættisstreymi, einföld flæði seigra vökva með Navier-Stokes jöfnum, víddargreining, pípustreymi, jaðarlög og þjappanleg flæði.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                              &lt;/strong&gt;F.M White, &lt;em&gt;Fluid Mechanics.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, dæmatímar og verklegar æfingar.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>T-606-NUFF</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                  3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fjármálaverkfræði og rekstrarverkfræði á 3. ári. Skyldunámskeið heilbrigðisverkfræði og vélaverkfræði á 4. ári (þ.e. á fyrsta ári meistaranáms).&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Stærðfræði I (T-101-STA1), Stærðfræði II (T-201-STA2),  Línuleg Algebra (T-211-LINA), Forritun fyrir verkfræðinema (T-201-FOR1), Stærðfræði III (T-301-MATH).&lt;/p&gt;&lt;p&gt;Undirstöðuatriði tölulegrar greiningar og notkun á þeim. Nálganir og skekkjumat. Tölulegar aðferðir til að leysa jöfnur og finna lægsta gildi falls. Tölulegar lausnir á línulegum og ólínulegum jöfnuhneppum. Margliðubrúun. Línuleg aðhvarfsgreining fyrir gagnasöfn. Töluleg diffrun og heildun. Tölulegar lausnir á upphafs- og jaðargildisverkefni fyrir venjulegar diffurjöfnur og diffurjöfnuhneppi. Undirstöðuatriði bútaaðferðar við lausn á diffurjöfnum. Áhersla er lögð á hagnýta forritun til að leysa stærðfræðileg verkefni sem koma upp í verkfræðinni. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                                 &lt;/strong&gt;Timothy Sauer, &lt;em&gt;Numerical Analysis&lt;/em&gt;. Fyrirlestrarnótur frá kennara&lt;em&gt;.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Varmaflutningsfræði</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &lt;/strong&gt;                  3. Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið vélaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Stærðfræði III (T-301-MATH), Varmafræði (T-507-VARM), Straumfræði (T-536-RENN).&lt;/p&gt;&lt;p&gt;Í þessu námskeiði eru grunnhugtök og grunnaðferðir í varmaflutningsfræði kynntar:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Varmaleiðni: Æstæð varmaleiðni í einni vídd, lausn á jöfnu Fourier fyrir æstæð og tímaháð vandamál. Greining á hnikkluðum kerfum með varmaviðnámi. Tölulegar aðferðir.&lt;/li&gt;&lt;li&gt;Varmaburður: Frjáls varmaburður. Þvingaður varmaburður, lagstreymi og iðustreymi í innra og ytra streymi, t.d. streymi í samsíða plötum, yfir flata plötu og í hringlaga pípu. Varmaburður við þéttingu og suðu. Tölulegar aðferðir.&lt;/li&gt;&lt;li&gt;Varmageislun: Grunnlögmál, geislunareiginleikar, formstuðlar, geislun frá svörtum hlut og frávik frá því, geislun frá gösum.&lt;/li&gt;&lt;li&gt;Varmaskiptar: Flokkun varmaskipta, hitastigsdreifing, heildarvarmaburðarstuðull. Greining varmaskipta með LMTD og NTU aðferðum.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Incropera Dewitt, Bergmenn and Lavine, &lt;em&gt;Introduction to Heat Transfer.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa þekkingu á:&lt;br&gt;•    varmaleiðni, varmaburði og varmageislun&lt;br&gt;•    varmaskiptum&lt;br&gt;•    einföldum tölulegum aðferðum við lausn æstæðra vandamála&lt;br&gt;•    tengslum milli streymis og varmaflutnings&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa leikni í að:&lt;br&gt;•    leysa verkfræðileg vandamál m.t.t. varmaflutnings&lt;br&gt;•    setja upp net og jaðarskilyrði fyrir tölulega lausn vandamála&lt;br&gt;•    greina varmaskipta með LMTD og NTU aðferðum&lt;br&gt;•    greina og leysa æstæð og tímaháð vandamál&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Í lok þessa námskeiðs hafa nemendur: &lt;br&gt;•    öðlast hæfni til að forhanna varmaskipta og aðra hluti sem verða fyrir varmaálagi. &lt;br&gt;•    öðlast hæfni til að setja upp og framkvæma einfaldar tilraunir í varmaflutningsfræði&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Námsmat er byggt á skiladæmum, verklegum æfingum, verkefni, lokaprófi. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar. Dæmaæfingar, skiladæmi, verklegar æfingar, og forritunarverkefni.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>T-306-MERK</t>
-  </si>
-  <si>
-    <t>T-423-ENOP</t>
-  </si>
-  <si>
-    <t>T-863-WIND</t>
-  </si>
-  <si>
-    <t>T-609-LAEK</t>
-  </si>
-  <si>
-    <t>T-406-LIFE</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið.    &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:            &lt;/strong&gt;Skyldunámskeið heilbrigðisverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Engir. Efnafræði (T-204-EFNA) er ráðlagður undanfari.&lt;/p&gt;&lt;p&gt;Fyrsti hluti: Inngangur að frumulíffræði, lífefnafræði frumna og prótein.&lt;/p&gt;&lt;p&gt;Annar hluti: Sameindaerfðafræði. Genamengið og litningar, DNA eftirmyndun, DNA viðgerðir og DNA       endurröðun. Umritun á DNA yfir í RNA. Þýðing á RNA yfir í prótein. Grunnatriði genastjórnunar.&lt;/p&gt;&lt;p&gt;Þriðji hluti: Frumuhimnan, flutningur sameinda yfir frumuhimnu, Innra skipulag frumunar, Flutningur í     blöðrum, Orkubúskapur frumunar, Boðskipti frumunar og Frumugrindin.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Alberts et al, &lt;em&gt;Essential Cell Biology.4th edition&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Markmið með þessu námskeiði er að gefa 1. árs verkfræðinemum grunnþekkingu í samsetningu og starfsemi heilkjörnunga og helstu þáttum í sameindalíffræði heilkjörnunga. Einnig að kynna þeim fyrir almennum þáttum í stofnfrumulíffræði, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Farið verður í grunnþætti lífefnafræði, grunnþætti sameindaerfðafræði, grunnþætti sameindalíffræði og grunnþætti frumulíffræði. Farið í uppbyggingu og starfsemi próteina. Farið verður yfir uppbyggingu og pökkun erfðaefnisins. Farið verður yfir þá þætti sem stýra viðhaldi, viðgerð og endurmyndun á erfðaefninu. Farið verður í gegnum hvernig erfðaefnið er umritað og þýtt yfir í prótein. Farið verður í grunnbyggingu og efnasamsetningu frumuhimnunar. Farið verður yfir helstu þætti sem stjórna flæði efna í gegnum frumuhimnu. Farið verður yfir helstu frumulíffæri og hvernig próteinum er pakkað og flutt til innan frumunar. Farið verður í orkubúskap heilkjörnunga. Farið verður yfir samskipti innan frumna og milli frumna. Farið verður yfir frumugrindina og hvernig frumur hreyfa sig. Fjallað verður um stofnfrumur, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Verklegar æfingar verða tvisvar sinnum á önninni&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Námskeiðinu er skipt í fjóra hluta: I) inngang að frumulíffræð, lífefnafræði og prótein,  II) Sameindaerfðafræði III) Frumuhimnan, flutningur sameinda yfir frumuhimnu, Innra skipulag frumunar, Boðskipti frumunar og Frumugrindin. IV) Stofnfrumur, vefajverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Að loknu námskeiðinu á nemandinn að hafa skilning á efnafræði frumna, uppbyggingu og starfsemi próteina, uppbyggingu erfðaefnisins, umritun og þýðingu erfðaefnis yfir í prótein , byggingu og virkni frumuhimnunnar, frumulíffæri, innanfrumuboðleiðir, samskipti frumna og hafa grunþekkingu um stofnfrumur, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Námsmat&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mæting í verklegar æfingar og skil á skýrslum&lt;/li&gt;&lt;li&gt;Áfangapróf&lt;/li&gt;&lt;li&gt;Skriflegt lokapróf&lt;/li&gt;&lt;li&gt;Ekki farið fram á lágmarkseinkunn úr verklegum æfingum eða áfangaprófum til að öðlast próftökurétt í lokaprófi. Standast þarf lokapróf.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>T-844-FEMM</t>
-  </si>
-  <si>
-    <t>T-535-MECH</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt; 3. Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs: &lt;/strong&gt;Skyldunámskeið hátækniverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Forritun í C++ (T-208-FOR2) eða Python (T-111-PROG eða T-201-FOR1). &lt;strong&gt;Aðrir ráðlagðir undanfarar:&lt;/strong&gt; Greining rása (T-306-RAS1); Stöðu- og burðarþolsfræði (T-106-BURD); Tölvuhögun (T-107-TOLH, hægt að taka samhliða). &lt;/p&gt;&lt;p&gt;This is an introduction to Mechatronics, the technique of interfacing software, electronics, and mechanical components. We will be utilizing the Raspberry Pi single-board linux microcontroller and Arduino as our focus. Students will have pay a fee for their personal lab kit which includes some shared parts for team-based labs. The chosen textbook is required for the course and critical to completing the Lab assignments. &lt;br&gt;We will begin with an introduction to linux and software engineering. This includes C++, python, and Subversion (for collaboration).  We will then shift to electronics design, implementation, and testing. We will cover both analog and digital electronics with a focus on interfacing to sensors and actuators. Students will be designing and building PCB boards using Altium to integrate the electronics being developed.  Students will choose a final mechatronics team project to be presented at the end of the semester. This project should involve manufacturing mechanical elements and interfacing them with the microcontrollers to demonstrate their mastery of the subject. Students will be spending a good deal of time in the Electronics Lab in V207 and Machine Shop building projects. This means that each student should have gone through safety training in the labs as a prerequisite. If you are an exchange student, contact the Teaching Assistants about setting up a safety training session so you can use the facilities. &lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Textbook/ Lesefni:&lt;/strong&gt; &lt;em&gt;Exploring Raspberry Pi: Interfacing to the Real World with Embedded Linux&lt;/em&gt; by Derek Molloy, published by John Wiley and Sons in 2016.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;At the end of the class, students should have good knowledge of:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Data encoding formats and binary arithmetic&lt;/li&gt;&lt;li&gt;Different electrical, mechanical, and software components&lt;/li&gt;&lt;li&gt;Commonly used sensors and actuators in smart devices&lt;/li&gt;&lt;li&gt;Concepts of modularity, independence, information, and robustnes&lt;br&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;At the end of the class, students should know how to:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Operate oscilloscopes, multimeters, soldering irons, and benchtop power-supplies&lt;/li&gt;&lt;li&gt;Create schematics, layout PCB boards, and solder components to build working devices&lt;/li&gt;&lt;li&gt;Program a microcontroller to read sensors and control actuators.  For example: An Arduino with C++ or a BeagleBone with python&lt;/li&gt;&lt;li&gt;Apply the Axiomatic Design methodology to design modular robust systems.&lt;/li&gt;&lt;li&gt;Understand digital and analog communication interfaces such as wireless networking, ethernet, and Internet of Things&lt;/li&gt;&lt;li&gt;Understand actuator and electronics specification sheets&lt;/li&gt;&lt;li&gt;Measure the accuracy, repeatibility, and resolution of a sensor&lt;/li&gt;&lt;li&gt;Record communication and data into a research notebook properly for international-quality research&lt;/li&gt;&lt;li&gt;Write lab reports and conference papers using LaTeX and Overleaf&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;At the end of the class, students will be able to:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Develop an application using a linux single-board-computer&lt;/li&gt;&lt;li&gt;Design, build, and test advanced circuits with active elements&lt;/li&gt;&lt;li&gt;Choose the best components for a design&lt;/li&gt;&lt;li&gt;Improve upon existing mechatronic devices&lt;/li&gt;&lt;li&gt;Build actuator or control systems with feedback&lt;/li&gt;&lt;li&gt;Debug electronic, software, and mechanical issues efficiently&lt;/li&gt;&lt;li&gt;Write a conference-quality paper for a final report of a project&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;There is no final exam.    Assignments will consist of a mixture of group lab assignments and individual competency tests.  Students must be able to effectively communicate their ideas through written and oral methods.  Students will each have a design notebook which must be used on a regular basis on topics relating to the class, team efforts, and analysis.  The notebook will graded periodically.   &lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;Students are required to keep at least a 67% attendance grade in order to complete the course.  Students are also expected to assist in cleanup of the mechatronics lab at the end of the course in order to receive a grade. &lt;br&gt; &lt;br&gt;Proper citation is a requirement in this class, without exemptions.  All material from an outside source (ideas, text, pictures) must include a proper citation.  IEEE is the preferred format.  Failure to include citations will result in a 0 for the assignment and considered plagarism which will be reported to the academic office.  Improperly cited material will be assessed a lesser penalty depending upon the assignment.  You are explicitly given permission to use the RU logo on your reports and presentations without citation because you are enrolled at our university. &lt;br&gt; &lt;br&gt;Late work will be penalized according to the degree of lateness: 10%  per day that work is late to a maximum of 5 points (for 5+ days late).  Assigments may only be submitted up to one week late.  Software with code that was checked in to SVN at the due date/time can be checked off at the next session at full credit.  If any changes are made after that time, the late work penalty will be applied.  For LaTeX documents and presentations, the  CANVAS submission time will be used to assess lateness.  Always check the assignment for the appropriate submission procedure. &lt;br&gt; &lt;br&gt;Whenever possible, the evaluation sheet for a given assignment will be provided before the start of the assignment.  Reports and papers may be resubmitted up to a week after they are returned for regrading.  These grades will be averaged for the new grade(40%/60%). &lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Communication and rigor are critical to proper mechatronic design.  Students will be shown how to use a research notebook and expected to keep it up to date as part of their grade.    Proper citation of included internet and written material must be performed.  Each subject will consist of lectures and related labs or projects.  Significant student participation and interaction in lecture discussions is expected.   &lt;br&gt; &lt;br&gt;Many assignments are to be done in teams.  Collaboration on individual assignments is expected, but each student must do their own writeup (no copying).  Document assignments will use LaTeX templates that will be provided. &lt;br&gt; &lt;br&gt;Students are expected to make use of the Machine shop and Electronics lab, taking appropriate International safety precautions where applicable.  The instructor will give guidelines on these procedures and assist in execution.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Merki og kerfi</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Level of course:                   &lt;/strong&gt;2. First cycle, advanced.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Mandatory course for 2nd year biomedical engineering and 3rd year  mechatronics engineering, electric power engineering.&lt;br&gt;&lt;strong&gt;Mandatory prerequisites:  &lt;/strong&gt;Analog Circuit Analysis (T-306-RAS1), Mathematics III (T-301-MATH), Fundamental knowledge of programming (Matlab and/or Python).&lt;/p&gt;&lt;p&gt;Continuous-time and discrete-time signals. Unit impulse and unit step signal. Continuous-time and discrete-time systems. Causality, stability, linearity, time invariance and systems with memory. Linear time invariant systems. Unit impulse and unit step response. Convolution. Fourier series. Continuous Fourier transform. Discrete-Time Fourier transform. Convolution property of the Fourier transform. Sampling. Laplace Transform. Z-transform. Amplitude and phase response. Filters.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material:  &lt;/strong&gt;Lathi, &lt;em&gt;Linear Systems and Signals&lt;/em&gt;, Oxford University Press, Int. 2nd edition, 2010.  Hsu, &lt;em&gt;Signals and Systems&lt;/em&gt;, Schaum´s Outline Series, McGraw-Hill, 1995. Oppenheim, Willsky og Nawab, &lt;em&gt;Signals and Systems, &lt;/em&gt;Pearson, 2014.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;After the course the students should be able to &lt;em&gt;recall&lt;/em&gt;, &lt;em&gt;describe&lt;/em&gt; and &lt;em&gt;define&lt;/em&gt; the following terms:&lt;/p&gt;&lt;p&gt;Continuous-time and discrete-time signals. Unit impulse and unit step signal. Continuous-time and discrete-time systems. Causality, stability, linearity, time invariance and systems with memory. Linear time invariant systems. Unit impulse and unit step response. Convolution. Fourier series. Fourier transform. Sampling. Laplace Transform. Z-transform. Filters.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;After the course the students should be able to &lt;em&gt;apply&lt;/em&gt; and &lt;em&gt;implement&lt;/em&gt; signal processing methods to real world engineering problems using standard software packages such as Matlab.&lt;/p&gt;&lt;p&gt;After the course the students should be able to &lt;em&gt;interpret&lt;/em&gt; physical systems signal processing.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>4 fyrirlestrar og 2 dæmatímar á viku í 12 vikur .  2 verklegir tímar 5-6 sinnum yfir misserið.</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Announced later.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Taught for 12 weeks. Lectures and problem solving sessions.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið. &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fjármálaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Fjármálaverkfræði – inngangur (T-101-INNF), Stærðfræði I &amp; II (T-101-STA1 og T-201- STA2), Línuleg algebra (T-211-LINA).  Aðrir ráðlagðir undanfarar: Góð kunnátta í excel, Matlab og/eða Python.&lt;/p&gt;&lt;p&gt;Viðfangsefni námskeiðsins er verðmat fjárfestinga og ákvarðanafræði og gera nemendur færa um að skilja og beita helstu hugtökum á þessum sviðum.&lt;br&gt;Efnistök námskeiðsins eru: greiðsluflæði, tímagildi peninga, vaxta- og ávöxtunarútreikningar, meðallíftími, vaxtaferlar, framvirkir vextir, samval verðbréfa, framfall eignasafna, CAPM og árangursmat.  Einnig verða vaxtaskiptasamningar kynntir og álagspróf.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;strong&gt;Lesefni:    &lt;/strong&gt;David Luenberger, &lt;em&gt;Investment Science.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Að námskeiðinu loknu hafi nemandi undirstöðuskilning á helstu tegundum verðbréfa og helstu aðferðum sem beita má við verð- og áhættumat þeirra. Þá hafi nemandi góðan skilning á aðferðum til þess að bera saman mismunandi fjárfestingarkosti og geti beitt til þess bestunaraðferðum. Loks hafi nemandi góðan skilning á samspili ávöxtunar og áhættu í verðbréfasöfnum og geti beitt stærðfræðilegum aðferðum til þess að skilgreina eignasafn með tilteknum jaðarskilyrðum.  Ofangreint meginmarkmið má brjóta niður í eftirfarandi undirviðmið:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Skilja fræðilega undirstöðu og aðferðafræði við verðmat á helstu verðbréfum (þó ekki afleiðum) og fjárfestingarkostum.&lt;/li&gt;&lt;li&gt;Velja besta fjárfestingarkost með beitingu heiltölubestunar.&lt;/li&gt;&lt;li&gt;Skilja hugtök um ávöxtunarkröfu, vaxtarferla, framvirka vexti og samspil þessara þátta.&lt;/li&gt;&lt;li&gt;Skilja hugtök um meðaltíma greiðsluflæðis.&lt;/li&gt;&lt;li&gt;Þekkja og beita líkani Markowitz við skilgreiningu verðbréfasafna.&lt;/li&gt;&lt;li&gt;Kunna skil á aðferð Lagrange til þess að finna verðbréfasafn með tilteknum jaðarskilyrðum.&lt;/li&gt;&lt;li&gt;Kunna skil á samspili ávöxtunarkröfu og áhættu og geta teiknað og útskýrt framfallið sem bestu niðurstöðu.&lt;/li&gt;&lt;li&gt;Þekkja og beita CAPM líkaninu við verðmat fjárfestingarkosta.&lt;/li&gt;&lt;li&gt;Hafa grunnþekkingu á helstu tegundum afleiða.&lt;/li&gt;&lt;li&gt;Þekkja aðferðafræði við álagsprófanir í fjármálafyrirtækjum.&lt;/li&gt;&lt;li&gt;Framkvæma umfangsmikið verkefni þar sem ofangreindum atriðum er beitt við lausn hagnýtra viðfangsefna.  &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>T-603-AKVA</t>
-  </si>
-  <si>
-    <t>T-867-STAB</t>
-  </si>
-  <si>
-    <t>T-866-MODE</t>
-  </si>
-  <si>
-    <t>Raforkukerfi og reiknilíkön</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;b&gt;&lt;span style="font-size: 7.5pt; font-family: Verdana, sans-serif;"&gt;General course objectives:&lt;/span&gt;&lt;/b&gt;&lt;br /&gt;_x000D_
-&lt;span style="font-size: 7.5pt; line-height: 107%; font-family: Verdana, sans-serif;"&gt;To obtain knowledge about how various power system components may be appropriately modelled such they may be used for analysis of large-scale systems. This includes static models of transmission lines, transformers and loads, and dynamic models of the synchronous machine.&amp;nbsp; Furthermore, focus is on applying techniques to analyze power system in steady state and in dynamic state. Students have to write Matlab code to carry out load flow analysis and time domain simulations of large power systems.&amp;nbsp; &amp;nbsp;&lt;br /&gt;_x000D_
-&lt;br /&gt;_x000D_
-&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;span style="font-family: Verdana, sans-serif; font-size: 7.5pt;"&gt;A student who has met the objectives of the course will be able to:&lt;/span&gt;&lt;/p&gt;_x000D_
-&lt;ul type="disc"&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Apply&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; models of electrical transmission lines      and components to &lt;b&gt;analyze&lt;/b&gt; their      transmission characteristics and to study large complex power grids&lt;/span&gt;&lt;/li&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Apply&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the mathematical model of the synchronous      machine to &lt;b&gt;analyze&lt;/b&gt; it under      stationary and transient conditions&lt;/span&gt;&lt;/li&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Describe&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the structure of a program that carriers      out static analysis of complex electric power systems&lt;/span&gt;&lt;/li&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Describe&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the steps involved and information needed      to study the dynamic response in complex electric power systems&lt;/span&gt;&lt;/li&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Analyze&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; given power system conditions by applying      load flow and time domain simulations.&amp;nbsp;&lt;/span&gt;&lt;/li&gt;_x000D_
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;span style="font-family: Arial, Helvetica, sans-serif;"&gt;Lectures and practical sessions.&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>T-706-INT2</t>
-  </si>
-  <si>
-    <t>T-706-INT1</t>
-  </si>
-  <si>
-    <t>Starfsnám í verkfræði I</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Valnámskeið í öllum námsbrautum. Nemandi sem stundar starfsnám getur í mesta lagi&amp;nbsp; verið skráður í 30 ECTS á viðkomandi önn. Námskeiðið er ekki opið skiptinemum.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Tvö námsár í verkfræði. Þátttakendur eru valdir úr hópi umsækjenda, m.a. er tekið tillit til&amp;nbsp;námsframvindu og einkunna.&lt;/p&gt;&lt;p&gt;Starfsnám I er valnámskeið á lokaári BSc náms eða fyrra ári MSc náms og er skilyrðislaus undanfari fyrir Starfsnám II. Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Miða skal við að vinnuframlag nemanda sé að lágmarki 120 vinnustundir. Þessu til viðbótar kemur undirbúningur, vinna við gerð lokaskýrslu og kynningu hennar.&lt;/p&gt;&lt;p&gt;Starfsnám I er valnámskeið á lokaári BSc náms eða fyrra ári MSc náms og er skilyrðislaus undanfari fyrir Starfsnám II. Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Miða skal við að vinnuframlag nemanda sé að lágmarki 120 vinnustundir. Þessu til viðbótar kemur undirbúningur, vinna við gerð lokaskýrslu og kynningu hennar. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Nemendur á lokaári BSc náms geta tekið Starfsnám II í beinu framhaldi af Starfsnámi I á 12-vikna meginkennslutímabili annarinnar, eða tekið einungis Starfsnám I. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Nemendum á fyrra ári MSc náms býðst ekki að taka einungis Starfsnám I. Ef þeir velja starfsnám þá er það samtals 12 ECTS, þ.e. í beinu framhaldi af Starfsnámi I kemur Starfsnám II, sem má taka hvort heldur á 12-vikna eða á 3vikna kennslutímabilinu. Ef nemandi tekur bæði Starfsnám I og II á 12-vikna kennslutímabilinu, þá dreifast samanlagðar vinnustundir beggja námskeiða á allt að 12 vikur. Starfsnámið ber að skipuleggja þannig að vinnutíminn skarist ekki við kennslustundir í öðrum námskeiðum. Sjá nánar Leiðbeiningar um starfsnám í verkfræði. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Verkefnið skal vera skilgreint og afmarkað í samráði við umsjónarmann hjá fyrirtæki/stofnun og umsjónarkennara hjá HR. Að öllu jöfnu er um að ræða hagnýtt verkefni sem byggir á námsefni undangenginna anna og rúmast á 120 vinnustundum. Við upphaf starfsnáms skal liggja fyrir lýsing á verkefninu sem umsjónaraðilar hafa samþykkt. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;Áhersla er lögð á skipuleg, sjálfstæð og tæknileg vinnubrögð. Nemandinn skal í upphafi skilgreina verkefnið, þ.e. hvert sé markmið og afrakstur. Meðan á verkefninu stendur skal nemandinn halda dagbók þannig að hægt sé að&amp;nbsp;fylgjast með framvindu verkefnisins. Í lok námstíma skal nemandinn skrifa skýrslu um verkefnið sem er kynnt og varin munnlega.&amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;&lt;u&gt;Heimilt, í samráði við umsjónarkennara, að ákveða að nemandi í BSc námi vinni í Starfsnámi I að mörgum smærri verkefnum hjá fyrirtæki/stofnun í stað þess að vinna að einu afmörkuðu verkefni allan tímann, með það að meginmarkmiði að nemandinn kynnist fjölbreyttri starfsemi viðkomandi vinnustaðar. Þetta er ekki heimilt ef um er að ræða nemanda í MSc námi. Fyrir nemendur í MSc námi er starfsnám einungis í boði sem 12 ECTS, þ.e. nemandinn tekur bæði Starfsnám I og Starfsnám II.&lt;/u&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Samkvæmt ábendingum umsjónarmanns.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Lærdómsviðmið eiga að endurspegla það sem nemandinn lærir og þá reynslu sem hann hlýtur meðan á starfsnámi stendur&lt;strong&gt;.&lt;/strong&gt;&lt;strong&gt; Áherslur, sértæk lærdómsviðmið og &lt;/strong&gt;&lt;strong&gt;kröfur um afrakstur&lt;/strong&gt; verða skilgreind af umsjónaraðilum HR og viðkomandi fyrirtækis hverju sinni fyrir hvert einstakt verkefni, með eftirfarandi markmið í huga.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;að efla tengsl nemenda tækni- og verkfræðideildar HR við atvinnulífið.&lt;/li&gt;&lt;li&gt;að auka innsýn og skilning nemenda á viðfangsefnum þess fagsviðs sem þau stunda nám á.&lt;/li&gt;&lt;li&gt;að auka skilning nemenda á verkferlum og skipulagningu verkefna hjá viðkomandi fyrirtæki/stofnun.&lt;/li&gt;&lt;li&gt;að nemendur geti skipulagt og útfært faglega vinnu út frá fyrirfram gefnum forsendum og kröfum.&lt;/li&gt;&lt;li&gt;að styrkja samskiptahæfni nemenda (innri og ytri samskipti í fyrirtæki)&lt;/li&gt;&lt;li&gt;að nemendur hljóti reynslu af því að vinna að úrlausn raunhæfra viðfangsefna á vettvangi, undir leiðsögn leiðbeinenda úr atvinnulífinu.&lt;/li&gt;&lt;li&gt;að undirbúa nemendur undir starf eftir námslok.&lt;/li&gt;&lt;li&gt;að opna nemendum leið inn á vinnumarkað.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Kennt í allt að 12 vikur skv. sérstakri stundaskrá.</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einkunn Staðið/Fall. Lagt verður mat á frammistöðu nemanda á vinnustaðnum ásamt dagbók, lokaskýrsla og kynningu á verkefninu. Við matið skal taka mið af því hvort nemandi hafi sýnt fram á getu til uppfylla lærdómsviðmiðin sem umsjónaraðilar skilgreina í upphafi námskeiðs.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kennt í allt að 12 vikur skv. sérstakri stundaskrá.&amp;nbsp;Nemandi vinnur að afmörkuðu verkefni undir leiðsögn umsjónarmanns hjá fyrirtæki/stofnun og eftirliti umsjónarkennara hjá HR. Nemandinn skal í upphafi skilgreina verkefnið, þ.e. hvert sé markmið og lokaafurð. Vinnutími nemanda við verkefnið skal að lágmarki vera 120 klst, því til viðbótar kemur undirbúningur, svo og vinna við gerð lokaskýrslu og kynningu verkefnisins.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>T-401-LISY</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa þekkingu á:&lt;/p&gt;&lt;ul&gt;&lt;li&gt; grunnatriðum verkfræðinnar er lúta að varmafræði&lt;/li&gt;&lt;li&gt; orku- og massavarðveislu í verkfræðilegum kerfum&lt;/li&gt;&lt;li&gt;orkuferlum við nýtingu helstu orkugjafa&lt;/li&gt;&lt;li&gt;eðli og leiðum til varmaflutnings um efni&lt;/li&gt;&lt;li&gt;hagnýtri forritun við úrlausn á verkfræðilegum verkefnum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa færni í að:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;leysa einföld verkfræðileg verkefni m.t.t. massa- og orkujafnvægis og varmaflutnings&lt;/li&gt;&lt;li&gt;setja upp og leysa útreikninga á grunnatriðum orkuframleiðslu m.a. með hagnýtri forritun&lt;/li&gt;&lt;li&gt;setja fram niðurstöður á útreikningum á skilvirkan hátt&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Í lok þessa námskeiðs hafa nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;öðlast hæfni til að beita verkfræðilegum aðferðum við úrlausn á einföldum orkutengdum verkefnum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar og dæmatímar.  Aukatímar í hagnýtri forritun verða í boði.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Í námskeiðinu er fjallað um líffærafræði heila og mænu frá sameindum til grundvallar byggingareininga.  Farið er ýtarlega í þrjú megin efni heilavirkni: þroska og mótanleika heilans og viðhald tauga og taugabrauta, nám og minni,  og hegðun.  Að auki verður farið yfir grundvallarþekkingu fyrir raflífeðlisfræði, líkanagerð heilans og fyrir úttauga- og miðtaugakerfis raförvun. Í seinni hluta námskeiðsins er áhersla á taugaraflífeðlisfræði:  uppruna rafmerkja og lífeðlisfræði ertanlegra frumna; aðferðir við upptöku rafmerkja frá frumuhimnum, innan- og utan frumu og heilarit. &lt;/p&gt;&lt;p&gt;Í kennslunni er gert ráð fyrir að nemandinn þekki undirstöðuatriði sameindalíffræði, frumulíffræði, lífeðlisfræði og rafmagnsfræði.&lt;/p&gt;???????</t>
+  </si>
+  <si>
+    <t>Taught for 12 weeks.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Verkefnastjórnun sem fræðigrein er um hálfrar aldar gömul, en hefur þróast frá því að vera eingöngu ætluð verkfræðingum og vísindamönnum. Í dag er verkefnastjórnun nýtt í hinum ýmsu geirum atvinnulífsins, ef ekki allflestum.   Verkefnastjórnun nýtir þekkingu ýmissa fræðigreina s.s. markaðsfræði, starfsmannastjórnunar, gæðastjórnununar, kerfisstjórnununar, áhættustjórnunar, ákvarðanafræði, fjármál, breytingastjórnunar og upplýsingatækni. Líta má á hvert verkefni sem suðupott þar sem öll ofangreind svið blandast saman, en saman krefjast þau áætlunargerðar, úthlutunar verka, eftirfylgni og loks niðurlags verkefnis. En þetta er einmitt inntak námskeiðsins og það sem við munum fjalla um.&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Í lok námskeiðs skulu nemendur&lt;/p&gt;&lt;ul&gt;&lt;li&gt;þekkja og skilja hvað verkefnastjórnun er&lt;/li&gt;&lt;li&gt;þekkja og skilja þroskaferil og eðli verkefnastjórnunar&lt;/li&gt;&lt;li&gt;öðlast færni í verkefnastjórnun, og getað tekið að sér hlutverk verkefnastjóra&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>The Nordplus network CIRECO , is a network of universities aiming to deliver a real-life related_x000D_
+intensive course to lead us to circular economy. The network includes universities from Estonia,_x000D_
+Finland, Iceland, Latvia, and Lithuania (see https://cireco.webs.com/ )._x000D_
+Students from different countries will work together in mixed groups, giving them the opportunity to_x000D_
+learn from each other. The collaboration will create a greater understanding and appreciation of the_x000D_
+culture and circumstances in the other participating countries, as well as giving students confidence_x000D_
+in communicating and interacting with fellow students and teachers from other countries.</t>
+  </si>
+  <si>
+    <t>The course can be considered as the first step towards the understanding of Circular Economy. It_x000D_
+evolves around a one-week intensive group effort dealing with challenging project developing_x000D_
+methods to implement circular economy solutions. The course work is supported by lectures and_x000D_
+visits to businesses to learn about their activities. Before attending the study week, a pre-project is_x000D_
+defined and the students prepare a presentation on the specified topic, to be presented at the start_x000D_
+of the learning week. During the study week, students are divided into multidisciplinary international_x000D_
+groups to work on a predefined project. The academic week ends, with each group presenting their_x000D_
+work and outcomes. After the academic week ends, students are to submit a technical report along_x000D_
+with a journal to give an overview of the student´s participation and experience.</t>
+  </si>
+  <si>
+    <t>Students and teachers from Iceland, Finland, Latvia, Estonia, and Lithuania will increase their_x000D_
+knowledge and skills within the field of sustainability, by investigating the potential of circular_x000D_
+economy within the participating countries. This will be achieved by working on practical projects_x000D_
+defined in collaboration with companies working within the focus areas of the course in the_x000D_
+respective countries.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Stefnt er að því að nemendur:&amp;nbsp;&lt;br&gt;• læri að tileinka sér sjálfstæð og markviss vinnubrögð við úrlausn raunhæfra hönnunarverkefna og/eða rannsóknarverkefna á fagsviðinu.&amp;nbsp;&lt;br&gt;• fái heildaryfirsýn yfir fagsviðið með samþættingu námsgreina þar sem þeir beita þekkingu úr mörgum námsgreinum.&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aðal markmið þessa námskeiðs er að 1) athuga notkun margskonar afleiðusamninga í fjármálum fyrirtækja, 2) greina mismunandi varnaraðgerðir sem beitt er af fyrirtækjum og fjármálastofnunum og 3) kynna líkön fyrir lánsáhættu og margvíslega notkun þeirra. Í námskeiðinu verður tekið fyrir hvernig fyrirtæki nota afleiðusamninga í auknu mæli til að meta verðmæti eigin fjár, fjármagnskostnað og fjárfestingartækifæri. Einnig verður rætt um skilgreiningu og hlutverk áhættu fjármagns við mat á áhættustöðu mismunandi fyrirtækja og stofnana. Leitast verður við að svara þeirri spurningu hvort og þá undir hvaða kringumstæðum áhættustýring hefur áhrif á verðmat fyrirtækja.   Í seinni hluta námskeiðsins verður mest rætt um notkun og verðlagningu lánaafleiðusamninga. Hér verða einnig kynntar til leiks tölfræðilegar aðferðir sem gera mögulegt að magnsetja  líkur á vanskilum.  &lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Að námskeiðinu loknu mun nemandinn hafa haldgóða og praktíska þekkingu á áhættustýringu eins hún er stunduð í dag bæði í fyrirtækjum og fjármálastofnunum. Nemendur munu skilja hvernig áhætta er einkennd, mangsett og síðan stýrt með mismunandi fjármálagjörningum. Þeir munu einnig öðlast skilning á því hvernig mögulegt er að meta virkni mismunandi aðferða sem notaðar eru við áhættustýringu. Þetta meginmarkmið má brjóta niður í eftirfarandi undirviðmið.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Skilja grundvallar hugtök sem snúa að greiningu, magnsetningu og stýringu áhættu&lt;/li&gt;&lt;li&gt;Hafa skilning á mismunandi aðferðum til að stýra áhættu, svo sem vörnum, fjölbreytni og tryggingum&lt;/li&gt;&lt;li&gt;Skilja kosti og galla við notkun mismunandi afleiðusamninga við verðlagningu og stýringu á áhættu&lt;/li&gt;&lt;li&gt;Geta verðlagt mismunandi varnarsamninga s.s. valréttarsamninga, framvirka samninga, skiptasamninga, kauprétti á framvirka samninga eða kauprétti á skiptasamninga&lt;/li&gt;&lt;li&gt;Geta notað afleiðusamninga til að greina og verðleggja mismunandi lána – og skulda samninga&lt;/li&gt;&lt;li&gt;Geta beitt tölfræðilegum aðferðum til að greina líkur á greiðslufalli og notkun þeirra til að meta lánshæfi fyrirtækja&lt;/li&gt;&lt;li&gt;Skilja líkön fyrir vaxtaferilinn, lánaáhættu og vaxtaskiptasamninga&lt;/li&gt;&lt;li&gt;Geta unnið með greiðslufallsskiptasamninga (credit default swaps), CDOs og aðra svipaða samninga&lt;/li&gt;&lt;/ul&gt;???????</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Flestir einstaklingar með verkfræðimenntun þurfa í dag að takast á við einhverskonar verkefni sem tengjast gerð rannsóknar-, þróunar- eða viðskiptaáætlana í starfi sínu og því mikilvægt að þeir sem lokið hafa meistaragráðu hafi þá þekkingu sem þarf til að vinna slíkar áætlanir. Markmið námskeiðsins er að nemendur hafi að loknu&amp;nbsp;námskeiðinu haldgóða þekkingu á þeirri aðferðafræði sem beitt er við&amp;nbsp;gerð rekstrar- og viðskiptaáætlana fyrir tæknilega flókin verkefni og ferli og aðferðafræði nýsköpunar hjá fyrirtækjum og stofnunum.Flestir einstaklingar með verkfræðimenntun þurfa í dag að takast á við einhverskonar verkefni sem tengjast gerð rannsóknar-, þróunar- eða viðskiptaáætlana í starfi sínu og því mikilvægt að þeir sem lokið hafa meistaragráðu hafi þá þekkingu sem þarf til að vinna slíkar áætlanir.&lt;/p&gt;&lt;p&gt;Markmið námskeiðsins er að nemendur hafi að loknu&amp;nbsp;námskeiðinu haldgóða þekkingu á þeirri aðferðafræði sem beitt er við&amp;nbsp;gerð rekstrar- og viðskiptaáætlana fyrir tæknilega flókin verkefni og ferli og aðferðafræði nýsköpunar hjá fyrirtækjum og stofnunum.Flestir einstaklingar með verkfræðimenntun þurfa í dag að takast á við einhverskonar verkefni sem tengjast gerð rannsóknar-, þróunar- eða viðskiptaáætlana í starfi sínu og því mikilvægt að þeir sem lokið hafa meistaragráðu hafi þá þekkingu sem þarf til að vinna slíkar áætlanir. Markmið námskeiðsins er að nemendur hafi að loknu&amp;nbsp;námskeiðinu haldgóða þekkingu á þeirri aðferðafræði sem beitt er við&amp;nbsp;gerð rekstrar- og viðskiptaáætlana fyrir tæknilega flókin verkefni og ferli og aðferðafræði nýsköpunar hjá fyrirtækjum og stofnunum.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Að nemendur hafi að loknu námskeiðinu haldgóða þekkingu á þeirri aðferðafræði og fræðilegum undirstöðum sem beitt er við gerð rekstrar- og viðskiptaáætlan og geti unnið&amp;nbsp;sjálfstætt fullmótaða viðskiptaáætlun með áherslu á tæknilega flóknar lausnir og kunni skil á eftirtöldum atriðum hvað það varðar:&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Nýsköpunarþáttinn; Kunni skil á Hugmyndaleit, hugmyndamati og –vali, tæknþróun og nýsköpun og hugmyndafræði um æviskeið afurða og fyrirtækja.&lt;/li&gt;&lt;li&gt;Markaðsþáttinn; Geti framkvæmt Markaðs- og samkeppnisgreiningu, sett upp sölu- og markaðsaðgerðir, skilgreint viðskiptavininn og eftirspurnarfallið.&lt;/li&gt;&lt;li&gt;Tæknilega útfærlsu lausna; Geti sett fram og skilgreint þróunarferil lausna og áætlanir þar um. &amp;nbsp;&lt;/li&gt;&lt;li&gt;Fjármálaþáttinn; Stofnfjárþarfaráæltun, fjármögnunaráætlun, rekstraráætlun, greiðsluáætlun og efnahagsreikning. Einnig; Kostnaðargreiningu og kostnaðareftirlit, framlegð, afkomu, andvirðismat og næmnigreiningu. Skilji þessi hugtök og geti unnið með aðferðir sem þeim tengjast. Geti reiknað helstu mælikvarða á arðsemi. Skilji hugtökin stofnfjár- og rekstrarfjárþörf. Geti sett upp fjármögnunaráætlanir.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Mannauðsþátt fyrirtækja; Stefnumótun, markmiðasetningu, stjórnun, hlutverk og starf stjórna, skipurit og starfsmannamál.&amp;nbsp;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Búi yfir þekkingu til að silgreina viðskiptatækifæri og setja upp texta og reiknilíkön til að meta viðskiptatækifæri út frá þörf, lausn, arðsemi og fýsileika fjárfestinga og kunni forðast mistök við leit og mat viðskiptatækifæra.&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Að nemendur kunni að beita helstu aðferðum til að greina viðskiptatækifæri með því að greina ástand og spá fyrir um með hvaða aðferðum lílegast sé að ná megi hámarksárangir við gerð viðskiptaáætlana. Einnig að nemendur geti lýst tillögum um verkferla og aðgerðir þannig að unnt sé að vinna eftir þeim.&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Að nemendur geti aðlagað fræðileg líkön að raunverulegum aðstæðum við gerð viðskiptaáætlana, gert líkön um lausnir, kynnt og rökstutt tillögur sínar og þekki leiðir til að skipuleggja og framkvæma tillögurnar og túlka niðurstöður&amp;nbsp;viðskiptaáætlana og&amp;nbsp;búi yfir hæfni til að geta stofnað og/eða staðið fyrir rekstri smærri fyrirtækja.&amp;nbsp;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs: &lt;/strong&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Valnámskeið.&lt;br&gt;&lt;strong&gt;Undanfarar:&lt;/strong&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;Stöðu- og burðarþolsfræði (T-106-BURD), Aflfræði (T-534-AFLF).&lt;/p&gt;&lt;p&gt;Námskeiðið fjallar um einingaaðferðina (FEM) og notkun hennar við lausn aflfræðilegra viðfangsefna.&amp;nbsp;Farið verður í fræðilegan bakgrunn aðferðarinnar þannig að nemendur öðlist skilning á grundvallaratriðum einingaraðferðarinnar. Áhersla er lögð á nemendur geri sér grein fyrir hugsanlegum skekkjuvöldum og hvernig megi auka nákvæmni aðferðarinna Lögð verður áhersla á hagnýta notkun aðferðarinnar. Markmiðið er að veita nemendum innsýn í möguleika og eiginleika einingaraðferðarinnar við greiningu á aflfræðilegum viðfangsefnum sem og þjálfun í notkun hugbúnaðar sem byggir á aðferðarfræðinni. Gerðar verða einfaldar greiningar í MATLAB auk þess verða stærri FEM forrit (SAP2000, ANSYS og/eða sambærilegt) notuð fyrir flóknari greiningar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Við lok námskeiðsins eiga nemendur að geta:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Notað einingaaðferðina (FEM) við lausn á aflfræðilegum viðfangsefnum&lt;/li&gt;&lt;li&gt;Notað aðferð sýndarvinnu til að setja fram kerfislíkingar og kerfisfylki fyrir helstu gerðir eininga&lt;/li&gt;&lt;li&gt;Skilgreint viðeigandi randskilyrði og leyst tilheyrandi jöfnuhneppi&lt;/li&gt;&lt;li&gt;Sett fram lausnaraðferð, byggða á smábútaaðferð, til greiningar á aflfræðilegum viðfangsefnum&lt;/li&gt;&lt;li&gt;Lagt mat á skekkjur og frávik í FEM greiningu&lt;/li&gt;&lt;li&gt;Byggt einingalíkön og unnið greiningar í algengum alhliða FEM hugbúnaði&lt;/li&gt;&lt;li&gt;Sett fram niðurstöður FEM greiningar á skíran og skilmerkilegan hátt.&amp;nbsp;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat er byggt á einstaklings skilaverkefni, hópskilaverkefni, lokaprófi.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur.&amp;nbsp;Fyrirlestrar og verkefnavinna.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course: &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;6. Second cycle, advanced.&lt;br&gt;&lt;strong&gt;&lt;strong&gt;Type of course: &amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;&lt;/strong&gt;Elective.&amp;nbsp; &lt;em&gt;Recommended elective for MSc Biomedical Engineering.&lt;/em&gt;&lt;br&gt;&lt;strong&gt;&lt;strong&gt;Prerequisites: &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;&lt;/strong&gt;Good knowledge of electronics, electromagnetic theory, cell and nerve physiology, information theory and signal processing.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The course begins with mathematical modelling of cell membrane voltage and it equivalent circuit. Then information processing in the nervous system is covered. Properties and design of passive and active electrodes will be presented and their applications in recording and stimulation explained. Next, the focus is on active implant design and external neural prosthesis’s, choice of materials and miniaturized electrical design with presentation of selected applications at the end of the course. Brain computer interface will be covered followed by EEG recording and analysis.&amp;nbsp; The student will learn about electrical current distribution in life tissue and its use in manipulating membrane potentials, quantitatively.&amp;nbsp; Location of epilepsy focus based on head surface recordings along with electrical stimulation in the brain. Students will work on one project (see below) chosen according to their interests.&amp;nbsp; They will present their work and deliver a report.&amp;nbsp; This material is a part of the course for all participating students.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Prerequisites for the course are a BS in engineering or equivalent, good knowledge in electronics, electromagnetic theory, cell and nerve physiology, information theory and signal processing.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;At the end of the course the student should...&lt;/p&gt;&lt;ul&gt;&lt;li&gt;.. know and be able to apply mathematical models of action potentials, their propagation and equivalent circuits.&amp;nbsp; Also to know experiments to measure the ion currents (Hodgkin and Huxley).&lt;/li&gt;&lt;li&gt;..know information processing in the neural system&lt;/li&gt;&lt;li&gt;..know electrodes for picking up bio signals from the human body and for electrically stimulating cells and their equivalent circuits&lt;/li&gt;&lt;li&gt;..have training in using the above models&lt;/li&gt;&lt;li&gt;..know the design of active implants&lt;/li&gt;&lt;li&gt;..know neural prosthesis’s, external and implanted&lt;/li&gt;&lt;li&gt;.. know brain-computer interfaces&lt;/li&gt;&lt;li&gt;..know uptake, conditioning and analysis of EEG signal&lt;/li&gt;&lt;li&gt;.. know methods to locate epilepsies focus&lt;/li&gt;&lt;li&gt;.. know methods of brain stimulation for treatment of tremor and epilepsy&lt;/li&gt;&lt;li&gt;.. know the cochlear implant and second sight implants&lt;/li&gt;&lt;li&gt;.. know transcutaneous spinal cord stimulation for treatment of spasticity and facilitation of walk by high level spinal cord injury&lt;/li&gt;&lt;li&gt;...know the technology and treatment of flaccid paralysis&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;To be announced.&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lectures, homeworks, discussions. Students will work on a project chosen according to their interests. Each students delivers a report, a power point presentation and gives a 40 minute lecture on his/her theme.&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 4. First cycle, advanced / 5./6. Second cycle, Introductory/Intermediate.&lt;br&gt;&lt;strong&gt;Type of course: &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/strong&gt;Elective.&lt;br&gt;&lt;strong&gt;Prerequisites (mandatory): &lt;/strong&gt;Introductory course in Fluid Mechanics (at the level of T-536-RENN).&lt;/p&gt;&lt;p&gt;This is a project-based course on wind power. Fundamentals of; the relevant boundary layer theory will be covered, fluid mechanics and aerodynamics of horizontal axis wind turbines, structural wind loadings of wind turbine blades. The student will design, implement and perform a wind tunnel experiment specifically designed to evaluate wake properties of a wind farm configuration; this includes developing and implementing a test facility, selecting and deploying appropriate sensors; in addition to analyze and processing data, and interpret results. &amp;nbsp;&lt;br&gt;&amp;nbsp;&lt;br&gt;In this course we will cover relevant fluid dynamics and design concepts for horizontal axis wind turbines. We will study wind farm configurations and relevant topics of the atmospheric boundary layer, and discuss field measurements and classification of wind regions. A part of the course will be devoted to experiments in a wind tunnel facility, with emphasis of getting better understanding of fluid flow and gaining experience in writing scientific reports.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;The following texts are on reserve at the RU library: Manwell, McGowan, Rogers, &lt;em&gt;Wind Energy Explained&lt;/em&gt;; Hansen, &lt;em&gt;Aerodnamics of Wind Turbines&lt;/em&gt;; Wyngaard, &lt;em&gt;Turbulence and the Atmosphere&lt;/em&gt;. Journal articles, manuals and catalogues will be posted online ot at the library reserve.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;At the end of the course, the students will have:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Knowledge of the fundamentals of the atmospheric boundary layer which relate to wind power.&lt;/li&gt;&lt;li&gt;Knowledge of the basics of horizontal axis wind turbines, efficiency, and energy extraction.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Skills in analyzing the aerodynamic performance of a given wind turbine, applying Blade Element Theory.&lt;/li&gt;&lt;li&gt;Skills to to design an experiment, applying appropriate engineering and measurment techniques to address the research goals.&lt;/li&gt;&lt;li&gt;Competence in assessing the power generation of a given wind turbine configuration.&lt;/li&gt;&lt;li&gt;Competence to analyze and present data or findings in reports and presentations, appropriate to describing the project for both scientific and general audience.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Final grade will be based on: Participation; Homework and small projects; Lab and design reports; Final exam.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught for 12 weeks. The class meets twice a week, discussions, presentations, lab work.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt; 3. Undergraduate (First cycle), advanced / 4.-5. Graduate (Second cycle), introductory-intermediate.&lt;br&gt;&lt;strong&gt;Type of course: &lt;/strong&gt;Core in MSc Mechanical Engineering, elective for other programmes.&lt;br&gt;&lt;strong&gt;Prerequisites (mandatory): &lt;/strong&gt;Mathematics III T-301-MATH; Thermodynamics T-507-VARM; Fluid Dynamics T-536-RENN, T-606-HEAT Heat Transfer (may be taken parallelly).&lt;/p&gt;&lt;p&gt;The main purpose of this course is to introduce the basic principles of computational fluid dynamics (CFD) for analyzing fluid flows and heat transfer. Hands on exercises are used to study the basic theory of CFD through programming and using existing commercial and open source CFD codes. Finite difference and finite volume techniques are emphasized.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material:&lt;/strong&gt; &lt;em&gt;Essential computational fluid dynamics&lt;/em&gt;, Zikanov Oleg, 2010.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Upon completion of the course students will have a good understanding of the basic theory of CFD, including discretization, accuracy and stability. They will be capable of writing a simple solver and using commercial and open source CFD codes.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mathematical modeling&lt;/li&gt;&lt;li&gt;Classification of basic equations of fluid dynamics&lt;/li&gt;&lt;li&gt;Discretization methods&lt;/li&gt;&lt;li&gt;Stability and accuracy analysis&lt;/li&gt;&lt;li&gt;Solution methods&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;ul&gt;&lt;li&gt;Practical use and programming of numerical methods in fluid dynamics&lt;/li&gt;&lt;li&gt;Setting up a given problem using commercial and open source CFD codes&lt;/li&gt;&lt;li&gt;Generating computation grids&lt;/li&gt;&lt;li&gt;Choosing appropriate boundary conditions for model problems&lt;/li&gt;&lt;li&gt;Interpreting the results critically&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;ul&gt;&lt;li&gt;Numerical solution of model problems in fluid dynamics and heat transfer&lt;/li&gt;&lt;li&gt;Checking and assessing basic numerical methods for fluid flow and heat transfer problems&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Assessment is based on: Programming assignments and homework, Programming project; Grid generation assignments; CFD code assignments ; CFD code projects ; Quiz.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Taught for 12 weeks. Lectures, tutorials, hands-on exercises, assignments and projects. The course is organized into two parts.&lt;br&gt;The first part (about 60 % of the total course time) is reserved for lectures of the basic methods of CFD. It includes a programming project using Matlab.&lt;br&gt;The remainder of the course includes hands-on exercises and projects with CFD commercial grid generator (ICEM-CFD), commercial CFD software (Fluent) and open source CFD code (SU2)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Symmetrical components, Modelling of transformers, lines and cables in the positive, negative and zero sequences based on physical models, The impact of different earthing principles, Methods for power system analysis in steady state operation and during grid faults, Faulty system operation, balanced and unbalanced faults, Symmetrical components and unbalanced fault analysis, Basic protective methods and principles, Load flow calculations in steady-state power system analysis, Model complex power system operation issues for economic and secure operation,&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;Load flow calculations in steady-state power system analysis, Model complex power system operation issues for economic and secure operation, Principles for regular power flow and optimal power flow methods,&amp;nbsp;Power system operation principles and basic functions in energy management system. Optimization techniques to solve fundamental operation problems, N -1 steady state contingency analysis, Transmission lines Transient operation, Insulation coordination, Power system state estimation and the incorporation with phasor measurement units; (Smart Grids). Practical assignments solved in the numerical simulation program Power World.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;&lt;em&gt;Knowledge:&lt;/em&gt;&lt;/strong&gt; &lt;em&gt;By the end of the course, the students will be able to;&lt;/em&gt;&lt;/p&gt;&lt;p&gt;• Explain and use the mathematical formulation and use of symmetrical components.&amp;nbsp;&lt;/p&gt;&lt;p&gt;• Model transformers, lines and cables in the positive, negative and zero sequences based on physical models&lt;/p&gt;&lt;p&gt;• Explain the impact of different earthing principles,&amp;nbsp;&lt;/p&gt;&lt;p&gt;• Explain the main principles for modelling and analysis of power systems subject to symmetrical and unsymmetrical faults,&amp;nbsp;&lt;/p&gt;&lt;p&gt;• Describe faulty system operation, balanced and unbalanced faults;&lt;/p&gt;&lt;p&gt;• Understand and explain basic protective methods;&lt;/p&gt;&lt;p&gt;• Use and explain principles for regular power flow and optimal power flow methods,&amp;nbsp;&lt;/p&gt;&lt;p&gt;• Describe power system operation principles and basic functions in energy management system.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Skills: &lt;/em&gt;&lt;/strong&gt;&lt;em&gt;By the end of the course, the students will be able to;&lt;/em&gt;&lt;/p&gt;&lt;p&gt;• Apply methods for power system analysis in steady state operation and during grid faults&lt;/p&gt;&lt;p&gt;• Apply symmetrical components for unbalanced fault analysis;&lt;/p&gt;&lt;p&gt;• Apply basic system protection principles;&lt;/p&gt;&lt;p&gt;• Perform load flow calculations and use them for steady-state power system analysis;&lt;/p&gt;&lt;p&gt;• Model complex power system operation issues for economic and secure operation;&lt;/p&gt;&lt;p&gt;• Apply optimization techniques to solve fundamental operation problems;&lt;/p&gt;&lt;p&gt;• Perform N-1 steady state contingency analysis;&lt;/p&gt;&lt;p&gt;• Perform basic transmission lines transient operation calculations&lt;/p&gt;&lt;p&gt;• Apply basic methods of Insulation coordination.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Competence: &lt;/em&gt;&lt;/strong&gt;By the end of the course the students will be able to;&lt;/p&gt;&lt;p&gt;• Describe, formulate, model and simulate in general power system operation main issues, including power flow calculations, unbalanced faults calculations, system protection and basic insulation coordination and simple transient calculation.&lt;/p&gt;&lt;p&gt;• Validate general power system operation issues, calculation and simulations outcome.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Written exam, project.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lectures and practical sessions.&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;To obtain knowledge about conditions in electric power systems that can lead to stability problems,  to understand which physical mechanisms are the cause of power system instability,  and to give the student insight in the theoretical background for analysis methods used for assessment of system stability. Hands-on experience will be obtained by carrying out numerical simulations and analysis in Matlab/Python, where students analyse different stability problems implementing and applying  appropriate models and methods for analysis. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;A student who has met the objectives of the course will be able to:  &lt;br&gt; &lt;br&gt;Knowledge:  &lt;br&gt;• Explain the principal causes of power system stability problems (frequency, transient rotor angle, smallsignal rotor angle and voltage stability problems);   &lt;br&gt;• Reflect on how the power system stability problems are affected by grid related limitation for the transfer of active power and the machine related limitation for the injection of active and reactive power;   &lt;br&gt; &lt;br&gt;Skills:   &lt;br&gt;• Apply the mathematical model of the synchronous machine to analyze it under stationary and transient conditions; &lt;br&gt;• Explain the key concepts for primary frequency control in power systems and reflect on how inertina, loads´ frequency dependency and regulation constant influence the system´s frequency response ; &lt;br&gt; &lt;br&gt;Competances:  &lt;br&gt;• Analyze rotor angle small-signal stability problems by applying small-signal analysis;  &lt;br&gt;• Analyze transient stability problems and describe means to protect the system against transient stability problem&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The students will work on four hand-in assignments throughout the semester. The hand-in reports form the basis for the evaluation of their performance during the semester.&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Lectures and practical sessions. &lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>The main goal of this course is to present the fundamentals of power systems protection and the philosophy of protecting developed electric power systems with smart-grids technologies. The course will include lectures, presentations and class discussions, in addition to individual selected projects on modern protection methods with related applications using selected software or programing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,22 +1941,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor theme="5" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1571,55 +1964,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1638,13 +1988,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA1D17C-0035-42EB-B7C7-C03A633A6D37}" name="Table1" displayName="Table1" ref="A1:L59" totalsRowShown="0">
-  <autoFilter ref="A1:L59" xr:uid="{71E19537-3BF6-48C1-AD92-F737D92D02D2}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA1D17C-0035-42EB-B7C7-C03A633A6D37}" name="Table1" displayName="Table1" ref="A1:M117" totalsRowShown="0">
+  <autoFilter ref="A1:M117" xr:uid="{71E19537-3BF6-48C1-AD92-F737D92D02D2}"/>
+  <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{506EE57C-22FE-4740-A8BF-0E7E7069198F}" name="CourseCode"/>
     <tableColumn id="3" xr3:uid="{F4634A52-1A16-4A1F-8869-44104DB0550F}" name="Name"/>
     <tableColumn id="5" xr3:uid="{918E7949-CC43-4153-86F5-7E12EE500D4D}" name="DepartmentName"/>
     <tableColumn id="6" xr3:uid="{98D397CE-D3F9-4FA3-96F0-2FB8FE3BFC49}" name="SemesterName"/>
+    <tableColumn id="1" xr3:uid="{C816B266-1F20-8E49-BB76-B4E2FFB9FFAF}" name="SemesterType"/>
     <tableColumn id="8" xr3:uid="{E012DFB0-B4BF-4B21-9E6A-0E6E3D89DC4E}" name="ECTS"/>
     <tableColumn id="11" xr3:uid="{BC93E450-83EC-439C-9575-856DDE971B68}" name="Description"/>
     <tableColumn id="12" xr3:uid="{51233093-8FF5-4803-9B14-B2E3974E2EEA}" name="Outcome"/>
@@ -1976,27 +2327,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="K55" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60:M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="7" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="112.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="4" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="8" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="112.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2010,31 +2361,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2047,32 +2401,35 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2085,32 +2442,35 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2123,32 +2483,35 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2161,32 +2524,35 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2199,32 +2565,35 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6">
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2237,32 +2606,35 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>56</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2275,32 +2647,32 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>62</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8">
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2313,32 +2685,35 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>68</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>69</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>70</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9">
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2351,32 +2726,35 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>76</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>77</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -2389,32 +2767,35 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>82</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>83</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>84</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>85</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2427,32 +2808,35 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
         <v>88</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>89</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>90</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>91</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>92</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>85</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -2465,32 +2849,35 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>96</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>85</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2503,32 +2890,35 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
+        <v>427</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>104</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>105</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>106</v>
       </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -2541,32 +2931,35 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
         <v>109</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>112</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>113</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>85</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -2579,32 +2972,35 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
+        <v>427</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
         <v>116</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>117</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>118</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>119</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>120</v>
       </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -2617,32 +3013,32 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
         <v>123</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>124</v>
       </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
       <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
         <v>125</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>126</v>
       </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -2655,32 +3051,35 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
+        <v>428</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>130</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>131</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>132</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>133</v>
       </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -2693,32 +3092,35 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
         <v>136</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>137</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>138</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>139</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>140</v>
       </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -2731,32 +3133,35 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
         <v>143</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>144</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>145</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>146</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>147</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>85</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -2769,32 +3174,35 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
         <v>150</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>151</v>
       </c>
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
       <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
         <v>152</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>153</v>
       </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -2807,32 +3215,35 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
         <v>156</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>157</v>
       </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
       <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
         <v>158</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>159</v>
       </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22">
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -2845,32 +3256,35 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
+        <v>428</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
         <v>162</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>163</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>164</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>165</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>166</v>
       </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -2883,32 +3297,35 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
         <v>169</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>170</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>171</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>172</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>126</v>
       </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -2921,32 +3338,35 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
         <v>175</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>176</v>
       </c>
-      <c r="H25" t="s">
-        <v>26</v>
-      </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J25" t="s">
         <v>177</v>
       </c>
       <c r="K25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
         <v>85</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -2959,32 +3379,32 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
         <v>180</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>181</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>90</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>182</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>183</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>184</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -2997,32 +3417,32 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
         <v>187</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>189</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>158</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>190</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -3035,32 +3455,35 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
+        <v>427</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
         <v>193</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>194</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>195</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>196</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>197</v>
       </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28">
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -3073,32 +3496,35 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
+        <v>427</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
         <v>200</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>201</v>
       </c>
-      <c r="H29" t="s">
-        <v>26</v>
-      </c>
       <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
         <v>202</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>203</v>
       </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -3111,32 +3537,32 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
         <v>206</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>207</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>97</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>208</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>209</v>
       </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -3149,32 +3575,32 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
         <v>212</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>214</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>215</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>216</v>
       </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>217</v>
       </c>
@@ -3187,32 +3613,32 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
         <v>219</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>220</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>221</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>222</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>223</v>
       </c>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>224</v>
       </c>
@@ -3225,32 +3651,32 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
         <v>226</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>227</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>228</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>229</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>230</v>
       </c>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33">
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -3263,32 +3689,32 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
         <v>233</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>234</v>
       </c>
-      <c r="H34" t="s">
-        <v>26</v>
-      </c>
       <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
         <v>235</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>236</v>
       </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34">
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -3301,32 +3727,32 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
         <v>239</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>234</v>
       </c>
-      <c r="H35" t="s">
-        <v>26</v>
-      </c>
       <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
         <v>240</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>241</v>
       </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -3339,32 +3765,32 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>8</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>244</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>245</v>
       </c>
-      <c r="H36" t="s">
-        <v>26</v>
-      </c>
       <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
         <v>246</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>247</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>85</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>248</v>
       </c>
@@ -3377,32 +3803,32 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
         <v>249</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>250</v>
       </c>
-      <c r="H37" t="s">
-        <v>26</v>
-      </c>
       <c r="I37" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
         <v>177</v>
       </c>
       <c r="K37" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" t="s">
         <v>85</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -3415,32 +3841,32 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
         <v>253</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>254</v>
       </c>
-      <c r="H38" t="s">
-        <v>26</v>
-      </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
         <v>255</v>
       </c>
       <c r="K38" t="s">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s">
         <v>85</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -3453,32 +3879,32 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
         <v>258</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>259</v>
       </c>
-      <c r="H39" t="s">
-        <v>26</v>
-      </c>
       <c r="I39" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
         <v>177</v>
       </c>
       <c r="K39" t="s">
+        <v>177</v>
+      </c>
+      <c r="L39" t="s">
         <v>85</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>260</v>
       </c>
@@ -3491,32 +3917,32 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>8</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>262</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="H40" t="s">
-        <v>26</v>
-      </c>
       <c r="I40" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s">
         <v>177</v>
       </c>
       <c r="K40" t="s">
+        <v>177</v>
+      </c>
+      <c r="L40" t="s">
         <v>85</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>264</v>
       </c>
@@ -3529,32 +3955,32 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>8</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>266</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>267</v>
       </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
       <c r="I41" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="J41" t="s">
         <v>255</v>
       </c>
       <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
         <v>85</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -3567,32 +3993,32 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>8</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>270</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>271</v>
       </c>
-      <c r="H42" t="s">
-        <v>26</v>
-      </c>
       <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
         <v>272</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>273</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>85</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>274</v>
       </c>
@@ -3605,32 +4031,32 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>8</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>276</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>277</v>
       </c>
-      <c r="H43" t="s">
-        <v>26</v>
-      </c>
       <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
         <v>278</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>279</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>85</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>280</v>
       </c>
@@ -3643,32 +4069,32 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>8</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>282</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>283</v>
       </c>
-      <c r="H44" t="s">
-        <v>26</v>
-      </c>
       <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
         <v>284</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>279</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>85</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>285</v>
       </c>
@@ -3681,32 +4107,32 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>8</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>287</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>288</v>
       </c>
-      <c r="H45" t="s">
-        <v>26</v>
-      </c>
       <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
         <v>289</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>177</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>85</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>290</v>
       </c>
@@ -3719,32 +4145,32 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>8</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>292</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>293</v>
       </c>
-      <c r="H46" t="s">
-        <v>26</v>
-      </c>
       <c r="I46" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J46" t="s">
         <v>177</v>
       </c>
       <c r="K46" t="s">
+        <v>177</v>
+      </c>
+      <c r="L46" t="s">
         <v>85</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -3757,32 +4183,32 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>177</v>
       </c>
       <c r="G47" t="s">
         <v>177</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="I47" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J47" t="s">
         <v>177</v>
       </c>
       <c r="K47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L47" t="s">
         <v>85</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -3795,32 +4221,32 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>8</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>298</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>299</v>
       </c>
-      <c r="H48" t="s">
-        <v>26</v>
-      </c>
       <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
         <v>300</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>301</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>85</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>302</v>
       </c>
@@ -3833,32 +4259,32 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>8</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>304</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>305</v>
       </c>
-      <c r="H49" t="s">
-        <v>26</v>
-      </c>
       <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
         <v>306</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>177</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>85</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>307</v>
       </c>
@@ -3871,32 +4297,32 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>8</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>309</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>310</v>
       </c>
-      <c r="H50" t="s">
-        <v>26</v>
-      </c>
       <c r="I50" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J50" t="s">
         <v>177</v>
       </c>
       <c r="K50" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" t="s">
         <v>85</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>311</v>
       </c>
@@ -3909,32 +4335,32 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>8</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>313</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>314</v>
       </c>
-      <c r="H51" t="s">
-        <v>26</v>
-      </c>
       <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
         <v>315</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>316</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>85</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>317</v>
       </c>
@@ -3947,32 +4373,32 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>8</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>319</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>320</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>321</v>
-      </c>
-      <c r="I52" t="s">
-        <v>177</v>
       </c>
       <c r="J52" t="s">
         <v>177</v>
       </c>
       <c r="K52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L52" t="s">
         <v>85</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>322</v>
       </c>
@@ -3985,32 +4411,32 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>325</v>
       </c>
-      <c r="H53" t="s">
-        <v>26</v>
-      </c>
       <c r="I53" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J53" t="s">
         <v>177</v>
       </c>
       <c r="K53" t="s">
+        <v>177</v>
+      </c>
+      <c r="L53" t="s">
         <v>85</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>326</v>
       </c>
@@ -4023,32 +4449,32 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>30</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>328</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>329</v>
       </c>
-      <c r="H54" t="s">
-        <v>26</v>
-      </c>
       <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
         <v>330</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>177</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>85</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>331</v>
       </c>
@@ -4061,32 +4487,32 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>30</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>332</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>333</v>
       </c>
-      <c r="H55" t="s">
-        <v>26</v>
-      </c>
       <c r="I55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
         <v>330</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>177</v>
       </c>
-      <c r="K55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55">
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>334</v>
       </c>
@@ -4099,32 +4525,32 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>30</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>336</v>
       </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
       <c r="H56" t="s">
         <v>26</v>
       </c>
       <c r="I56" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s">
         <v>337</v>
       </c>
-      <c r="J56" t="s">
-        <v>26</v>
-      </c>
       <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
         <v>85</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>338</v>
       </c>
@@ -4137,12 +4563,9 @@
       <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>60</v>
       </c>
-      <c r="F57" t="s">
-        <v>26</v>
-      </c>
       <c r="G57" t="s">
         <v>26</v>
       </c>
@@ -4156,13 +4579,16 @@
         <v>26</v>
       </c>
       <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
         <v>85</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -4175,12 +4601,9 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>60</v>
       </c>
-      <c r="F58" t="s">
-        <v>26</v>
-      </c>
       <c r="G58" t="s">
         <v>26</v>
       </c>
@@ -4194,13 +4617,16 @@
         <v>26</v>
       </c>
       <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
         <v>85</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>342</v>
       </c>
@@ -4213,12 +4639,9 @@
       <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>60</v>
       </c>
-      <c r="F59" t="s">
-        <v>26</v>
-      </c>
       <c r="G59" t="s">
         <v>26</v>
       </c>
@@ -4232,13 +4655,2221 @@
         <v>26</v>
       </c>
       <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
         <v>85</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>387</v>
+      </c>
+      <c r="B60" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>498</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s">
+        <v>391</v>
+      </c>
+      <c r="K60" t="s">
+        <v>392</v>
+      </c>
+      <c r="L60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>498</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>34</v>
+      </c>
+      <c r="K61" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>498</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>499</v>
+      </c>
+      <c r="H62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" t="s">
+        <v>42</v>
+      </c>
+      <c r="L62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63" t="s">
+        <v>359</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>498</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>360</v>
+      </c>
+      <c r="H63" t="s">
+        <v>361</v>
+      </c>
+      <c r="I63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J63" t="s">
+        <v>362</v>
+      </c>
+      <c r="K63" t="s">
+        <v>363</v>
+      </c>
+      <c r="L63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" t="s">
+        <v>464</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>498</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>500</v>
+      </c>
+      <c r="H64" t="s">
+        <v>501</v>
+      </c>
+      <c r="I64" t="s">
+        <v>502</v>
+      </c>
+      <c r="J64" t="s">
+        <v>503</v>
+      </c>
+      <c r="K64" t="s">
+        <v>504</v>
+      </c>
+      <c r="L64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" t="s">
+        <v>384</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>498</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>385</v>
+      </c>
+      <c r="H65" t="s">
+        <v>386</v>
+      </c>
+      <c r="I65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" t="s">
+        <v>158</v>
+      </c>
+      <c r="K65" t="s">
+        <v>159</v>
+      </c>
+      <c r="L65" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>498</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>347</v>
+      </c>
+      <c r="H66" t="s">
+        <v>348</v>
+      </c>
+      <c r="I66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s">
+        <v>349</v>
+      </c>
+      <c r="K66" t="s">
+        <v>350</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>498</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>353</v>
+      </c>
+      <c r="H67" t="s">
+        <v>354</v>
+      </c>
+      <c r="I67" t="s">
+        <v>355</v>
+      </c>
+      <c r="J67" t="s">
+        <v>356</v>
+      </c>
+      <c r="K67" t="s">
+        <v>357</v>
+      </c>
+      <c r="L67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>364</v>
+      </c>
+      <c r="B68" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>498</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>366</v>
+      </c>
+      <c r="H68" t="s">
+        <v>367</v>
+      </c>
+      <c r="I68" t="s">
+        <v>368</v>
+      </c>
+      <c r="J68" t="s">
+        <v>369</v>
+      </c>
+      <c r="K68" t="s">
+        <v>370</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>430</v>
+      </c>
+      <c r="B69" t="s">
+        <v>465</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>498</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>505</v>
+      </c>
+      <c r="H69" t="s">
+        <v>506</v>
+      </c>
+      <c r="I69" t="s">
+        <v>507</v>
+      </c>
+      <c r="J69" t="s">
+        <v>158</v>
+      </c>
+      <c r="K69" t="s">
+        <v>508</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" t="s">
+        <v>466</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>498</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>509</v>
+      </c>
+      <c r="H70" t="s">
+        <v>510</v>
+      </c>
+      <c r="I70" t="s">
+        <v>511</v>
+      </c>
+      <c r="J70" t="s">
+        <v>512</v>
+      </c>
+      <c r="K70" t="s">
+        <v>513</v>
+      </c>
+      <c r="L70" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71" t="s">
+        <v>467</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>498</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>514</v>
+      </c>
+      <c r="H71" t="s">
+        <v>515</v>
+      </c>
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s">
+        <v>112</v>
+      </c>
+      <c r="K71" t="s">
+        <v>516</v>
+      </c>
+      <c r="L71" t="s">
+        <v>184</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>433</v>
+      </c>
+      <c r="B72" t="s">
+        <v>468</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>498</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>517</v>
+      </c>
+      <c r="H72" t="s">
+        <v>518</v>
+      </c>
+      <c r="I72" t="s">
+        <v>519</v>
+      </c>
+      <c r="J72" t="s">
+        <v>520</v>
+      </c>
+      <c r="K72" t="s">
+        <v>223</v>
+      </c>
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>434</v>
+      </c>
+      <c r="B73" t="s">
+        <v>469</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>498</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>521</v>
+      </c>
+      <c r="H73" t="s">
+        <v>522</v>
+      </c>
+      <c r="I73" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s">
+        <v>158</v>
+      </c>
+      <c r="K73" t="s">
+        <v>523</v>
+      </c>
+      <c r="L73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>435</v>
+      </c>
+      <c r="B74" t="s">
+        <v>470</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>498</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>524</v>
+      </c>
+      <c r="H74" t="s">
+        <v>525</v>
+      </c>
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>158</v>
+      </c>
+      <c r="K74" t="s">
+        <v>526</v>
+      </c>
+      <c r="L74" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>377</v>
+      </c>
+      <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>498</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>379</v>
+      </c>
+      <c r="H75" t="s">
+        <v>380</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s">
+        <v>381</v>
+      </c>
+      <c r="K75" t="s">
+        <v>382</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>436</v>
+      </c>
+      <c r="B76" t="s">
+        <v>471</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>498</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
+        <v>527</v>
+      </c>
+      <c r="H76" t="s">
+        <v>528</v>
+      </c>
+      <c r="I76" t="s">
+        <v>529</v>
+      </c>
+      <c r="J76" t="s">
+        <v>530</v>
+      </c>
+      <c r="K76" t="s">
+        <v>531</v>
+      </c>
+      <c r="L76" t="s">
+        <v>85</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>437</v>
+      </c>
+      <c r="B77" t="s">
+        <v>472</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>498</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>532</v>
+      </c>
+      <c r="H77" t="s">
+        <v>533</v>
+      </c>
+      <c r="I77" t="s">
+        <v>534</v>
+      </c>
+      <c r="J77" t="s">
+        <v>535</v>
+      </c>
+      <c r="K77" t="s">
+        <v>536</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>371</v>
+      </c>
+      <c r="B78" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>498</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
+        <v>373</v>
+      </c>
+      <c r="H78" t="s">
+        <v>374</v>
+      </c>
+      <c r="I78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" t="s">
+        <v>375</v>
+      </c>
+      <c r="K78" t="s">
+        <v>376</v>
+      </c>
+      <c r="L78" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>438</v>
+      </c>
+      <c r="B79" t="s">
+        <v>473</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>498</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>537</v>
+      </c>
+      <c r="H79" t="s">
+        <v>538</v>
+      </c>
+      <c r="I79" t="s">
+        <v>539</v>
+      </c>
+      <c r="J79" t="s">
+        <v>540</v>
+      </c>
+      <c r="K79" t="s">
+        <v>541</v>
+      </c>
+      <c r="L79" t="s">
+        <v>85</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>399</v>
+      </c>
+      <c r="B80" t="s">
+        <v>400</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>498</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>401</v>
+      </c>
+      <c r="H80" t="s">
+        <v>402</v>
+      </c>
+      <c r="I80" t="s">
+        <v>403</v>
+      </c>
+      <c r="J80" t="s">
+        <v>404</v>
+      </c>
+      <c r="K80" t="s">
+        <v>405</v>
+      </c>
+      <c r="L80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>439</v>
+      </c>
+      <c r="B81" t="s">
+        <v>474</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>498</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
+        <v>542</v>
+      </c>
+      <c r="H81" t="s">
+        <v>543</v>
+      </c>
+      <c r="I81" t="s">
+        <v>544</v>
+      </c>
+      <c r="J81" t="s">
+        <v>158</v>
+      </c>
+      <c r="K81" t="s">
+        <v>545</v>
+      </c>
+      <c r="L81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>440</v>
+      </c>
+      <c r="B82" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>498</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>546</v>
+      </c>
+      <c r="H82" t="s">
+        <v>547</v>
+      </c>
+      <c r="I82" t="s">
+        <v>321</v>
+      </c>
+      <c r="J82" t="s">
+        <v>548</v>
+      </c>
+      <c r="K82" t="s">
+        <v>549</v>
+      </c>
+      <c r="L82" t="s">
+        <v>85</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83" t="s">
+        <v>476</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>498</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>550</v>
+      </c>
+      <c r="H83" t="s">
+        <v>551</v>
+      </c>
+      <c r="I83" t="s">
+        <v>321</v>
+      </c>
+      <c r="J83" t="s">
+        <v>177</v>
+      </c>
+      <c r="K83" t="s">
+        <v>177</v>
+      </c>
+      <c r="L83" t="s">
+        <v>85</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>393</v>
+      </c>
+      <c r="B84" t="s">
+        <v>394</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>498</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>395</v>
+      </c>
+      <c r="H84" t="s">
+        <v>396</v>
+      </c>
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" t="s">
+        <v>397</v>
+      </c>
+      <c r="K84" t="s">
+        <v>398</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" t="s">
+        <v>477</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>498</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85" t="s">
+        <v>552</v>
+      </c>
+      <c r="H85" t="s">
+        <v>553</v>
+      </c>
+      <c r="I85" t="s">
+        <v>554</v>
+      </c>
+      <c r="J85" t="s">
+        <v>555</v>
+      </c>
+      <c r="K85" t="s">
+        <v>556</v>
+      </c>
+      <c r="L85" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>443</v>
+      </c>
+      <c r="B86" t="s">
+        <v>478</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>498</v>
+      </c>
+      <c r="F86">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>557</v>
+      </c>
+      <c r="H86" t="s">
+        <v>558</v>
+      </c>
+      <c r="I86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" t="s">
+        <v>177</v>
+      </c>
+      <c r="K86" t="s">
+        <v>559</v>
+      </c>
+      <c r="L86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>498</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>560</v>
+      </c>
+      <c r="H87" t="s">
+        <v>227</v>
+      </c>
+      <c r="I87" t="s">
+        <v>228</v>
+      </c>
+      <c r="J87" t="s">
+        <v>561</v>
+      </c>
+      <c r="K87" t="s">
+        <v>230</v>
+      </c>
+      <c r="L87" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>498</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>233</v>
+      </c>
+      <c r="H88" t="s">
+        <v>234</v>
+      </c>
+      <c r="I88" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" t="s">
+        <v>235</v>
+      </c>
+      <c r="K88" t="s">
+        <v>236</v>
+      </c>
+      <c r="L88" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>498</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>239</v>
+      </c>
+      <c r="H89" t="s">
+        <v>234</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" t="s">
+        <v>240</v>
+      </c>
+      <c r="K89" t="s">
+        <v>241</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>444</v>
+      </c>
+      <c r="B90" t="s">
+        <v>479</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>498</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" t="s">
+        <v>26</v>
+      </c>
+      <c r="K90" t="s">
+        <v>26</v>
+      </c>
+      <c r="L90" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>445</v>
+      </c>
+      <c r="B91" t="s">
+        <v>480</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>498</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>562</v>
+      </c>
+      <c r="H91" t="s">
+        <v>563</v>
+      </c>
+      <c r="I91" t="s">
+        <v>564</v>
+      </c>
+      <c r="J91" t="s">
+        <v>565</v>
+      </c>
+      <c r="K91" t="s">
+        <v>566</v>
+      </c>
+      <c r="L91" t="s">
+        <v>21</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>446</v>
+      </c>
+      <c r="B92" t="s">
+        <v>481</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>498</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>567</v>
+      </c>
+      <c r="H92" t="s">
+        <v>568</v>
+      </c>
+      <c r="I92" t="s">
+        <v>569</v>
+      </c>
+      <c r="J92" t="s">
+        <v>570</v>
+      </c>
+      <c r="K92" t="s">
+        <v>571</v>
+      </c>
+      <c r="L92" t="s">
+        <v>21</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>447</v>
+      </c>
+      <c r="B93" t="s">
+        <v>482</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>498</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>572</v>
+      </c>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" t="s">
+        <v>573</v>
+      </c>
+      <c r="K93" t="s">
+        <v>574</v>
+      </c>
+      <c r="L93" t="s">
+        <v>85</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>448</v>
+      </c>
+      <c r="B94" t="s">
+        <v>483</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>498</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>575</v>
+      </c>
+      <c r="H94" t="s">
+        <v>576</v>
+      </c>
+      <c r="I94" t="s">
+        <v>321</v>
+      </c>
+      <c r="J94" t="s">
+        <v>112</v>
+      </c>
+      <c r="K94" t="s">
+        <v>577</v>
+      </c>
+      <c r="L94" t="s">
+        <v>85</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>449</v>
+      </c>
+      <c r="B95" t="s">
+        <v>484</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>498</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>578</v>
+      </c>
+      <c r="H95" t="s">
+        <v>177</v>
+      </c>
+      <c r="I95" t="s">
+        <v>579</v>
+      </c>
+      <c r="J95" t="s">
+        <v>177</v>
+      </c>
+      <c r="K95" t="s">
+        <v>177</v>
+      </c>
+      <c r="L95" t="s">
+        <v>85</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>450</v>
+      </c>
+      <c r="B96" t="s">
+        <v>485</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>498</v>
+      </c>
+      <c r="F96">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>580</v>
+      </c>
+      <c r="H96" t="s">
+        <v>581</v>
+      </c>
+      <c r="I96" t="s">
+        <v>321</v>
+      </c>
+      <c r="J96" t="s">
+        <v>177</v>
+      </c>
+      <c r="K96" t="s">
+        <v>177</v>
+      </c>
+      <c r="L96" t="s">
+        <v>85</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>451</v>
+      </c>
+      <c r="B97" t="s">
+        <v>486</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>498</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>582</v>
+      </c>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" t="s">
+        <v>583</v>
+      </c>
+      <c r="K97" t="s">
+        <v>584</v>
+      </c>
+      <c r="L97" t="s">
+        <v>85</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>498</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>249</v>
+      </c>
+      <c r="H98" t="s">
+        <v>585</v>
+      </c>
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" t="s">
+        <v>177</v>
+      </c>
+      <c r="K98" t="s">
+        <v>177</v>
+      </c>
+      <c r="L98" t="s">
+        <v>85</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>498</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>249</v>
+      </c>
+      <c r="H99" t="s">
+        <v>585</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s">
+        <v>177</v>
+      </c>
+      <c r="K99" t="s">
+        <v>177</v>
+      </c>
+      <c r="L99" t="s">
+        <v>85</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>452</v>
+      </c>
+      <c r="B100" t="s">
+        <v>487</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>498</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>586</v>
+      </c>
+      <c r="H100" t="s">
+        <v>587</v>
+      </c>
+      <c r="I100" t="s">
+        <v>321</v>
+      </c>
+      <c r="J100" t="s">
+        <v>177</v>
+      </c>
+      <c r="K100" t="s">
+        <v>177</v>
+      </c>
+      <c r="L100" t="s">
+        <v>85</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>453</v>
+      </c>
+      <c r="B101" t="s">
+        <v>488</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>498</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>588</v>
+      </c>
+      <c r="H101" t="s">
+        <v>589</v>
+      </c>
+      <c r="I101" t="s">
+        <v>321</v>
+      </c>
+      <c r="J101" t="s">
+        <v>177</v>
+      </c>
+      <c r="K101" t="s">
+        <v>177</v>
+      </c>
+      <c r="L101" t="s">
+        <v>85</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>454</v>
+      </c>
+      <c r="B102" t="s">
+        <v>489</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>498</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" t="s">
+        <v>26</v>
+      </c>
+      <c r="K102" t="s">
+        <v>26</v>
+      </c>
+      <c r="L102" t="s">
+        <v>85</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>455</v>
+      </c>
+      <c r="B103" t="s">
+        <v>490</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>498</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" t="s">
+        <v>26</v>
+      </c>
+      <c r="K103" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" t="s">
+        <v>85</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>456</v>
+      </c>
+      <c r="B104" t="s">
+        <v>491</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>498</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" t="s">
+        <v>26</v>
+      </c>
+      <c r="K104" t="s">
+        <v>26</v>
+      </c>
+      <c r="L104" t="s">
+        <v>85</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>457</v>
+      </c>
+      <c r="B105" t="s">
+        <v>492</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>498</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>590</v>
+      </c>
+      <c r="H105" t="s">
+        <v>591</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s">
+        <v>592</v>
+      </c>
+      <c r="K105" t="s">
+        <v>593</v>
+      </c>
+      <c r="L105" t="s">
+        <v>85</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>458</v>
+      </c>
+      <c r="B106" t="s">
+        <v>493</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>498</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>594</v>
+      </c>
+      <c r="H106" t="s">
+        <v>595</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" t="s">
+        <v>596</v>
+      </c>
+      <c r="K106" t="s">
+        <v>597</v>
+      </c>
+      <c r="L106" t="s">
+        <v>85</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>459</v>
+      </c>
+      <c r="B107" t="s">
+        <v>494</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>498</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>598</v>
+      </c>
+      <c r="H107" t="s">
+        <v>599</v>
+      </c>
+      <c r="I107" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" t="s">
+        <v>600</v>
+      </c>
+      <c r="K107" t="s">
+        <v>601</v>
+      </c>
+      <c r="L107" t="s">
+        <v>85</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>460</v>
+      </c>
+      <c r="B108" t="s">
+        <v>476</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>498</v>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>602</v>
+      </c>
+      <c r="H108" t="s">
+        <v>603</v>
+      </c>
+      <c r="I108" t="s">
+        <v>321</v>
+      </c>
+      <c r="J108" t="s">
+        <v>604</v>
+      </c>
+      <c r="K108" t="s">
+        <v>605</v>
+      </c>
+      <c r="L108" t="s">
+        <v>85</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>461</v>
+      </c>
+      <c r="B109" t="s">
+        <v>495</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>498</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>606</v>
+      </c>
+      <c r="H109" t="s">
+        <v>607</v>
+      </c>
+      <c r="I109" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" t="s">
+        <v>608</v>
+      </c>
+      <c r="K109" t="s">
+        <v>609</v>
+      </c>
+      <c r="L109" t="s">
+        <v>85</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>462</v>
+      </c>
+      <c r="B110" t="s">
+        <v>496</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>498</v>
+      </c>
+      <c r="F110">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>610</v>
+      </c>
+      <c r="H110" t="s">
+        <v>611</v>
+      </c>
+      <c r="I110" t="s">
+        <v>321</v>
+      </c>
+      <c r="J110" t="s">
+        <v>612</v>
+      </c>
+      <c r="K110" t="s">
+        <v>613</v>
+      </c>
+      <c r="L110" t="s">
+        <v>85</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>463</v>
+      </c>
+      <c r="B111" t="s">
+        <v>497</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>498</v>
+      </c>
+      <c r="F111">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>614</v>
+      </c>
+      <c r="H111" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" t="s">
+        <v>26</v>
+      </c>
+      <c r="L111" t="s">
+        <v>85</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>326</v>
+      </c>
+      <c r="B112" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>498</v>
+      </c>
+      <c r="F112">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>328</v>
+      </c>
+      <c r="H112" t="s">
+        <v>329</v>
+      </c>
+      <c r="I112" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" t="s">
+        <v>330</v>
+      </c>
+      <c r="K112" t="s">
+        <v>177</v>
+      </c>
+      <c r="L112" t="s">
+        <v>85</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>331</v>
+      </c>
+      <c r="B113" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>498</v>
+      </c>
+      <c r="F113">
+        <v>30</v>
+      </c>
+      <c r="G113" t="s">
+        <v>332</v>
+      </c>
+      <c r="H113" t="s">
+        <v>333</v>
+      </c>
+      <c r="I113" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" t="s">
+        <v>330</v>
+      </c>
+      <c r="K113" t="s">
+        <v>177</v>
+      </c>
+      <c r="L113" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>334</v>
+      </c>
+      <c r="B114" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>498</v>
+      </c>
+      <c r="F114">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
+        <v>336</v>
+      </c>
+      <c r="H114" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114" t="s">
+        <v>337</v>
+      </c>
+      <c r="K114" t="s">
+        <v>26</v>
+      </c>
+      <c r="L114" t="s">
+        <v>85</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>338</v>
+      </c>
+      <c r="B115" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>498</v>
+      </c>
+      <c r="F115">
+        <v>60</v>
+      </c>
+      <c r="G115" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" t="s">
+        <v>26</v>
+      </c>
+      <c r="K115" t="s">
+        <v>26</v>
+      </c>
+      <c r="L115" t="s">
+        <v>21</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>340</v>
+      </c>
+      <c r="B116" t="s">
+        <v>341</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>498</v>
+      </c>
+      <c r="F116">
+        <v>60</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" t="s">
+        <v>26</v>
+      </c>
+      <c r="L116" t="s">
+        <v>21</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>342</v>
+      </c>
+      <c r="B117" t="s">
+        <v>343</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s">
+        <v>498</v>
+      </c>
+      <c r="F117">
+        <v>60</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" t="s">
+        <v>26</v>
+      </c>
+      <c r="L117" t="s">
+        <v>21</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4248,10 +6879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB368C67-0469-40F7-B089-2478E9FFC0A5}">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K57" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68:F115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6814,1830 +9445,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="2">
-        <v>6</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="5">
-        <v>6</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="2">
-        <v>6</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="5">
-        <v>6</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="2">
-        <v>6</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="5">
-        <v>6</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="2">
-        <v>6</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5">
-        <v>6</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="2">
-        <v>1</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="2">
-        <v>6</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C77" s="5">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="5">
-        <v>6</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="2">
-        <v>6</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="5">
-        <v>6</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="2">
-        <v>6</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5">
-        <v>6</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="2">
-        <v>6</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5">
-        <v>6</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C84" s="2">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="2">
-        <v>6</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="5">
-        <v>6</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="2">
-        <v>6</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="5">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="5">
-        <v>6</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="2">
-        <v>6</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="5">
-        <v>6</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="2">
-        <v>6</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="5">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="5">
-        <v>6</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="2">
-        <v>6</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="5">
-        <v>1</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="5">
-        <v>6</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="2">
-        <v>6</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" s="5">
-        <v>1</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="5">
-        <v>6</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C96" s="2">
-        <v>1</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="2">
-        <v>6</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="5">
-        <v>1</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="5">
-        <v>6</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C98" s="2">
-        <v>1</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="2">
-        <v>6</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="5">
-        <v>1</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="5">
-        <v>6</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="2">
-        <v>1</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="2">
-        <v>6</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" s="5">
-        <v>1</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="5">
-        <v>6</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="2">
-        <v>6</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C103" s="5">
-        <v>1</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="5">
-        <v>6</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" s="2">
-        <v>1</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="2">
-        <v>6</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C105" s="5">
-        <v>1</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="5">
-        <v>6</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="2">
-        <v>1</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="2">
-        <v>6</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C107" s="5">
-        <v>0</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="5">
-        <v>6</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="2">
-        <v>6</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C109" s="5">
-        <v>1</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="5">
-        <v>6</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L109" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C110" s="2">
-        <v>1</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="2">
-        <v>6</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111" s="5">
-        <v>0</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="5">
-        <v>6</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="L111" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112" s="2">
-        <v>1</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="2">
-        <v>6</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="5">
-        <v>1</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="5">
-        <v>6</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J113" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K113" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L113" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" s="2">
-        <v>1</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="2">
-        <v>6</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="5">
-        <v>1</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="5">
-        <v>6</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K115" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A205A-84F0-A644-8A73-DAC09CFA1F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E05BA-7811-3F48-865D-4FD436B28FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="616">
   <si>
     <t>CourseCode</t>
   </si>
@@ -1927,6 +1927,9 @@
   </si>
   <si>
     <t>The main goal of this course is to present the fundamentals of power systems protection and the philosophy of protecting developed electric power systems with smart-grids technologies. The course will include lectures, presentations and class discussions, in addition to individual selected projects on modern protection methods with related applications using selected software or programing.</t>
+  </si>
+  <si>
+    <t>15V</t>
   </si>
 </sst>
 </file>
@@ -2329,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K55" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60:M117"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4715,6 +4718,9 @@
       <c r="D61" t="s">
         <v>498</v>
       </c>
+      <c r="E61" t="s">
+        <v>427</v>
+      </c>
       <c r="F61">
         <v>6</v>
       </c>
@@ -4753,6 +4759,9 @@
       <c r="D62" t="s">
         <v>498</v>
       </c>
+      <c r="E62" t="s">
+        <v>427</v>
+      </c>
       <c r="F62">
         <v>6</v>
       </c>
@@ -4791,6 +4800,9 @@
       <c r="D63" t="s">
         <v>498</v>
       </c>
+      <c r="E63" t="s">
+        <v>427</v>
+      </c>
       <c r="F63">
         <v>6</v>
       </c>
@@ -4829,6 +4841,9 @@
       <c r="D64" t="s">
         <v>498</v>
       </c>
+      <c r="E64" t="s">
+        <v>427</v>
+      </c>
       <c r="F64">
         <v>6</v>
       </c>
@@ -4867,6 +4882,9 @@
       <c r="D65" t="s">
         <v>498</v>
       </c>
+      <c r="E65" t="s">
+        <v>427</v>
+      </c>
       <c r="F65">
         <v>6</v>
       </c>
@@ -4905,6 +4923,9 @@
       <c r="D66" t="s">
         <v>498</v>
       </c>
+      <c r="E66" t="s">
+        <v>427</v>
+      </c>
       <c r="F66">
         <v>6</v>
       </c>
@@ -4943,6 +4964,9 @@
       <c r="D67" t="s">
         <v>498</v>
       </c>
+      <c r="E67" t="s">
+        <v>427</v>
+      </c>
       <c r="F67">
         <v>6</v>
       </c>
@@ -4981,6 +5005,9 @@
       <c r="D68" t="s">
         <v>498</v>
       </c>
+      <c r="E68" t="s">
+        <v>427</v>
+      </c>
       <c r="F68">
         <v>6</v>
       </c>
@@ -5019,6 +5046,9 @@
       <c r="D69" t="s">
         <v>498</v>
       </c>
+      <c r="E69" t="s">
+        <v>428</v>
+      </c>
       <c r="F69">
         <v>6</v>
       </c>
@@ -5057,6 +5087,9 @@
       <c r="D70" t="s">
         <v>498</v>
       </c>
+      <c r="E70" t="s">
+        <v>427</v>
+      </c>
       <c r="F70">
         <v>6</v>
       </c>
@@ -5095,6 +5128,9 @@
       <c r="D71" t="s">
         <v>498</v>
       </c>
+      <c r="E71" t="s">
+        <v>427</v>
+      </c>
       <c r="F71">
         <v>6</v>
       </c>
@@ -5247,6 +5283,9 @@
       <c r="D75" t="s">
         <v>498</v>
       </c>
+      <c r="E75" t="s">
+        <v>427</v>
+      </c>
       <c r="F75">
         <v>6</v>
       </c>
@@ -5285,6 +5324,9 @@
       <c r="D76" t="s">
         <v>498</v>
       </c>
+      <c r="E76" t="s">
+        <v>428</v>
+      </c>
       <c r="F76">
         <v>6</v>
       </c>
@@ -5323,6 +5365,9 @@
       <c r="D77" t="s">
         <v>498</v>
       </c>
+      <c r="E77" t="s">
+        <v>428</v>
+      </c>
       <c r="F77">
         <v>6</v>
       </c>
@@ -5361,6 +5406,9 @@
       <c r="D78" t="s">
         <v>498</v>
       </c>
+      <c r="E78" t="s">
+        <v>427</v>
+      </c>
       <c r="F78">
         <v>6</v>
       </c>
@@ -5475,6 +5523,9 @@
       <c r="D81" t="s">
         <v>498</v>
       </c>
+      <c r="E81" t="s">
+        <v>427</v>
+      </c>
       <c r="F81">
         <v>6</v>
       </c>
@@ -5589,6 +5640,9 @@
       <c r="D84" t="s">
         <v>498</v>
       </c>
+      <c r="E84" t="s">
+        <v>427</v>
+      </c>
       <c r="F84">
         <v>6</v>
       </c>
@@ -5664,6 +5718,9 @@
       </c>
       <c r="D86" t="s">
         <v>498</v>
+      </c>
+      <c r="E86" t="s">
+        <v>615</v>
       </c>
       <c r="F86">
         <v>12</v>

--- a/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E05BA-7811-3F48-865D-4FD436B28FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F0225-5240-6643-A7D8-18D46FA87320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="616">
   <si>
     <t>CourseCode</t>
   </si>
@@ -2332,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3616,6 +3616,9 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
+      <c r="E32" t="s">
+        <v>428</v>
+      </c>
       <c r="F32">
         <v>6</v>
       </c>
@@ -3996,6 +3999,9 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
+      <c r="E42" t="s">
+        <v>427</v>
+      </c>
       <c r="F42">
         <v>8</v>
       </c>
@@ -6026,6 +6032,9 @@
       <c r="D94" t="s">
         <v>498</v>
       </c>
+      <c r="E94" t="s">
+        <v>427</v>
+      </c>
       <c r="F94">
         <v>8</v>
       </c>
@@ -6064,6 +6073,9 @@
       <c r="D95" t="s">
         <v>498</v>
       </c>
+      <c r="E95" t="s">
+        <v>427</v>
+      </c>
       <c r="F95">
         <v>4</v>
       </c>
@@ -6102,6 +6114,9 @@
       <c r="D96" t="s">
         <v>498</v>
       </c>
+      <c r="E96" t="s">
+        <v>427</v>
+      </c>
       <c r="F96">
         <v>8</v>
       </c>
@@ -6254,6 +6269,9 @@
       <c r="D100" t="s">
         <v>498</v>
       </c>
+      <c r="E100" t="s">
+        <v>427</v>
+      </c>
       <c r="F100">
         <v>8</v>
       </c>
@@ -6292,6 +6310,9 @@
       <c r="D101" t="s">
         <v>498</v>
       </c>
+      <c r="E101" t="s">
+        <v>427</v>
+      </c>
       <c r="F101">
         <v>8</v>
       </c>
@@ -6330,6 +6351,9 @@
       <c r="D102" t="s">
         <v>498</v>
       </c>
+      <c r="E102" t="s">
+        <v>428</v>
+      </c>
       <c r="F102">
         <v>6</v>
       </c>
@@ -6444,6 +6468,9 @@
       <c r="D105" t="s">
         <v>498</v>
       </c>
+      <c r="E105" t="s">
+        <v>427</v>
+      </c>
       <c r="F105">
         <v>8</v>
       </c>
@@ -6520,6 +6547,9 @@
       <c r="D107" t="s">
         <v>498</v>
       </c>
+      <c r="E107" t="s">
+        <v>427</v>
+      </c>
       <c r="F107">
         <v>8</v>
       </c>
@@ -6558,6 +6588,9 @@
       <c r="D108" t="s">
         <v>498</v>
       </c>
+      <c r="E108" t="s">
+        <v>427</v>
+      </c>
       <c r="F108">
         <v>8</v>
       </c>
@@ -6671,6 +6704,9 @@
       </c>
       <c r="D111" t="s">
         <v>498</v>
+      </c>
+      <c r="E111" t="s">
+        <v>427</v>
       </c>
       <c r="F111">
         <v>8</v>

--- a/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar haustönn 2022 með undanförum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F0225-5240-6643-A7D8-18D46FA87320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E7071-3699-384A-A9C6-05B3E86934D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="645">
   <si>
     <t>CourseCode</t>
   </si>
@@ -1930,6 +1930,109 @@
   </si>
   <si>
     <t>15V</t>
+  </si>
+  <si>
+    <t>T-501-REGL</t>
+  </si>
+  <si>
+    <t>T-866-MODE</t>
+  </si>
+  <si>
+    <t>Raforkukerfi og reiknilíkön</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt;                  2. First cycle, intermediate.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Mandatory course for mechatronics engineering, biomedical engineering, electric power engineering, energy engineering, mechanical engineering.&lt;br&gt;&lt;strong&gt;Mandatory prerequisites: &lt;/strong&gt;Calculus I (T-101-STA1), Physics I (T-102-EDL1), Physcis II (T-202-EDL2).&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Basic concepts of charge, current, power and energy.&lt;/li&gt;&lt;li&gt;Circuit elements, including different types of sources.&lt;/li&gt;&lt;li&gt;Basic laws, including Ohm’s and Kirchhoff’s laws.&lt;/li&gt;&lt;li&gt;Series and parallel connections, and Delta and Wye transformations.&lt;/li&gt;&lt;li&gt;Circuit analysis methods; node voltage and mesh current methods.&lt;/li&gt;&lt;li&gt;Circuit theorems; superposition, source transformation, Thevenin’s and Norton’s theorems and maximum power transfer.&lt;/li&gt;&lt;li&gt;Operational amplifiers (Op-Amp) and its basic circuits.&lt;/li&gt;&lt;li&gt;Inductors and capacitors and series and parallel combinations.&lt;/li&gt;&lt;li&gt;First order RL and RC circuits, and the natural, forced and steady-state responses.&lt;/li&gt;&lt;li&gt;Second order series and parallel RLC circuits.&lt;/li&gt;&lt;li&gt;Concepts of phasors and impedances for AC sinusoidal analysis&lt;/li&gt;&lt;li&gt;Circuits methods and theorems for AC sinusoidal steady-state and AC power analysis&lt;/li&gt;&lt;li&gt;Frequency response; resonance conditions, transfer functions and frequency filters&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Textbook&lt;/strong&gt;: Fundamentals of Electric Circuits, C. K. Alexander and M. N. O. Sadiku, Mc Graw Hill 6th edition, 2016 (Chapters: 01-11 and 14).&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Lecture Slides&lt;/strong&gt;: Mainly from the textbook.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Homework Assignments and Experiments&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;The course supervisor is Mohamed Abdelfattah.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt;                  3. First cycle, advanced / 4. Second cycle, introductory.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Core mechatronics engineering, electric power engineering.  Recommended elective for biomedical engineering and mechanical engineering.&lt;br&gt;&lt;strong&gt;Prerequisites (mandatory):&lt;/strong&gt; Calculus I (T-101-STA1), Calculus II (T-201-STA2), Mathematics III (T-301-MATH), Linear Algebra (T-211-LINA), Linear Dynamic Systems. T-401-LISY. Programming in Matlab and/or Python.&lt;/p&gt;&lt;p&gt;This is an introductory course to feedback control systems. The course topics are:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Models of dynamical systems based on ordinary differential equations&lt;/li&gt;&lt;li&gt;Stability analysis&lt;/li&gt;&lt;li&gt;Linear systems&lt;/li&gt;&lt;li&gt;Design of control systems in state-space&lt;/li&gt;&lt;li&gt;PID control&lt;/li&gt;&lt;li&gt;Frequency domain analysis&lt;/li&gt;&lt;li&gt;Frequency domain design methods&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;K. J. Åström &amp; R. M. Murray, &lt;em&gt;Feedback Systems: An Introduction for Scientists and Engineers&lt;/em&gt;, Princeton University Press, 2008 (www.cds.caltech.edu/~murray/amwiki/Main_Page)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fyrir allar námsbrautir í verkfræði&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Engir undanfarar.&lt;/p&gt;&lt;p&gt;Farið er í undirstöðuatriði línulegrar algebru og notkun á þeim. Tekinn er fyrir fylkjareikningur og aðferðir við lausn á línulegum jöfnuhneppum. Fjallað er um línulegar varpanir, ákveður, eigingildi og eiginvigra. Myndræn beiting fylkjareiknings er skoðuð. Fjallað er um vigrarúmfræði, þar á meðal jöfnur fyrir plön. Teknar eru fyrir aðferðir til að leiða út grunn fyrir ýmis hlutrúm Rn.  Nemendur fá að kynnast almennum vektorrúmum og eiginleika þeirra.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                 &lt;/strong&gt;Lay, Lay and McDonald, &lt;em&gt;Linear Algebra and its Applications.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið.&lt;strong&gt; &lt;/strong&gt;  &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið vélaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Eðlisfræði I (T-102-EDL1), Stærðfræði II (T-201-STA2), Varmafræði (T-507-VARM).&lt;/p&gt;&lt;p&gt;Efnistök námskeiðsins eru meðal annars eðliseiginleikar vökva, vökvastöðufræði, varðveislulögmál með tegur- og diffurframsetningu, Bernoulli jafna, mættisstreymi, einföld flæði seigra vökva með Navier-Stokes jöfnum, víddargreining, pípustreymi, jaðarlög og þjappanleg flæði.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                              &lt;/strong&gt;F.M White, &lt;em&gt;Fluid Mechanics.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                  3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fjármálaverkfræði og rekstrarverkfræði á 3. ári. Skyldunámskeið heilbrigðisverkfræði og vélaverkfræði á 4. ári (þ.e. á fyrsta ári meistaranáms).&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Stærðfræði I (T-101-STA1), Stærðfræði II (T-201-STA2),  Línuleg Algebra (T-211-LINA), Forritun fyrir verkfræðinema (T-201-FOR1), Stærðfræði III (T-301-MATH).&lt;/p&gt;&lt;p&gt;Undirstöðuatriði tölulegrar greiningar og notkun á þeim. Nálganir og skekkjumat. Tölulegar aðferðir til að leysa jöfnur og finna lægsta gildi falls. Tölulegar lausnir á línulegum og ólínulegum jöfnuhneppum. Margliðubrúun. Línuleg aðhvarfsgreining fyrir gagnasöfn. Töluleg diffrun og heildun. Tölulegar lausnir á upphafs- og jaðargildisverkefni fyrir venjulegar diffurjöfnur og diffurjöfnuhneppi. Undirstöðuatriði bútaaðferðar við lausn á diffurjöfnum. Áhersla er lögð á hagnýta forritun til að leysa stærðfræðileg verkefni sem koma upp í verkfræðinni. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                                 &lt;/strong&gt;Timothy Sauer, &lt;em&gt;Numerical Analysis&lt;/em&gt;. Fyrirlestrarnótur frá kennara&lt;em&gt;.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið.    &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:            &lt;/strong&gt;Skyldunámskeið heilbrigðisverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Engir. Efnafræði (T-204-EFNA) er ráðlagður undanfari.&lt;/p&gt;&lt;p&gt;Fyrsti hluti: Inngangur að frumulíffræði, lífefnafræði frumna og prótein.&lt;/p&gt;&lt;p&gt;Annar hluti: Sameindaerfðafræði. Genamengið og litningar, DNA eftirmyndun, DNA viðgerðir og DNA       endurröðun. Umritun á DNA yfir í RNA. Þýðing á RNA yfir í prótein. Grunnatriði genastjórnunar.&lt;/p&gt;&lt;p&gt;Þriðji hluti: Frumuhimnan, flutningur sameinda yfir frumuhimnu, Innra skipulag frumunar, Flutningur í     blöðrum, Orkubúskapur frumunar, Boðskipti frumunar og Frumugrindin.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Alberts et al, &lt;em&gt;Essential Cell Biology.4th edition&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt; 3. Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs: &lt;/strong&gt;Skyldunámskeið hátækniverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Forritun í C++ (T-208-FOR2) eða Python (T-111-PROG eða T-201-FOR1). &lt;strong&gt;Aðrir ráðlagðir undanfarar:&lt;/strong&gt; Greining rása (T-306-RAS1); Stöðu- og burðarþolsfræði (T-106-BURD); Tölvuhögun (T-107-TOLH, hægt að taka samhliða). &lt;/p&gt;&lt;p&gt;This is an introduction to Mechatronics, the technique of interfacing software, electronics, and mechanical components. We will be utilizing the Raspberry Pi single-board linux microcontroller and Arduino as our focus. Students will have pay a fee for their personal lab kit which includes some shared parts for team-based labs. The chosen textbook is required for the course and critical to completing the Lab assignments. &lt;br&gt;We will begin with an introduction to linux and software engineering. This includes C++, python, and Subversion (for collaboration).  We will then shift to electronics design, implementation, and testing. We will cover both analog and digital electronics with a focus on interfacing to sensors and actuators. Students will be designing and building PCB boards using Altium to integrate the electronics being developed.  Students will choose a final mechatronics team project to be presented at the end of the semester. This project should involve manufacturing mechanical elements and interfacing them with the microcontrollers to demonstrate their mastery of the subject. Students will be spending a good deal of time in the Electronics Lab in V207 and Machine Shop building projects. This means that each student should have gone through safety training in the labs as a prerequisite. If you are an exchange student, contact the Teaching Assistants about setting up a safety training session so you can use the facilities. &lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Textbook/ Lesefni:&lt;/strong&gt; &lt;em&gt;Exploring Raspberry Pi: Interfacing to the Real World with Embedded Linux&lt;/em&gt; by Derek Molloy, published by John Wiley and Sons in 2016.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið. &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fjármálaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Fjármálaverkfræði – inngangur (T-101-INNF), Stærðfræði I &amp; II (T-101-STA1 og T-201- STA2), Línuleg algebra (T-211-LINA).  Aðrir ráðlagðir undanfarar: Góð kunnátta í excel, Matlab og/eða Python.&lt;/p&gt;&lt;p&gt;Viðfangsefni námskeiðsins er verðmat fjárfestinga og ákvarðanafræði og gera nemendur færa um að skilja og beita helstu hugtökum á þessum sviðum.&lt;br&gt;Efnistök námskeiðsins eru: greiðsluflæði, tímagildi peninga, vaxta- og ávöxtunarútreikningar, meðallíftími, vaxtaferlar, framvirkir vextir, samval verðbréfa, framfall eignasafna, CAPM og árangursmat.  Einnig verða vaxtaskiptasamningar kynntir og álagspróf.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;strong&gt;Lesefni:    &lt;/strong&gt;David Luenberger, &lt;em&gt;Investment Science.&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;b&gt;&lt;span style="font-size: 7.5pt; font-family: Verdana, sans-serif;"&gt;General course objectives:&lt;/span&gt;&lt;/b&gt;&lt;br /&gt;_x000D_
+&lt;span style="font-size: 7.5pt; line-height: 107%; font-family: Verdana, sans-serif;"&gt;To obtain knowledge about how various power system components may be appropriately modelled such they may be used for analysis of large-scale systems. This includes static models of transmission lines, transformers and loads, and dynamic models of the synchronous machine.&amp;nbsp; Furthermore, focus is on applying techniques to analyze power system in steady state and in dynamic state. Students have to write Matlab code to carry out load flow analysis and time domain simulations of large power systems.&amp;nbsp; &amp;nbsp;&lt;br /&gt;_x000D_
+&lt;br /&gt;_x000D_
+&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Stefnt er að því að nemendur þekki: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;almenna lausn á diffurjöfnu og sérlausn á upphafsgildisverkefni (U.G.V.),&lt;/li&gt;&lt;li&gt;nokkrar algengar tegundir af fyrsta stigs diffurjöfnum,&lt;/li&gt;&lt;li&gt;hliðraðar og óhliðraðar annars stigs diffurjöfnur,&lt;/li&gt;&lt;li&gt;grunnlausnir á annars stigs diffurjöfnum og Wronski ákveður,&lt;/li&gt;&lt;li&gt;Laplace-ummyndun,&lt;/li&gt;&lt;li&gt;Fourierraðir og Fourier-ummyndun,&lt;/li&gt;&lt;li&gt;fyrsta stigs línuleg diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;nokkrar hlutafleiðujöfnur, t.d. bylgjujöfnuna og varmaleiðnijöfnuna.&lt;/li&gt;&lt;li&gt;einfaldar ítranir til að leysa diffurjöfnu tölulega.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;leyst nokkrar tegundir af fyrsta stigs diffurjöfnum, t.d. með því að aðskilja breytistærðir, finna mætti eða nota breytuskipti,&lt;/li&gt;&lt;li&gt;leyst hliðraðar annars stigs diffurjöfnur, t.d. með aðferð breytilegra stuðla eða aðferð óákvarðaðra fasta,&lt;/li&gt;&lt;li&gt;leyst upphafsgildisverkefni með Heaviside falli eða Deltafalli Diracs með Laplace-ummyndun,&lt;/li&gt;&lt;li&gt;fundið veldaraðalausnir,&lt;/li&gt;&lt;li&gt;fundið Fourierröð falls og kósínus og sínusröð falls,&lt;/li&gt;&lt;li&gt;breytt n-ta stigs diffurjöfnu í 1. stigs diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;leyst diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;geti leyst jaðargildisverkefni fyrir annars stigs diffurjöfnur með fastastuðlum,&lt;/li&gt;&lt;li&gt;geti leyst einfaldar hlutafleiðujöfnur með aðskilnaði breytistærða.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Stefnt er að því að nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;átti sig á hlutverki diffurjafna við framsetningu verkefna í verkfræði,&lt;/li&gt;&lt;li&gt;geti leyst verkefni í verkfræði sem innihalda diffurjöfnur.&lt;/li&gt;&lt;li&gt;notað hugbúnað (t.d. Matlab) við lausn verkefna í námsefninu.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat er byggt á skriflegu lokaprófi skiladæmum, hlutaprófum og kynningu á hagnýtri diffurjöfnu. Standast þarf skriflega lokaprófið.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Assessment methods:&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;_x000D_
+&lt;ul&gt;_x000D_
+    &lt;li&gt;Quizzes (short tests)&lt;/li&gt;_x000D_
+    &lt;li&gt;Midterm exam&lt;/li&gt;_x000D_
+    &lt;li&gt;Assignments; homework problems and lab exercises.&lt;/li&gt;_x000D_
+    &lt;li&gt;Final exam; in order to pass this course, you need 50% or higher on the Final-Exam grade and 50% or higher on the total grade.&lt;/li&gt;_x000D_
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This course is designed to give you a solid foundation in the theory and concepts of dynamic systems and how models are used for determining system behaviour. The design of feed-back control systems is particularly well suited to achieving this objective, as it calls for an in-depth understanding of system stability and how this is affected by the design of control signals.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Having completed this course, you should be able to&lt;/p&gt;&lt;ul&gt;&lt;li&gt;explain structure and characteristics of automatic control systems&lt;/li&gt;&lt;li&gt;develop mathematical models of common control systems using differential equations&lt;/li&gt;&lt;li&gt;calibrate these models using system response measurements&lt;/li&gt;&lt;li&gt;determine system stability&lt;/li&gt;&lt;li&gt;apply control to satisfy operational requirements and achieve satisfactory performance&lt;/li&gt;&lt;li&gt;use common methods and software (MATLAB) for the design of control systems&lt;/li&gt;&lt;li&gt;actively participate in the design of a control system&lt;/li&gt;&lt;li&gt;undertake further studies in the analysis and design of complex control systems&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Kennt í 12 vikur - 6 kennslustundir á viku auk verklegra æfinga.</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Stefnt er að því að nemendur þekki:&lt;br&gt;•    undirstöðuatriði fylkjareiknings,&lt;br&gt;•    lausnir á línulegum jöfnuhneppum,&lt;br&gt;•    aðferðir til að meta hvort vigrar eru línulega óháðir,&lt;br&gt;•    grunnatriði varðandi línulegar varpanir,&lt;br&gt;•    vigraaðgerðir, meðal annars innfeldi og krossfeldi,&lt;br&gt;•    fylkjaaðgerðir og andhverfur fylkja,&lt;br&gt;•    þverlægni, ofanvörp og hornrétta grunni,&lt;br&gt;•    hlutrúm Rn og víddir og grunnir þeirra,&lt;br&gt;•    grunnatriði varðandi almenn vektorrúm.&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;br&gt;•    rökstutt niðurstöður í línulegri algebru með því að beita stærðfræðilegri röksemdarfærslu,&lt;br&gt;•    notað fylkjareikning til að leysa ýmis verkefni í rúmfræði,&lt;br&gt;•    reiknað ákveðu og andhverfu fylkis,&lt;br&gt;•    reiknað eigingildi og eiginvigra fylkis, og hornalínugert það þegar hægt er,&lt;br&gt;•    reiknað grunn fyrir ýmis hlutrúm Rn.&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;br&gt;• beitt fylkjareikningi til að leysa verkefni sem upp koma í tölvunarfræði og verkfræði, &lt;br&gt;&lt;/p&gt;&lt;p&gt;• beitt stærðfræðilegri röksemdarfærslu til að sanna einfaldar reglur og setningar. &lt;br&gt;&lt;/p&gt;&lt;p&gt;• notað hugbúnað (t.d. Matlab) við lausn verkefna í námsefninu. &lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, dæmatímar og verklegar æfingar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Markmið með þessu námskeiði er að gefa 1. árs verkfræðinemum grunnþekkingu í samsetningu og starfsemi heilkjörnunga og helstu þáttum í sameindalíffræði heilkjörnunga. Einnig að kynna þeim fyrir almennum þáttum í stofnfrumulíffræði, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Farið verður í grunnþætti lífefnafræði, grunnþætti sameindaerfðafræði, grunnþætti sameindalíffræði og grunnþætti frumulíffræði. Farið í uppbyggingu og starfsemi próteina. Farið verður yfir uppbyggingu og pökkun erfðaefnisins. Farið verður yfir þá þætti sem stýra viðhaldi, viðgerð og endurmyndun á erfðaefninu. Farið verður í gegnum hvernig erfðaefnið er umritað og þýtt yfir í prótein. Farið verður í grunnbyggingu og efnasamsetningu frumuhimnunar. Farið verður yfir helstu þætti sem stjórna flæði efna í gegnum frumuhimnu. Farið verður yfir helstu frumulíffæri og hvernig próteinum er pakkað og flutt til innan frumunar. Farið verður í orkubúskap heilkjörnunga. Farið verður yfir samskipti innan frumna og milli frumna. Farið verður yfir frumugrindina og hvernig frumur hreyfa sig. Fjallað verður um stofnfrumur, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Verklegar æfingar verða tvisvar sinnum á önninni&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Námskeiðinu er skipt í fjóra hluta: I) inngang að frumulíffræð, lífefnafræði og prótein,  II) Sameindaerfðafræði III) Frumuhimnan, flutningur sameinda yfir frumuhimnu, Innra skipulag frumunar, Boðskipti frumunar og Frumugrindin. IV) Stofnfrumur, vefajverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Að loknu námskeiðinu á nemandinn að hafa skilning á efnafræði frumna, uppbyggingu og starfsemi próteina, uppbyggingu erfðaefnisins, umritun og þýðingu erfðaefnis yfir í prótein , byggingu og virkni frumuhimnunnar, frumulíffæri, innanfrumuboðleiðir, samskipti frumna og hafa grunþekkingu um stofnfrumur, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Námsmat&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mæting í verklegar æfingar og skil á skýrslum&lt;/li&gt;&lt;li&gt;Áfangapróf&lt;/li&gt;&lt;li&gt;Skriflegt lokapróf&lt;/li&gt;&lt;li&gt;Ekki farið fram á lágmarkseinkunn úr verklegum æfingum eða áfangaprófum til að öðlast próftökurétt í lokaprófi. Standast þarf lokapróf.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;At the end of the class, students should have good knowledge of:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Data encoding formats and binary arithmetic&lt;/li&gt;&lt;li&gt;Different electrical, mechanical, and software components&lt;/li&gt;&lt;li&gt;Commonly used sensors and actuators in smart devices&lt;/li&gt;&lt;li&gt;Concepts of modularity, independence, information, and robustnes&lt;br&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;At the end of the class, students should know how to:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Operate oscilloscopes, multimeters, soldering irons, and benchtop power-supplies&lt;/li&gt;&lt;li&gt;Create schematics, layout PCB boards, and solder components to build working devices&lt;/li&gt;&lt;li&gt;Program a microcontroller to read sensors and control actuators.  For example: An Arduino with C++ or a BeagleBone with python&lt;/li&gt;&lt;li&gt;Apply the Axiomatic Design methodology to design modular robust systems.&lt;/li&gt;&lt;li&gt;Understand digital and analog communication interfaces such as wireless networking, ethernet, and Internet of Things&lt;/li&gt;&lt;li&gt;Understand actuator and electronics specification sheets&lt;/li&gt;&lt;li&gt;Measure the accuracy, repeatibility, and resolution of a sensor&lt;/li&gt;&lt;li&gt;Record communication and data into a research notebook properly for international-quality research&lt;/li&gt;&lt;li&gt;Write lab reports and conference papers using LaTeX and Overleaf&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;At the end of the class, students will be able to:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Develop an application using a linux single-board-computer&lt;/li&gt;&lt;li&gt;Design, build, and test advanced circuits with active elements&lt;/li&gt;&lt;li&gt;Choose the best components for a design&lt;/li&gt;&lt;li&gt;Improve upon existing mechatronic devices&lt;/li&gt;&lt;li&gt;Build actuator or control systems with feedback&lt;/li&gt;&lt;li&gt;Debug electronic, software, and mechanical issues efficiently&lt;/li&gt;&lt;li&gt;Write a conference-quality paper for a final report of a project&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;There is no final exam.    Assignments will consist of a mixture of group lab assignments and individual competency tests.  Students must be able to effectively communicate their ideas through written and oral methods.  Students will each have a design notebook which must be used on a regular basis on topics relating to the class, team efforts, and analysis.  The notebook will graded periodically.   &lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;Students are required to keep at least a 67% attendance grade in order to complete the course.  Students are also expected to assist in cleanup of the mechatronics lab at the end of the course in order to receive a grade. &lt;br&gt; &lt;br&gt;Proper citation is a requirement in this class, without exemptions.  All material from an outside source (ideas, text, pictures) must include a proper citation.  IEEE is the preferred format.  Failure to include citations will result in a 0 for the assignment and considered plagarism which will be reported to the academic office.  Improperly cited material will be assessed a lesser penalty depending upon the assignment.  You are explicitly given permission to use the RU logo on your reports and presentations without citation because you are enrolled at our university. &lt;br&gt; &lt;br&gt;Late work will be penalized according to the degree of lateness: 10%  per day that work is late to a maximum of 5 points (for 5+ days late).  Assigments may only be submitted up to one week late.  Software with code that was checked in to SVN at the due date/time can be checked off at the next session at full credit.  If any changes are made after that time, the late work penalty will be applied.  For LaTeX documents and presentations, the  CANVAS submission time will be used to assess lateness.  Always check the assignment for the appropriate submission procedure. &lt;br&gt; &lt;br&gt;Whenever possible, the evaluation sheet for a given assignment will be provided before the start of the assignment.  Reports and papers may be resubmitted up to a week after they are returned for regrading.  These grades will be averaged for the new grade(40%/60%). &lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Communication and rigor are critical to proper mechatronic design.  Students will be shown how to use a research notebook and expected to keep it up to date as part of their grade.    Proper citation of included internet and written material must be performed.  Each subject will consist of lectures and related labs or projects.  Significant student participation and interaction in lecture discussions is expected.   &lt;br&gt; &lt;br&gt;Many assignments are to be done in teams.  Collaboration on individual assignments is expected, but each student must do their own writeup (no copying).  Document assignments will use LaTeX templates that will be provided. &lt;br&gt; &lt;br&gt;Students are expected to make use of the Machine shop and Electronics lab, taking appropriate International safety precautions where applicable.  The instructor will give guidelines on these procedures and assist in execution.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Að námskeiðinu loknu hafi nemandi undirstöðuskilning á helstu tegundum verðbréfa og helstu aðferðum sem beita má við verð- og áhættumat þeirra. Þá hafi nemandi góðan skilning á aðferðum til þess að bera saman mismunandi fjárfestingarkosti og geti beitt til þess bestunaraðferðum. Loks hafi nemandi góðan skilning á samspili ávöxtunar og áhættu í verðbréfasöfnum og geti beitt stærðfræðilegum aðferðum til þess að skilgreina eignasafn með tilteknum jaðarskilyrðum.  Ofangreint meginmarkmið má brjóta niður í eftirfarandi undirviðmið:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Skilja fræðilega undirstöðu og aðferðafræði við verðmat á helstu verðbréfum (þó ekki afleiðum) og fjárfestingarkostum.&lt;/li&gt;&lt;li&gt;Velja besta fjárfestingarkost með beitingu heiltölubestunar.&lt;/li&gt;&lt;li&gt;Skilja hugtök um ávöxtunarkröfu, vaxtarferla, framvirka vexti og samspil þessara þátta.&lt;/li&gt;&lt;li&gt;Skilja hugtök um meðaltíma greiðsluflæðis.&lt;/li&gt;&lt;li&gt;Þekkja og beita líkani Markowitz við skilgreiningu verðbréfasafna.&lt;/li&gt;&lt;li&gt;Kunna skil á aðferð Lagrange til þess að finna verðbréfasafn með tilteknum jaðarskilyrðum.&lt;/li&gt;&lt;li&gt;Kunna skil á samspili ávöxtunarkröfu og áhættu og geta teiknað og útskýrt framfallið sem bestu niðurstöðu.&lt;/li&gt;&lt;li&gt;Þekkja og beita CAPM líkaninu við verðmat fjárfestingarkosta.&lt;/li&gt;&lt;li&gt;Hafa grunnþekkingu á helstu tegundum afleiða.&lt;/li&gt;&lt;li&gt;Þekkja aðferðafræði við álagsprófanir í fjármálafyrirtækjum.&lt;/li&gt;&lt;li&gt;Framkvæma umfangsmikið verkefni þar sem ofangreindum atriðum er beitt við lausn hagnýtra viðfangsefna.  &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;span style="font-family: Verdana, sans-serif; font-size: 7.5pt;"&gt;A student who has met the objectives of the course will be able to:&lt;/span&gt;&lt;/p&gt;_x000D_
+&lt;ul type="disc"&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Apply&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; models of electrical transmission lines      and components to &lt;b&gt;analyze&lt;/b&gt; their      transmission characteristics and to study large complex power grids&lt;/span&gt;&lt;/li&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Apply&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the mathematical model of the synchronous      machine to &lt;b&gt;analyze&lt;/b&gt; it under      stationary and transient conditions&lt;/span&gt;&lt;/li&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Describe&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the structure of a program that carriers      out static analysis of complex electric power systems&lt;/span&gt;&lt;/li&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Describe&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the steps involved and information needed      to study the dynamic response in complex electric power systems&lt;/span&gt;&lt;/li&gt;_x000D_
+    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Analyze&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; given power system conditions by applying      load flow and time domain simulations.&amp;nbsp;&lt;/span&gt;&lt;/li&gt;_x000D_
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;span style="font-family: Arial, Helvetica, sans-serif;"&gt;Lectures and practical sessions.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa þekkingu á:&lt;/p&gt;&lt;ul&gt;&lt;li&gt; grunnatriðum verkfræðinnar er lúta að varmafræði&lt;/li&gt;&lt;li&gt; orku- og massavarðveislu í verkfræðilegum kerfum&lt;/li&gt;&lt;li&gt;orkuferlum við nýtingu helstu orkugjafa&lt;/li&gt;&lt;li&gt;eðli og leiðum til varmaflutnings um efni&lt;/li&gt;&lt;li&gt;hagnýtri forritun við úrlausn á verkfræðilegum verkefnum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa færni í að:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;leysa einföld verkfræðileg verkefni m.t.t. massa- og orkujafnvægis og varmaflutnings&lt;/li&gt;&lt;li&gt;setja upp og leysa útreikninga á grunnatriðum orkuframleiðslu m.a. með hagnýtri forritun&lt;/li&gt;&lt;li&gt;setja fram niðurstöður á útreikningum á skilvirkan hátt&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Í lok þessa námskeiðs hafa nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;öðlast hæfni til að beita verkfræðilegum aðferðum við úrlausn á einföldum orkutengdum verkefnum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar og dæmatímar.  Aukatímar í hagnýtri forritun verða í boði.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2013,8 +2116,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B49BBD15-9559-4972-82FA-D083101482EB}" name="Table13" displayName="Table13" ref="A1:L67" totalsRowShown="0">
-  <autoFilter ref="A1:L67" xr:uid="{0BCC3B43-D6C6-4797-9BE9-3F1B8FA3A0A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B49BBD15-9559-4972-82FA-D083101482EB}" name="Table13" displayName="Table13" ref="A1:L115" totalsRowShown="0">
+  <autoFilter ref="A1:L115" xr:uid="{0BCC3B43-D6C6-4797-9BE9-3F1B8FA3A0A0}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C37B6319-0044-475C-AB90-97F329BA360C}" name="CourseCode"/>
     <tableColumn id="2" xr3:uid="{BF58368D-D9E7-4FD7-9C91-39E8D8F9B4EF}" name="Prerequisite"/>
@@ -2332,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6972,17 +7075,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB368C67-0469-40F7-B089-2478E9FFC0A5}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="G47" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68:L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
@@ -9538,6 +9641,1830 @@
         <v>21</v>
       </c>
     </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" t="s">
+        <v>35</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>358</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>499</v>
+      </c>
+      <c r="H69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>628</v>
+      </c>
+      <c r="I70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" t="s">
+        <v>629</v>
+      </c>
+      <c r="K70" t="s">
+        <v>77</v>
+      </c>
+      <c r="L70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>377</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>619</v>
+      </c>
+      <c r="H71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" t="s">
+        <v>630</v>
+      </c>
+      <c r="K71" t="s">
+        <v>99</v>
+      </c>
+      <c r="L71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>499</v>
+      </c>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>433</v>
+      </c>
+      <c r="B74" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>360</v>
+      </c>
+      <c r="H74" t="s">
+        <v>361</v>
+      </c>
+      <c r="I74" t="s">
+        <v>118</v>
+      </c>
+      <c r="J74" t="s">
+        <v>362</v>
+      </c>
+      <c r="K74" t="s">
+        <v>363</v>
+      </c>
+      <c r="L74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" t="s">
+        <v>84</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>434</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
+        <v>619</v>
+      </c>
+      <c r="H76" t="s">
+        <v>96</v>
+      </c>
+      <c r="I76" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" t="s">
+        <v>630</v>
+      </c>
+      <c r="K76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>448</v>
+      </c>
+      <c r="B77" t="s">
+        <v>616</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>620</v>
+      </c>
+      <c r="H77" t="s">
+        <v>631</v>
+      </c>
+      <c r="I77" t="s">
+        <v>632</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+      <c r="K77" t="s">
+        <v>577</v>
+      </c>
+      <c r="L77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>460</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s">
+        <v>628</v>
+      </c>
+      <c r="I78" t="s">
+        <v>75</v>
+      </c>
+      <c r="J78" t="s">
+        <v>629</v>
+      </c>
+      <c r="K78" t="s">
+        <v>77</v>
+      </c>
+      <c r="L78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>372</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>373</v>
+      </c>
+      <c r="H79" t="s">
+        <v>374</v>
+      </c>
+      <c r="I79" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" t="s">
+        <v>375</v>
+      </c>
+      <c r="K79" t="s">
+        <v>376</v>
+      </c>
+      <c r="L79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>621</v>
+      </c>
+      <c r="H80" t="s">
+        <v>633</v>
+      </c>
+      <c r="I80" t="s">
+        <v>68</v>
+      </c>
+      <c r="J80" t="s">
+        <v>69</v>
+      </c>
+      <c r="K80" t="s">
+        <v>70</v>
+      </c>
+      <c r="L80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>345</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
+        <v>621</v>
+      </c>
+      <c r="H81" t="s">
+        <v>633</v>
+      </c>
+      <c r="I81" t="s">
+        <v>68</v>
+      </c>
+      <c r="J81" t="s">
+        <v>69</v>
+      </c>
+      <c r="K81" t="s">
+        <v>70</v>
+      </c>
+      <c r="L81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" t="s">
+        <v>345</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>346</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>347</v>
+      </c>
+      <c r="H82" t="s">
+        <v>348</v>
+      </c>
+      <c r="I82" t="s">
+        <v>75</v>
+      </c>
+      <c r="J82" t="s">
+        <v>349</v>
+      </c>
+      <c r="K82" t="s">
+        <v>350</v>
+      </c>
+      <c r="L82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>440</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s">
+        <v>628</v>
+      </c>
+      <c r="I83" t="s">
+        <v>75</v>
+      </c>
+      <c r="J83" t="s">
+        <v>629</v>
+      </c>
+      <c r="K83" t="s">
+        <v>77</v>
+      </c>
+      <c r="L83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>440</v>
+      </c>
+      <c r="B84" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>372</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>373</v>
+      </c>
+      <c r="H84" t="s">
+        <v>374</v>
+      </c>
+      <c r="I84" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" t="s">
+        <v>375</v>
+      </c>
+      <c r="K84" t="s">
+        <v>376</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>440</v>
+      </c>
+      <c r="B85" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85" t="s">
+        <v>622</v>
+      </c>
+      <c r="H85" t="s">
+        <v>213</v>
+      </c>
+      <c r="I85" t="s">
+        <v>214</v>
+      </c>
+      <c r="J85" t="s">
+        <v>215</v>
+      </c>
+      <c r="K85" t="s">
+        <v>634</v>
+      </c>
+      <c r="L85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>460</v>
+      </c>
+      <c r="B86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="G86" t="s">
+        <v>622</v>
+      </c>
+      <c r="H86" t="s">
+        <v>213</v>
+      </c>
+      <c r="I86" t="s">
+        <v>214</v>
+      </c>
+      <c r="J86" t="s">
+        <v>215</v>
+      </c>
+      <c r="K86" t="s">
+        <v>634</v>
+      </c>
+      <c r="L86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>441</v>
+      </c>
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>623</v>
+      </c>
+      <c r="H87" t="s">
+        <v>130</v>
+      </c>
+      <c r="I87" t="s">
+        <v>131</v>
+      </c>
+      <c r="J87" t="s">
+        <v>132</v>
+      </c>
+      <c r="K87" t="s">
+        <v>133</v>
+      </c>
+      <c r="L87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>441</v>
+      </c>
+      <c r="B88" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>475</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>546</v>
+      </c>
+      <c r="H88" t="s">
+        <v>547</v>
+      </c>
+      <c r="I88" t="s">
+        <v>321</v>
+      </c>
+      <c r="J88" t="s">
+        <v>548</v>
+      </c>
+      <c r="K88" t="s">
+        <v>549</v>
+      </c>
+      <c r="L88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" t="s">
+        <v>34</v>
+      </c>
+      <c r="K89" t="s">
+        <v>35</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>431</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>619</v>
+      </c>
+      <c r="H90" t="s">
+        <v>96</v>
+      </c>
+      <c r="I90" t="s">
+        <v>97</v>
+      </c>
+      <c r="J90" t="s">
+        <v>630</v>
+      </c>
+      <c r="K90" t="s">
+        <v>99</v>
+      </c>
+      <c r="L90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>436</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" t="s">
+        <v>34</v>
+      </c>
+      <c r="K91" t="s">
+        <v>35</v>
+      </c>
+      <c r="L91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>436</v>
+      </c>
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>621</v>
+      </c>
+      <c r="H92" t="s">
+        <v>633</v>
+      </c>
+      <c r="I92" t="s">
+        <v>68</v>
+      </c>
+      <c r="J92" t="s">
+        <v>69</v>
+      </c>
+      <c r="K92" t="s">
+        <v>70</v>
+      </c>
+      <c r="L92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>459</v>
+      </c>
+      <c r="B93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>622</v>
+      </c>
+      <c r="H93" t="s">
+        <v>213</v>
+      </c>
+      <c r="I93" t="s">
+        <v>214</v>
+      </c>
+      <c r="J93" t="s">
+        <v>215</v>
+      </c>
+      <c r="K93" t="s">
+        <v>634</v>
+      </c>
+      <c r="L93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>442</v>
+      </c>
+      <c r="B94" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>384</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>385</v>
+      </c>
+      <c r="H94" t="s">
+        <v>386</v>
+      </c>
+      <c r="I94" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" t="s">
+        <v>158</v>
+      </c>
+      <c r="K94" t="s">
+        <v>159</v>
+      </c>
+      <c r="L94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>435</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+      <c r="G95" t="s">
+        <v>624</v>
+      </c>
+      <c r="H95" t="s">
+        <v>635</v>
+      </c>
+      <c r="I95" t="s">
+        <v>61</v>
+      </c>
+      <c r="J95" t="s">
+        <v>636</v>
+      </c>
+      <c r="K95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>457</v>
+      </c>
+      <c r="B96" t="s">
+        <v>358</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>359</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>360</v>
+      </c>
+      <c r="H96" t="s">
+        <v>361</v>
+      </c>
+      <c r="I96" t="s">
+        <v>118</v>
+      </c>
+      <c r="J96" t="s">
+        <v>362</v>
+      </c>
+      <c r="K96" t="s">
+        <v>363</v>
+      </c>
+      <c r="L96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>457</v>
+      </c>
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" t="s">
+        <v>207</v>
+      </c>
+      <c r="I97" t="s">
+        <v>97</v>
+      </c>
+      <c r="J97" t="s">
+        <v>208</v>
+      </c>
+      <c r="K97" t="s">
+        <v>209</v>
+      </c>
+      <c r="L97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s">
+        <v>628</v>
+      </c>
+      <c r="I98" t="s">
+        <v>75</v>
+      </c>
+      <c r="J98" t="s">
+        <v>629</v>
+      </c>
+      <c r="K98" t="s">
+        <v>77</v>
+      </c>
+      <c r="L98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>438</v>
+      </c>
+      <c r="B99" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>625</v>
+      </c>
+      <c r="H99" t="s">
+        <v>637</v>
+      </c>
+      <c r="I99" t="s">
+        <v>145</v>
+      </c>
+      <c r="J99" t="s">
+        <v>638</v>
+      </c>
+      <c r="K99" t="s">
+        <v>639</v>
+      </c>
+      <c r="L99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" t="s">
+        <v>35</v>
+      </c>
+      <c r="L100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>371</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>499</v>
+      </c>
+      <c r="H101" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>442</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102" t="s">
+        <v>102</v>
+      </c>
+      <c r="H102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I102" t="s">
+        <v>104</v>
+      </c>
+      <c r="J102" t="s">
+        <v>105</v>
+      </c>
+      <c r="K102" t="s">
+        <v>106</v>
+      </c>
+      <c r="L102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>442</v>
+      </c>
+      <c r="B103" t="s">
+        <v>431</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>466</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>509</v>
+      </c>
+      <c r="H103" t="s">
+        <v>510</v>
+      </c>
+      <c r="I103" t="s">
+        <v>511</v>
+      </c>
+      <c r="J103" t="s">
+        <v>512</v>
+      </c>
+      <c r="K103" t="s">
+        <v>513</v>
+      </c>
+      <c r="L103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>399</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" t="s">
+        <v>34</v>
+      </c>
+      <c r="K104" t="s">
+        <v>35</v>
+      </c>
+      <c r="L104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>399</v>
+      </c>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <v>6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>626</v>
+      </c>
+      <c r="H105" t="s">
+        <v>640</v>
+      </c>
+      <c r="I105" t="s">
+        <v>90</v>
+      </c>
+      <c r="J105" t="s">
+        <v>91</v>
+      </c>
+      <c r="K105" t="s">
+        <v>92</v>
+      </c>
+      <c r="L105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>439</v>
+      </c>
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s">
+        <v>81</v>
+      </c>
+      <c r="I106" t="s">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s">
+        <v>83</v>
+      </c>
+      <c r="K106" t="s">
+        <v>84</v>
+      </c>
+      <c r="L106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>460</v>
+      </c>
+      <c r="B107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>475</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>546</v>
+      </c>
+      <c r="H107" t="s">
+        <v>547</v>
+      </c>
+      <c r="I107" t="s">
+        <v>321</v>
+      </c>
+      <c r="J107" t="s">
+        <v>548</v>
+      </c>
+      <c r="K107" t="s">
+        <v>549</v>
+      </c>
+      <c r="L107" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>462</v>
+      </c>
+      <c r="B108" t="s">
+        <v>617</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>618</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+      <c r="G108" t="s">
+        <v>627</v>
+      </c>
+      <c r="H108" t="s">
+        <v>641</v>
+      </c>
+      <c r="I108" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" t="s">
+        <v>642</v>
+      </c>
+      <c r="L108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>433</v>
+      </c>
+      <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109" t="s">
+        <v>206</v>
+      </c>
+      <c r="H109" t="s">
+        <v>207</v>
+      </c>
+      <c r="I109" t="s">
+        <v>97</v>
+      </c>
+      <c r="J109" t="s">
+        <v>208</v>
+      </c>
+      <c r="K109" t="s">
+        <v>209</v>
+      </c>
+      <c r="L109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>446</v>
+      </c>
+      <c r="B110" t="s">
+        <v>445</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>480</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>562</v>
+      </c>
+      <c r="H110" t="s">
+        <v>563</v>
+      </c>
+      <c r="I110" t="s">
+        <v>564</v>
+      </c>
+      <c r="J110" t="s">
+        <v>565</v>
+      </c>
+      <c r="K110" t="s">
+        <v>566</v>
+      </c>
+      <c r="L110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>233</v>
+      </c>
+      <c r="H111" t="s">
+        <v>234</v>
+      </c>
+      <c r="I111" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" t="s">
+        <v>235</v>
+      </c>
+      <c r="K111" t="s">
+        <v>236</v>
+      </c>
+      <c r="L111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>441</v>
+      </c>
+      <c r="B112" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>6</v>
+      </c>
+      <c r="G112" t="s">
+        <v>622</v>
+      </c>
+      <c r="H112" t="s">
+        <v>213</v>
+      </c>
+      <c r="I112" t="s">
+        <v>214</v>
+      </c>
+      <c r="J112" t="s">
+        <v>215</v>
+      </c>
+      <c r="K112" t="s">
+        <v>634</v>
+      </c>
+      <c r="L112" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113" t="s">
+        <v>621</v>
+      </c>
+      <c r="H113" t="s">
+        <v>633</v>
+      </c>
+      <c r="I113" t="s">
+        <v>68</v>
+      </c>
+      <c r="J113" t="s">
+        <v>69</v>
+      </c>
+      <c r="K113" t="s">
+        <v>70</v>
+      </c>
+      <c r="L113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>432</v>
+      </c>
+      <c r="B114" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>72</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <v>6</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s">
+        <v>628</v>
+      </c>
+      <c r="I114" t="s">
+        <v>75</v>
+      </c>
+      <c r="J114" t="s">
+        <v>629</v>
+      </c>
+      <c r="K114" t="s">
+        <v>77</v>
+      </c>
+      <c r="L114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s">
+        <v>643</v>
+      </c>
+      <c r="I115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" t="s">
+        <v>644</v>
+      </c>
+      <c r="L115" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
